--- a/out/literature_evaluation_results.xlsx
+++ b/out/literature_evaluation_results.xlsx
@@ -481,11 +481,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Traditional Chinese opera has relied primarily on oral transmission throughout its long development, resulting in little significant change to the singing styles and musical forms over decades or even centuries. New music practitioners like Xu Ruhui (pen name: Shuihui), who possess a deep foundation in ethnic music, have actively participated in the creation of opera music. Through practice, they have continuously integrated modern compositional techniques with traditional elements, especially in the creation of modern operas. This exploration has led to the establishment of a series of innovative and exquisite genres, effectively resolving the contradiction between preserving tradition and reflecting new social realities. From the selection of themes to artistic treatment, they have filled numerous gaps in traditional opera music, significantly influencing the direction of Chinese literary and artistic development, transforming many local operas into works of major national significance. Xu Ruhui, under the pen name Shuihui, has created influential works such as "The White-Haired Girl," "Mother of the Slaves," "Home," and "Two Generations," which continue to circulate in society today, and his historical contributions are undeniable.
-Not only Xu Ruhui, but also in the early 1950s, various Chinese opera genres such as Yu Opera and Yue Opera welcomed a group of new music practitioners who participated in their reforms. This marked the beginning of a transformative new era for traditional opera music, which had remained unchanged for a century. The work they accomplished was highly creative and vital, leading to a qualitative change in Chinese opera music. To deny this is to negate the contributions of all opera composers since the founding of the People's Republic of China and the achievements and fundamental direction of our country's literary and artistic development.
-All singing styles in traditional opera are based on a fundamental scale, while "school" styles are merely adjustments made by performers based on their unique vocal conditions and characteristics for specific singing segments or phrases. Since these adjustments are not grounded in the theoretical development of musicology, they are localized, random, and naturally generated. Consequently, Chinese opera has seen little change over its hundred-year history, and its rigid transmission model cannot meet the demands of expressing contemporary cultural life. It was only after professional music practitioners like Xu Ruhui entered the realm of opera music creation that comprehensive designs for opera music and singing styles emerged, including overall layout, local integration, fixed tones and pitches, thematic continuity, the creation of new forms, and diverse expressions. A complete musical work (including a complete opera score) can only become a cohesive whole through the composer's reprocessing, refining, integrating, and recreating of basic forms, patterns, melodies, and related materials. 
-Since the 1950s, the representative works of key figures in various Chinese opera genres have all been achievements of new literary and artistic workers, including new music practitioners like Xu Ruhui. This clearly illustrates the distinction between the two eras. These works exhibit more pronounced characteristics of the times, employing a more artistic and vivid musical language that resonates with the public's preferences.
-The reform of modern Shanghai opera has been at the forefront among numerous opera genres nationwide, producing a number of modern plays with significant national influence. Prior to this, the impact and reach of Shanghai opera were very localized, with all its major representative works emerging during the new cultural era.</t>
+          <t>In the long process of its development, traditional Chinese opera mainly relies on oral transmission, and all singing programs and music cards have basically not changed significantly for decades or even hundreds of years. After participating in the creation of opera music, Xu Ruhui (pen name Shui Hui), a new musician with deep national music skills in Shanghai's Shanghai opera industry, has continuously integrated modern composition techniques with tradition in practice, especially in the creation of modern opera, and has explored and created a series of novel and wonderful genres, which has well solved the contradiction between maintaining tradition and reflecting the content of new social life, and has filled many gaps in traditional opera music from the selection of themes to artistic treatment. Moreover, a large number of opera repertoire from local small operas later had a significant impact on the direction of Chinese literature and art development. Xu Ruhui used the pen name Shui Hui to create "The White-Haired Girl", "The Mother of a Slave", "Home", "Two Generations" and other influential works, which have been passed down in society to this day, and the historical achievements are undeniable.
+Not only Xu Ruhui, in the early fifties of the last century, various Chinese opera genres such as Henan Opera, Yue Opera, etc., have successively joined a group of new music workers to participate in its reform, so that the traditional opera music that has been inherited unchanged for a hundred years has begun to enter a new era of change, and the work they have done has a very strong creativity and vitality, so that Chinese opera music has undergone qualitative changes, denying this, from a Let Prostitute Bo is equivalent to denying the contribution of all opera composers since New China. The achievements and basic direction of China's literary and artistic development since the People's Republic of China.
+All the singing tones of traditional opera are a basic tone, and the "genre" singing voice is only the actor's adjustment, change and reference to a certain singing segment and a certain singing phrase according to their different voice conditions and characteristics, because it is not based on the theory of technical development of music disciplines, it is local, random and naturally generated, so Chinese opera has rarely changed in the development history of hundreds of years, and its fixed inheritance mode cannot meet the requirements of expressing contemporary humanistic life. Since Xu Ruhui, a professional musician entered the creation of opera music, there have been major developments and changes such as the overall design of the music and singing of the opera repertoire, the overall layout, the local integration, the setting of the tone, the theme throughout, the creation of new styles, the expression of genres, and the diversity of forms. A complete musical work (including a complete opera music) can only be integrated into a whole when the composer reprocesses, refines, integrates and recreates the basic format, program, melody and related materials. Throughout the fifties of the last century, the representative works of representatives of various types of Chinese opera are all made by new literary and artistic workers, including new music workers such as Xu Ruhui, after entering the opera world. Suffice it to explain the difference between the two before and after. These works have more distinctive characteristics of the times, closer to the artistic and figurative musical language and the musical form that the masses like to see.
+The reform of modern opera in Shanghai opera is a leading type of opera in many operas in the country, and has produced a number of modern repertoire that has a significant impact on the country (before that, the influence of Shanghai opera art and the circulation range were very regional, and all the most important masterpieces of Shanghai opera were produced in Xinwen).</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,25 +494,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在专业术语的使用上更为恰当，如“ethnic music”与“national music”的区分，以及“qualitative change”与“质的变化”的准确传达。谷歌翻译在某些句子结构上显得较为生硬，例如“their work is very creative and vital”缺乏更自然的表达，影响了整体的流畅性。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：75分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性方面表现更佳，尤其在“心传心授”翻译为“heart-to-heart transmission”时，保留了原文的细腻情感。而大模型翻译在某些地方显得较为生硬，例如“从一个让娼玻就相当于否定了新中国以来所有戏曲作曲家的贡献”这一句的翻译不够清晰，导致理解困难。整体而言，谷歌翻译在语气和细节的保留上更为出色。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Traditional Chinese opera has relied primarily on oral transmission throughout its long development, resulting in little significant change to the singing styles and musical forms over decades or even centuries. New music practitioners like Xu Ruhui (pen name: Shuihui), who possess a deep foundation in ethnic music, have actively participated in the creation of opera music. Through practice, they have continuously integrated modern compositional techniques with traditional elements, especially in the creation of modern operas. This exploration has led to the establishment of a series of innovative and exquisite genres, effectively resolving the contradiction between preserving tradition and reflecting new social realities. From the selection of themes to artistic treatment, they have filled numerous gaps in traditional opera music, significantly influencing the direction of Chinese literary and artistic development, transforming many local operas into works of major national significance. Xu Ruhui, under the pen name Shuihui, has created influential works such as "The White-Haired Girl," "Mother of the Slaves," "Home," and "Two Generations," which continue to circulate in society today, and his historical contributions are undeniable.
-Not only Xu Ruhui, but also in the early 1950s, various Chinese opera genres such as Yu Opera and Yue Opera welcomed a group of new music practitioners who participated in their reforms. This marked the beginning of a transformative new era for traditional opera music, which had remained unchanged for a century. The work they accomplished was highly creative and vital, leading to a qualitative change in Chinese opera music. To deny this is to negate the contributions of all opera composers since the founding of the People's Republic of China and the achievements and fundamental direction of our country's literary and artistic development.
-All singing styles in traditional opera are based on a fundamental scale, while "school" styles are merely adjustments made by performers based on their unique vocal conditions and characteristics for specific singing segments or phrases. Since these adjustments are not grounded in the theoretical development of musicology, they are localized, random, and naturally generated. Consequently, Chinese opera has seen little change over its hundred-year history, and its rigid transmission model cannot meet the demands of expressing contemporary cultural life. It was only after professional music practitioners like Xu Ruhui entered the realm of opera music creation that comprehensive designs for opera music and singing styles emerged, including overall layout, local integration, fixed tones and pitches, thematic continuity, the creation of new forms, and diverse expressions. A complete musical work (including a complete opera score) can only become a cohesive whole through the composer's reprocessing, refining, integrating, and recreating of basic forms, patterns, melodies, and related materials. 
-Since the 1950s, the representative works of key figures in various Chinese opera genres have all been achievements of new literary and artistic workers, including new music practitioners like Xu Ruhui. This clearly illustrates the distinction between the two eras. These works exhibit more pronounced characteristics of the times, employing a more artistic and vivid musical language that resonates with the public's preferences.
-The reform of modern Shanghai opera has been at the forefront among numerous opera genres nationwide, producing a number of modern plays with significant national influence. Prior to this, the impact and reach of Shanghai opera were very localized, with all its major representative works emerging during the new cultural era.</t>
+          <t>During its long development, traditional Chinese opera mainly relied on oral transmission and heart-to-heart transmission. All the singing styles and tunes remained unchanged for decades or even hundreds of years. After participating in the creation of opera music, new music workers like Xu Ruhui (pen name Shuihui) from Shanghai Opera, who have a deep foundation in national music, have continuously integrated modern composition techniques with tradition in practice. Especially in the creation of modern opera, they have explored and created a series of novel and wonderful genres, which have well solved the contradiction between maintaining tradition and reflecting the new social life content. From the selection of themes to artistic treatment, they have filled many gaps in traditional opera music, and made a large number of opera repertoires from local small operas have a significant impact on guiding the development direction of Chinese literature and art. Xu Ruhui, under the pen name Shuihui, has created influential works such as "White Haired Girl", "Mother of Slaves", "Home", and "Two Generations", which have been passed down to this day in society, and his historical achievements are undeniable. It is not just Xu Ruhui. In the early 1950s, a group of new music workers joined the reform of various Chinese operas, such as Henan Opera and Yue Opera, which made the traditional opera music, which had been passed down for a hundred years, enter a new era of change. Their work is very creative and vital, which has brought about a qualitative change in Chinese opera music. Denying this is equivalent to denying the contributions of all opera composers since the founding of New China, and the achievements and basic direction of the development of Chinese literature and art since the founding of New China. All the singing styles of traditional operas are of the same basic tune. The singing styles of "schools" are just adjustments, changes and references made by actors to certain sections or phrases according to their own vocal conditions and characteristics. Because it is not based on the theoretical basis of the development of music disciplines and technologies, it is local, random and naturally generated. Therefore, Chinese opera has rarely changed in its hundreds of years of development history, and its fixed inheritance model cannot meet the requirements of expressing contemporary humanistic life. It was not until professional music workers like Xu Ruhui entered the creation of opera music that the overall design, overall layout, local integration, tone setting and theme penetration of opera repertoire music and singing styles were realized. , creating new patterns, expressing genres, and diversifying forms. A complete musical work (including a complete opera music) can only become a whole when the composer reprocesses, refines, integrates and recreates the basic patterns, programs, tunes and related materials. Looking at the representative works of the representatives of various Chinese opera genres since the 1950s, they are all the achievements of new literary and artistic workers, including new music workers such as Xu Ruhui, after entering the opera world. It is enough to illustrate the difference between the two. These works have more distinct characteristics of the times, and are closer to artistic and figurative musical languages and musical forms that are popular with the masses. The reform of modern Shanghai opera is a genre that is at the forefront of many operas in the country, and has produced a number of modern repertoires with great influence in the country (before this, the influence of Shanghai opera art and its scope of spread were very regional, and all the most important representative works of Shanghai opera were produced in the new literature and art circles).</t>
         </is>
       </c>
     </row>
@@ -530,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I used to think that Shen Congwen had little connection with Tianjin aside from his role as the editor of the "Dazhongbao" and its "Literary Supplement." However, after consulting Professor Li Yang, the author of "Chronology of Shen Congwen," and receiving a detailed response, I was pleasantly surprised.
-Professor Li informed me that Shen Congwen not only had numerous ties to Tianjin but also visited the city several times. He mentioned in a WeChat message: "I checked, and although Shen Congwen served as the chief editor of the Tianjin 'Dazhongbao,' he didn't visit Tianjin often. According to the chronology, he was recorded to have been there four times, primarily as a transit point. In August 1923, he first traveled to Beijing, passing through Tianjin. From July 29 to 30, 1928, he spent two days in Tianjin while waiting to board a ship to Shanghai. On November 16, 1935, he visited Tianjin to see his sister Shen Yuemeng; and on August 12, 1937, he fled from Tianjin, where he stayed the longest, approximately ten days." With this newfound understanding, I felt more confident in writing this article.
-Shen Congwen's relationship with Tianjin was primarily through the "Dazhongbao." This city has been particularly famous in modern times, being at the forefront of openness and innovation. Many modern technologies, cultural ideas, and concepts emerged here, especially in journalism. The first telegraphic news report in China was sent out from Tianjin. The founding of the "Dazhongbao" was renowned, with its name meaning "to forget oneself for the greater good, to be selfless for the public." Its mission was "to promote enlightenment and broaden public knowledge; to draw from Western scholarship and awaken the intelligence of our compatriots." Clearly, from its inception, this newspaper established a national stance of impartiality, enlightenment, openness, and advocacy for the people.
-Before Shen Congwen took over as editor, the "Dazhongbao" had already published two literary supplements: "Literary Supplement" and "Little Park." He took over the "Literary Supplement" and renamed it the "Art Supplement." The "Dazhongbao" "Art Supplement" was launched on September 23, 1933, with an editorial board that included Yang Zhensheng, Shen Congwen, Zhu Ziqing, Lin Huiyin, and Deng Yizhe, among others, though most of them were not actively involved in the day-to-day operations. Shen Congwen managed the daily editorial work, and the manuscripts were prepared in Beiping (now Beijing) before being sent to the Tianjin newspaper for typesetting. Of course, he would occasionally travel between Beiping and Tianjin to handle editorial matters. Thus, his literary career became inextricably linked to this newspaper's supplement.
-Taking on the editorial responsibilities of the "Dazhongbao" "Art Supplement" also marked the beginning of his professional editing career, allowing him to realize his ideal life of publishing and writing. He once said, "I always dream of running a publication, regardless of its size, circulation, or lack of submissions; I want to handle everything myself, as long as there are people to print and sell it. This plan could occupy my entire life." Being the editor of the "Dazhongbao" "Art Supplement" provided a strong economic backing, enabling him to focus more on editing and writing, while also allowing him to practice his literary ideals and beliefs. Shen Congwen emphasized the artistic individuality and seriousness of literary works, breaking away from the traditional disdain among literati and the rigid conventions of the literary world, insisting on the importance of literary style, and tirelessly working to expand the influence of this newspaper's supplement.
-As for why he became involved in editing the "Dazhongbao" "Art Supplement," this also...</t>
+          <t>I always thought that Shen Congwen had almost nothing to do with Tianjin except for presiding over the "Ta Kung Pao" and "Literary Supplement". After consulting Professor Li Yang, the author of "Shen Congwen's Long Chronicle", and getting a detailed reply, I was overjoyed.
+Professor Li Yang said that Shen Congwen not only has an inextricable relationship with Tianjin, but also has been to Tianjin. He told me in WeChat: "I checked it, although Shen Congwen edited Tianjin's "Ta Kung Pao", but not many people came to Tianjin, I recorded it four times in the annals, and Tianjin was mostly a transit place. In August 1923, the first time I went to Beijing was in Tianjin. From July 29 to 30, 1928, I spent two days in Tianjin for the purpose of sailing to Shanghai. On November 16, 1935, he came to Tianjin to visit his sister Shen Yuemeng; On August 12, 1937, the refugees set out from Tianjin, and stayed in Tianjin for the longest time, about 10 days." I see, and it increased my confidence to write this article.
+Of course, Shen Congwen's relationship with Tianjin was mainly the "Ta Kung Pao." The city of Tianjin has been particularly famous in modern times, and it was the first to gain the trend of "being opened up," and many modern technologies, cultures, and concepts were avant-garde, and the news was even more so, and it was from here that the press release of China's first telegram was first issued. The inaugural issue of Ta Kung Pao is even more famous all over the world, the meaning of registration is "forgetting oneself is great, selfless is public", and the purpose of running the newspaper is "to open up the atmosphere and cultivate the wisdom of the people; It can be seen that at the beginning of the newspaper, this newsprint established its own national stance of fairness, enlightenment, openness, and speaking for the people.
+Before Shen Congwen became the editor, "Ta Kung Pao" already ran two literary supplements, "Literary Supplement" and "Little Park". He took over the compilation of the "Literary Supplement" and renamed it the "Literary Supplement." Ta Kung Pao" and "Literary Supplement" were founded on September 23, 1933, and the editorial board was composed of Yang Zhensheng, Shen Congwen, Zhu Ziqing, Lin Huiyin, Deng Yizhen and others, but most of them did not care. The daily editorial work was presided over by Shen Congwen, and the manuscript was also compiled in Beiping and mailed to the newspaper office in Tianjin. Of course, he sometimes goes back and forth between Pingjin and Tianjin because of the editorial work. Since then, his literary career has almost been indissolubly linked to the supplement of this newspaper.
+Shen Congwen took over the editorial work of "Ta Kung Pao" and "Literary Supplement", and at the same time achieved his professional editing career, realizing the ideal life of running a journal and writing articles. He once said: "I want to have a publication all the time, I am not afraid of being small, I am not afraid of no sales, I am not afraid of no manuscripts, everything is up to me, as long as someone prints it, someone sells it on behalf of me, this plan can kill my whole life." Editing the "Literary Supplement" for "Ta Kung Pao" has a strong economic backing, and can put more energy into editing and writing articles, and can also practice the literary concepts and propositions in his heart according to his own ideas. Shen Congwen pays attention to the artistic personality and seriousness of literary works, breaks the traditional rules and regulations of the literati and the sedimentation of the literary world, insists on paying attention to the literary style, and spares no effort to expand the influence of this newspaper supplement.
+Why did he participate in the editing of "Ta Kung Pao" and "Literary Supplement", this is also</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -546,25 +541,25 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
+大模型翻译：85分  
 谷歌翻译：70分  
-原因：大模型翻译在准确性和流畅性上表现更佳，能够清晰传达原文的含义，例如“以忘己之为大，无私之谓公”的翻译准确地传达了原文的深意。而谷歌翻译在一些地方显得较为生硬，例如“我成天都想有一个刊物办下去”翻译为“I always dream of running a publication”缺乏了原文的口语化和情感色彩，导致流畅性不足。</t>
+原因：大模型翻译在准确性和流畅性方面表现更好，能够较好地传达原文的细节和语气。例如，"I was overjoyed"准确传达了原文的情感，而谷歌翻译未提供该情感的表达。此外，大模型翻译在句子结构上更为自然，避免了谷歌翻译中出现的生硬表达，如“the refugees set out from Tianjin”相较于原文的“逃难是从天津出发”更为直白。谷歌翻译在某些地方缺乏细节，导致信息的丢失。</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
         <v>70</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>I used to think that Shen Congwen had little connection with Tianjin aside from his role as the editor of the "Dazhongbao" and its "Literary Supplement." However, after consulting Professor Li Yang, the author of "Chronology of Shen Congwen," and receiving a detailed response, I was pleasantly surprised.
-Professor Li informed me that Shen Congwen not only had numerous ties to Tianjin but also visited the city several times. He mentioned in a WeChat message: "I checked, and although Shen Congwen served as the chief editor of the Tianjin 'Dazhongbao,' he didn't visit Tianjin often. According to the chronology, he was recorded to have been there four times, primarily as a transit point. In August 1923, he first traveled to Beijing, passing through Tianjin. From July 29 to 30, 1928, he spent two days in Tianjin while waiting to board a ship to Shanghai. On November 16, 1935, he visited Tianjin to see his sister Shen Yuemeng; and on August 12, 1937, he fled from Tianjin, where he stayed the longest, approximately ten days." With this newfound understanding, I felt more confident in writing this article.
-Shen Congwen's relationship with Tianjin was primarily through the "Dazhongbao." This city has been particularly famous in modern times, being at the forefront of openness and innovation. Many modern technologies, cultural ideas, and concepts emerged here, especially in journalism. The first telegraphic news report in China was sent out from Tianjin. The founding of the "Dazhongbao" was renowned, with its name meaning "to forget oneself for the greater good, to be selfless for the public." Its mission was "to promote enlightenment and broaden public knowledge; to draw from Western scholarship and awaken the intelligence of our compatriots." Clearly, from its inception, this newspaper established a national stance of impartiality, enlightenment, openness, and advocacy for the people.
-Before Shen Congwen took over as editor, the "Dazhongbao" had already published two literary supplements: "Literary Supplement" and "Little Park." He took over the "Literary Supplement" and renamed it the "Art Supplement." The "Dazhongbao" "Art Supplement" was launched on September 23, 1933, with an editorial board that included Yang Zhensheng, Shen Congwen, Zhu Ziqing, Lin Huiyin, and Deng Yizhe, among others, though most of them were not actively involved in the day-to-day operations. Shen Congwen managed the daily editorial work, and the manuscripts were prepared in Beiping (now Beijing) before being sent to the Tianjin newspaper for typesetting. Of course, he would occasionally travel between Beiping and Tianjin to handle editorial matters. Thus, his literary career became inextricably linked to this newspaper's supplement.
-Taking on the editorial responsibilities of the "Dazhongbao" "Art Supplement" also marked the beginning of his professional editing career, allowing him to realize his ideal life of publishing and writing. He once said, "I always dream of running a publication, regardless of its size, circulation, or lack of submissions; I want to handle everything myself, as long as there are people to print and sell it. This plan could occupy my entire life." Being the editor of the "Dazhongbao" "Art Supplement" provided a strong economic backing, enabling him to focus more on editing and writing, while also allowing him to practice his literary ideals and beliefs. Shen Congwen emphasized the artistic individuality and seriousness of literary works, breaking away from the traditional disdain among literati and the rigid conventions of the literary world, insisting on the importance of literary style, and tirelessly working to expand the influence of this newspaper's supplement.
-As for why he became involved in editing the "Dazhongbao" "Art Supplement," this also...</t>
+          <t>I always thought that Shen Congwen had almost nothing to do with Tianjin except for presiding over the "Ta Kung Pao" and "Literary Supplement". After consulting Professor Li Yang, the author of "Shen Congwen's Long Chronicle", and getting a detailed reply, I was overjoyed.
+Professor Li Yang said that Shen Congwen not only has an inextricable relationship with Tianjin, but also has been to Tianjin. He told me in WeChat: "I checked it, although Shen Congwen edited Tianjin's "Ta Kung Pao", but not many people came to Tianjin, I recorded it four times in the annals, and Tianjin was mostly a transit place. In August 1923, the first time I went to Beijing was in Tianjin. From July 29 to 30, 1928, I spent two days in Tianjin for the purpose of sailing to Shanghai. On November 16, 1935, he came to Tianjin to visit his sister Shen Yuemeng; On August 12, 1937, the refugees set out from Tianjin, and stayed in Tianjin for the longest time, about 10 days." I see, and it increased my confidence to write this article.
+Of course, Shen Congwen's relationship with Tianjin was mainly the "Ta Kung Pao." The city of Tianjin has been particularly famous in modern times, and it was the first to gain the trend of "being opened up," and many modern technologies, cultures, and concepts were avant-garde, and the news was even more so, and it was from here that the press release of China's first telegram was first issued. The inaugural issue of Ta Kung Pao is even more famous all over the world, the meaning of registration is "forgetting oneself is great, selfless is public", and the purpose of running the newspaper is "to open up the atmosphere and cultivate the wisdom of the people; It can be seen that at the beginning of the newspaper, this newsprint established its own national stance of fairness, enlightenment, openness, and speaking for the people.
+Before Shen Congwen became the editor, "Ta Kung Pao" already ran two literary supplements, "Literary Supplement" and "Little Park". He took over the compilation of the "Literary Supplement" and renamed it the "Literary Supplement." Ta Kung Pao" and "Literary Supplement" were founded on September 23, 1933, and the editorial board was composed of Yang Zhensheng, Shen Congwen, Zhu Ziqing, Lin Huiyin, Deng Yizhen and others, but most of them did not care. The daily editorial work was presided over by Shen Congwen, and the manuscript was also compiled in Beiping and mailed to the newspaper office in Tianjin. Of course, he sometimes goes back and forth between Pingjin and Tianjin because of the editorial work. Since then, his literary career has almost been indissolubly linked to the supplement of this newspaper.
+Shen Congwen took over the editorial work of "Ta Kung Pao" and "Literary Supplement", and at the same time achieved his professional editing career, realizing the ideal life of running a journal and writing articles. He once said: "I want to have a publication all the time, I am not afraid of being small, I am not afraid of no sales, I am not afraid of no manuscripts, everything is up to me, as long as someone prints it, someone sells it on behalf of me, this plan can kill my whole life." Editing the "Literary Supplement" for "Ta Kung Pao" has a strong economic backing, and can put more energy into editing and writing articles, and can also practice the literary concepts and propositions in his heart according to his own ideas. Shen Congwen pays attention to the artistic personality and seriousness of literary works, breaks the traditional rules and regulations of the literati and the sedimentation of the literary world, insists on paying attention to the literary style, and spares no effort to expand the influence of this newspaper supplement.
+Why did he participate in the editing of "Ta Kung Pao" and "Literary Supplement", this is also</t>
         </is>
       </c>
     </row>
@@ -580,11 +575,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This book explores the journey of the "New Sensation" literary style, which originated in France, into China, focusing on the interconnected flow of characters, literary genres, concepts, vocabulary, and texts across the cultural and geographical divide between East and West. The author primarily examines the stories of three major agents of modernity: the libertine, the wanderer, and the cultural translator, culminating in the concept of "cross-cultural modernity," which aims to challenge the existing boundaries of language and academic disciplines.
-Although the popularity of the "New Sensation" literary style from France was brief, it had an unparalleled impact on a generation of Chinese and Japanese literature. Within the context of East-West cultural and geographical intersections, characters, literary forms, concepts, vocabulary, and texts interlink and weave a complex web. The three major agents of modernity—the libertine, the wanderer, and the cultural translator—collectively depict a narrative of "cross-cultural modernity," challenging our current understanding of the boundaries between language and disciplines.
-The three main characteristics of the libertine are "projecting the self onto the other, dedicating oneself to the pursuit of art and self-creation, and engaging in continuous cross-cultural practice." Every man and woman who strives to create themselves and pursue perfection in the cross-cultural arena carries the blood of the libertine. Their pursuits and explorations exert influence that transcends national borders and knows no bounds.
-The modernity propelled by the libertine is not confined to a specific historical period. Regardless of time and place, anyone who takes it upon themselves to break traditions and pursue innovation is engaged in cross-cultural practice and acts as an agent of modernity. Cultural creators are perpetually on the threshold of modernity, living and acting at the forefront of culture, drawing inspiration from ongoing boundary-crossing activities. The cross-cultural arena is where cultural contact and overlap occur, serving as a space for artists, writers, translators, and thinkers to seek expressive modes to unleash their creative energy. This book investigates the possibilities of creative transformation within the cross-cultural arena, discussing the creativity of language, literature, and culture, rather than merely the influence, imitation, or assimilation of foreign cultures.
-The author holds a Ph.D. in Comparative Literature from Harvard University and is currently a researcher at the Institute of Chinese Literature and Philosophy at Academia Sinica, focusing on modern literature across the Taiwan Strait and cross-cultural studies. He has published monographs such as "Beyond Realism," "Maritime Discourse on Desire: From Zhang Ziping to Liu Na'ou," and novels including "The Severed Palm" and "The Age of Innocence." He has also edited "The Complete Works of Yang Kui." In 2013, he won the 37th Golden Tripod Award for Best Non-Fiction Book with "The Aesthetics of the Libertine and Cross-Cultural Modernity: Libertines, Wanderers, and Translators in 1930s Shanghai, Tokyo, and Paris" (published by Lianjing). In 2019, he received the 54th Sun Yat-sen Academic Book Award for "The Dialectic of Emotion and Reason: The Anti-Enlightenment of May Fourth" (also published by Lianjing).</t>
+          <t>This book explores the journey of the "New Sensibility" style that originated in France into China, focusing on the fluid links between people, genres, concepts, vocabulary and texts in the context of Eastern and Western cultures and geography. The author mainly uses the stories of the three promoters of modernity: the prodigal, the wanderer, and the cultural translator, to summarize the concept of "cross-cultural modernity", and attempts to challenge the existing boundaries between language and discipline.
+Although the "New Sensibility" style originated in France was popular for a short time, it had an incomparable influence on a generation of Chinese and Japanese literature. In the context of Eastern and Western cultures and geography, people, genres, concepts, vocabulary and texts flow and link with each other, weaving an intricate web. The three promoters of modernity: the prodigal, the wanderer, and the cultural translator, work together to create a story that brings out a "cross-cultural modernity" that challenges the boundaries between language and discipline in our existing perceptions.
+"Taking the opposite sex as the projection of the self, devoting itself to the pursuit of art and self-creation, and continuing to practice across cultures" are the three characteristics of the prodigal. Isn't every man and woman who is committed to creating themselves and pursuing perfection in the cross-cultural field have the blood of a prodigal? Their pursuit and exploration have produced an influence that transcends national borders and is far-reaching.
+Modernity, driven by prodigals, is not a specific period in history. Regardless of ancient or modern, Chinese or foreign, anyone who breaks through tradition and pursues innovation as their own responsibility is engaged in cross-cultural practice and is the driving force of modernity. Cultural creators are always on the threshold of modernity, living and acting at the forefront of culture, drawing inspiration from the continuous transgression. The cross-cultural field is a place where cultures come into contact and overlap, and it is a place where artists, writers, translators, thinkers, etc., seek modes of expression to express their creative energy. This book explores the possibility of creative transformation in the cross-cultural field, and discusses the creativity of language, literature, and culture, rather than simply being influenced, imitated, and assimilated by foreign cultures.
+He holds a Ph.D. in Comparative Literature from Harvard University, and is currently a researcher at the Institute of Chinese Literature and Philosophy of the Academia Sinica. In 2013, he won the 37th Golden Tripod Award for Best Non-Literary Book with his book "The Aesthetics of the Prodigal Child and Cross-Cultural Modernity: The Prodigal Son, the Wanderer and the Translator in Shanghai, Tokyo and Paris in the 1930s" (Lianjing Publishing), and in 2019, he won the Best Non-Literary Book Award at the 37th Golden Tripod Awards for his book "The Dialectic of Sentiment and Reason: The Counter-Enlightenment of May Fourth" (Lianjing Publishing) Won the 54th Zhongshan Academic Book Award.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,7 +592,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在术语的选择上更为精准，例如将“新感觉派”翻译为“New Sensation”而非“New Sensationalism”。同时，大模型翻译在句式结构上更为自然，避免了谷歌翻译中“在横跨东西文化与地理的脉络中”的重复表达，使得整体更为流畅。谷歌翻译在某些地方显得较为直译，缺乏一定的语言灵活性。</t>
+原因：大模型翻译在准确性上表现更佳，尤其在“新感觉派”翻译为“New Sensibility”上更符合原意，而谷歌翻译使用了“New Sensationalism”，可能导致误解。此外，大模型翻译在流畅性上更自然，句子结构更符合英语表达习惯，例如“the influence of their pursuit and exploration transcends national boundaries and is far-reaching”比谷歌翻译的“the influence of their pursuit and exploration transcends national boundaries and reaches far and wide”更为简洁。</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -608,11 +603,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>This book explores the journey of the "New Sensation" literary style, which originated in France, into China, focusing on the interconnected flow of characters, literary genres, concepts, vocabulary, and texts across the cultural and geographical divide between East and West. The author primarily examines the stories of three major agents of modernity: the libertine, the wanderer, and the cultural translator, culminating in the concept of "cross-cultural modernity," which aims to challenge the existing boundaries of language and academic disciplines.
-Although the popularity of the "New Sensation" literary style from France was brief, it had an unparalleled impact on a generation of Chinese and Japanese literature. Within the context of East-West cultural and geographical intersections, characters, literary forms, concepts, vocabulary, and texts interlink and weave a complex web. The three major agents of modernity—the libertine, the wanderer, and the cultural translator—collectively depict a narrative of "cross-cultural modernity," challenging our current understanding of the boundaries between language and disciplines.
-The three main characteristics of the libertine are "projecting the self onto the other, dedicating oneself to the pursuit of art and self-creation, and engaging in continuous cross-cultural practice." Every man and woman who strives to create themselves and pursue perfection in the cross-cultural arena carries the blood of the libertine. Their pursuits and explorations exert influence that transcends national borders and knows no bounds.
-The modernity propelled by the libertine is not confined to a specific historical period. Regardless of time and place, anyone who takes it upon themselves to break traditions and pursue innovation is engaged in cross-cultural practice and acts as an agent of modernity. Cultural creators are perpetually on the threshold of modernity, living and acting at the forefront of culture, drawing inspiration from ongoing boundary-crossing activities. The cross-cultural arena is where cultural contact and overlap occur, serving as a space for artists, writers, translators, and thinkers to seek expressive modes to unleash their creative energy. This book investigates the possibilities of creative transformation within the cross-cultural arena, discussing the creativity of language, literature, and culture, rather than merely the influence, imitation, or assimilation of foreign cultures.
-The author holds a Ph.D. in Comparative Literature from Harvard University and is currently a researcher at the Institute of Chinese Literature and Philosophy at Academia Sinica, focusing on modern literature across the Taiwan Strait and cross-cultural studies. He has published monographs such as "Beyond Realism," "Maritime Discourse on Desire: From Zhang Ziping to Liu Na'ou," and novels including "The Severed Palm" and "The Age of Innocence." He has also edited "The Complete Works of Yang Kui." In 2013, he won the 37th Golden Tripod Award for Best Non-Fiction Book with "The Aesthetics of the Libertine and Cross-Cultural Modernity: Libertines, Wanderers, and Translators in 1930s Shanghai, Tokyo, and Paris" (published by Lianjing). In 2019, he received the 54th Sun Yat-sen Academic Book Award for "The Dialectic of Emotion and Reason: The Anti-Enlightenment of May Fourth" (also published by Lianjing).</t>
+          <t>This book explores the journey of the "New Sensibility" style that originated in France into China, focusing on the fluid links between people, genres, concepts, vocabulary and texts in the context of Eastern and Western cultures and geography. The author mainly uses the stories of the three promoters of modernity: the prodigal, the wanderer, and the cultural translator, to summarize the concept of "cross-cultural modernity", and attempts to challenge the existing boundaries between language and discipline.
+Although the "New Sensibility" style originated in France was popular for a short time, it had an incomparable influence on a generation of Chinese and Japanese literature. In the context of Eastern and Western cultures and geography, people, genres, concepts, vocabulary and texts flow and link with each other, weaving an intricate web. The three promoters of modernity: the prodigal, the wanderer, and the cultural translator, work together to create a story that brings out a "cross-cultural modernity" that challenges the boundaries between language and discipline in our existing perceptions.
+"Taking the opposite sex as the projection of the self, devoting itself to the pursuit of art and self-creation, and continuing to practice across cultures" are the three characteristics of the prodigal. Isn't every man and woman who is committed to creating themselves and pursuing perfection in the cross-cultural field have the blood of a prodigal? Their pursuit and exploration have produced an influence that transcends national borders and is far-reaching.
+Modernity, driven by prodigals, is not a specific period in history. Regardless of ancient or modern, Chinese or foreign, anyone who breaks through tradition and pursues innovation as their own responsibility is engaged in cross-cultural practice and is the driving force of modernity. Cultural creators are always on the threshold of modernity, living and acting at the forefront of culture, drawing inspiration from the continuous transgression. The cross-cultural field is a place where cultures come into contact and overlap, and it is a place where artists, writers, translators, thinkers, etc., seek modes of expression to express their creative energy. This book explores the possibility of creative transformation in the cross-cultural field, and discusses the creativity of language, literature, and culture, rather than simply being influenced, imitated, and assimilated by foreign cultures.
+He holds a Ph.D. in Comparative Literature from Harvard University, and is currently a researcher at the Institute of Chinese Literature and Philosophy of the Academia Sinica. In 2013, he won the 37th Golden Tripod Award for Best Non-Literary Book with his book "The Aesthetics of the Prodigal Child and Cross-Cultural Modernity: The Prodigal Son, the Wanderer and the Translator in Shanghai, Tokyo and Paris in the 1930s" (Lianjing Publishing), and in 2019, he won the Best Non-Literary Book Award at the 37th Golden Tripod Awards for his book "The Dialectic of Sentiment and Reason: The Counter-Enlightenment of May Fourth" (Lianjing Publishing) Won the 54th Zhongshan Academic Book Award.</t>
         </is>
       </c>
     </row>
@@ -630,14 +625,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The "I Ching," or "Book of Changes," is a text focused on divination, specifically through the practice of casting hexagrams. Divination, or "divinatory practices," encompasses two primary methods of casting hexagrams. "Divination" (卜, bǔ) involves using a specific tool to burn turtle shells or animal bones, interpreting the patterns of cracks that appear to determine fortune or misfortune, and then inscribing the results on the bones for archival purposes. A significant discovery of Shang Dynasty oracle bones in Anyang, Henan during the late Qing Dynasty, particularly in the Guangxu era, serves as historical evidence of this practice, leading to the term "oracle inscriptions" (甲骨文, jiǎgǔwén).
-"Divination by yarrow stalks" (筮, shì) employs yarrow grass (specifically, the "shi" grass) to cast hexagrams. It is said that 49 yarrow stalks are randomly divided into two bundles held in each hand, and then further divided according to specific rules to determine the odd and even relationships, which signify "Yin" and "Yang." The resulting hexagram is then drawn to assess fortune or misfortune. The "I Ching" primarily discusses this method of divination. The Yin people utilized turtle divination, while the Zhou people employed both turtle divination and yarrow stalk divination. Since the yarrow method developed during the Western Zhou period, the "I Ching" is also referred to as "Zhou Yi" (周易).
-The "Zhou Yi" synthesizes and summarizes the extensive historical data and experiences accumulated over time, categorizing and theorizing various numerical combinations to serve as a basis for divination, illustrating the principles of fortune and misfortune. This encapsulates the original nature of the "Zhou Yi."
-Ancient observers of the world also focused on the relationship between heaven, earth, and human activities. They referred to these three elements as the "Three Powers" (三才, sān cái), representing the realms of heaven, earth, and humanity. By arranging the two symbols of Yin and Yang in various combinations, three layers can yield eight distinct combinations, each referred to as a "hexagram" (卦, guà). The eight combinations are collectively known as the "Eight Trigrams" (八卦, bāguà), and each hexagram is assigned a name that symbolizes the vastness of the universe. These are:
-The combinations of these eight trigrams are arranged in pairs: Qian (乾) and Kun (坤) represent a solid line and a broken line; Zhen (震) and Gen (艮) have one with two broken lines above and one with two broken lines below; Li (离) and Kan (坎) feature one with a broken line in the middle and one with a solid line in the middle; Dui (兑) and Xun (巽) consist of one with a broken line above and one with a broken line below. Thus, a mnemonic for remembering the Eight Trigrams has been passed down through generations:
-"Qian has three solid lines, Kun has six broken lines; Zhen is a bowl (like a water basin with the bottom up), Gen is an inverted bowl (like a water bowl with the bottom down); Li is empty in the middle, Kan is full in the middle; Dui has a missing line above, Xun has a broken line below."
-Each of the Eight Trigrams represents specific natural phenomena. According to the "Zhou Yi: Commentary on the Trigrams" (周易·说卦), "Qian represents heaven, Kun represents earth, Zhen represents thunder, Xun represents wind, Kan represents water, Li represents fire, Gen represents mountain, and Dui represents marsh." This is the most fundamental and original representational relationship. Over time, many additional associations have been added, such as directions, seasons, human anatomy, animals, and ethical relationships. The imagery represented by a hexagram is referred to as "hexagram imagery" (卦象, guàxiàng). The Eight Trigrams can also embody various qualities: Qian signifies strength; Kun signifies receptivity; Zhen signifies movement; Xun signifies penetration; Kan signifies descent; Li signifies attachment; Gen signifies stillness; and Dui signifies joy. The qualities of these hexagram images are known as "hexagram virtues" (卦德, guàdé).
-However, since there are only eight trigrams, to represent more complex relationships, the eight trigrams were later combined in pairs to form 64 hexagrams (8×8=64). This process of overlapping the trigrams is called "double hexagrams" (重卦, zhòng guà). The resulting 64 hexagrams are referred to as "separate hexagrams" (别卦, bié guà). The original eight trigrams that constitute the 64 separate hexagrams are known as "classic hexagrams" (经卦, jīng guà). Each separate hexagram is composed of an upper and a lower classic hexagram. The upper classic hexagram is called "upper trigram" (上卦, shàng guà) or "outer trigram," while the lower classic hexagram is called "lower trigram" (下卦, xià guà) or "inner trigram." The graphical representation of each separate hexagram is called "hexagram drawing" (卦画, guà huà), and the name of each separate hexagram is referred to as "hexagram title" (卦题, guà tí). After the overlapping, if the upper and lower hexagrams...</t>
+          <t>Zhou Yi is a book about divination. Divination is divination. Originally, divination was two methods of divination." "Bu" is to use a specific tool to drill and burn the tortoise shell, and the animal bones are judged according to the crack pattern on the oracle bones, and then the results are engraved on the oracle bones for future reference. At the end of the Qing Dynasty, a large number of Shang Dynasty oracle bone characters were found in Anyang, Henan Province, which is the record of "Bu" at that time. Therefore, the oracle bone inscription is also called "divination".
+"筮" is to use yarrow [shishishi] grass (wrong grass) to calculate hexagrams. It is said that 49 yarrow herbs are divided into two parts at will, held in two hands, and then divided according to certain requirements, according to the odd and even relationship of their number combinations, determine "yin" and "yang", and then draw hexagrams to judge good luck and evil. The Book of Changes is about divination. The Yin people use turtles; The Zhou people are tortoises and divides, and they are used together. Because the Zheng method was developed from the Western Zhou Dynasty, the "Book of Changes" is also called "Zhou Yi". Zhou Yi "synthesized the data and experience accumulated over a long period of time in history, summarized and theorized various number combinations, and theorized them as the basis for the judgment of the fortune teller and the explanation of good fortune and misfortune. This is the original nature of "Zhou Yi".
+The ancients observed the composition of the world with another point of view, that is, there is heaven and earth, and there are human activities in the middle. The ancients called these three "three talents" (representing the three worlds of heaven, earth and man), so the two symbols of yin and yang can be stacked into three layers according to various arrangements, and eight combinations can be obtained. Each combination is called a "hexagram", and the eight combinations are "eight trigrams", and then each hexagram is given a name, which represents the vast world. They are:
+The combination of these eight hexagrams is exactly opposite to each other: the two hexagrams of Qiankun are one with three lines and one with three broken lines; Zhen Gong [gen] two hexagrams, one upper two broken line, one lower two broken line; There are two hexagrams from the kan, one in the middle and one in the middle; The two hexagrams are one on the broken line and the other on the next broken line. So in the past, there was a mantra for remembering gossip:
+Dry three consecutive kun six broken shock Yang Yu (like a water bowl bottom in the bottom), Gen covered bowl (like a water bowl bottom facing up) from the middle of the void in the full balance of the upper lack of Xun lower break.
+Bagua has its own natural phenomenon that it represents. According to the saying of "Zhou Yi Hexagram", it is "dry for Tiankun, earthquake for thunder, Xun for wind, kan for water, separation for fire, Gen for mountain, and Ze". To later generations gradually increased many representative relationships. Such as orientation, season, human body, animals, ethical relationships, etc. The objects represented by a hexagram are called "hexagrams". Bagua can also reflect various properties: dry: strong; Kun: Smooth; Shock: starting; Xun: Enter; Kan: sagging; Detachment: Dependent; Gen: stationary; Redemption: Joy. The nature of these hexagrams is called "hexagrams".
+But the eight hexagrams are limited after all. In order to reflect more and more complex relationships, the eight hexagrams were later overlapped in pairs to become 8×8=64 hexagrams. The overlapping of the eight trigrams is called "double hexagrams", and the overlapping 64 hexagrams are called "other hexagrams". The original eight hexagrams that make up the 64 hexagrams are called "sutra hexagrams". The sutra hexagram on the top is called "upper hexagram" and also called "outer hexagram"; The lower hexagram is called "lower hexagram", also called "inner hexagram", the figure of each hexagram is called "hexagram painting", and the name of each hexagram is called "hexagram question".</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,28 +641,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：70分  
-原因：大模型翻译在准确性和专业性上表现更好，尤其在术语的使用上，如“divination by yarrow stalks”准确传达了“筮”的含义，而谷歌翻译将其翻译为“fortune-telling with yarrow”，显得不够专业。此外，大模型翻译在流畅性上也更佳，句子结构自然，逻辑清晰，例如“the resulting hexagram is then drawn to assess fortune or misfortune”比谷歌翻译的“then the hexagram is drawn to judge good and bad luck”更为流畅。谷歌翻译在某些地方的表达较为直白，缺乏学术性。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：70分  
+谷歌翻译：80分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“卜”和“筮”的翻译上，使用了“fortune-telling”而非“大模型翻译”的“divination”，更符合英语使用习惯。此外，谷歌翻译在句子结构上更为自然，整体阅读体验更佳。大模型翻译在一些细节上略显生硬，例如“the two symbols of yin and yang can be stacked into three layers”不够清晰。</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The "I Ching," or "Book of Changes," is a text focused on divination, specifically through the practice of casting hexagrams. Divination, or "divinatory practices," encompasses two primary methods of casting hexagrams. "Divination" (卜, bǔ) involves using a specific tool to burn turtle shells or animal bones, interpreting the patterns of cracks that appear to determine fortune or misfortune, and then inscribing the results on the bones for archival purposes. A significant discovery of Shang Dynasty oracle bones in Anyang, Henan during the late Qing Dynasty, particularly in the Guangxu era, serves as historical evidence of this practice, leading to the term "oracle inscriptions" (甲骨文, jiǎgǔwén).
-"Divination by yarrow stalks" (筮, shì) employs yarrow grass (specifically, the "shi" grass) to cast hexagrams. It is said that 49 yarrow stalks are randomly divided into two bundles held in each hand, and then further divided according to specific rules to determine the odd and even relationships, which signify "Yin" and "Yang." The resulting hexagram is then drawn to assess fortune or misfortune. The "I Ching" primarily discusses this method of divination. The Yin people utilized turtle divination, while the Zhou people employed both turtle divination and yarrow stalk divination. Since the yarrow method developed during the Western Zhou period, the "I Ching" is also referred to as "Zhou Yi" (周易).
-The "Zhou Yi" synthesizes and summarizes the extensive historical data and experiences accumulated over time, categorizing and theorizing various numerical combinations to serve as a basis for divination, illustrating the principles of fortune and misfortune. This encapsulates the original nature of the "Zhou Yi."
-Ancient observers of the world also focused on the relationship between heaven, earth, and human activities. They referred to these three elements as the "Three Powers" (三才, sān cái), representing the realms of heaven, earth, and humanity. By arranging the two symbols of Yin and Yang in various combinations, three layers can yield eight distinct combinations, each referred to as a "hexagram" (卦, guà). The eight combinations are collectively known as the "Eight Trigrams" (八卦, bāguà), and each hexagram is assigned a name that symbolizes the vastness of the universe. These are:
-The combinations of these eight trigrams are arranged in pairs: Qian (乾) and Kun (坤) represent a solid line and a broken line; Zhen (震) and Gen (艮) have one with two broken lines above and one with two broken lines below; Li (离) and Kan (坎) feature one with a broken line in the middle and one with a solid line in the middle; Dui (兑) and Xun (巽) consist of one with a broken line above and one with a broken line below. Thus, a mnemonic for remembering the Eight Trigrams has been passed down through generations:
-"Qian has three solid lines, Kun has six broken lines; Zhen is a bowl (like a water basin with the bottom up), Gen is an inverted bowl (like a water bowl with the bottom down); Li is empty in the middle, Kan is full in the middle; Dui has a missing line above, Xun has a broken line below."
-Each of the Eight Trigrams represents specific natural phenomena. According to the "Zhou Yi: Commentary on the Trigrams" (周易·说卦), "Qian represents heaven, Kun represents earth, Zhen represents thunder, Xun represents wind, Kan represents water, Li represents fire, Gen represents mountain, and Dui represents marsh." This is the most fundamental and original representational relationship. Over time, many additional associations have been added, such as directions, seasons, human anatomy, animals, and ethical relationships. The imagery represented by a hexagram is referred to as "hexagram imagery" (卦象, guàxiàng). The Eight Trigrams can also embody various qualities: Qian signifies strength; Kun signifies receptivity; Zhen signifies movement; Xun signifies penetration; Kan signifies descent; Li signifies attachment; Gen signifies stillness; and Dui signifies joy. The qualities of these hexagram images are known as "hexagram virtues" (卦德, guàdé).
-However, since there are only eight trigrams, to represent more complex relationships, the eight trigrams were later combined in pairs to form 64 hexagrams (8×8=64). This process of overlapping the trigrams is called "double hexagrams" (重卦, zhòng guà). The resulting 64 hexagrams are referred to as "separate hexagrams" (别卦, bié guà). The original eight trigrams that constitute the 64 separate hexagrams are known as "classic hexagrams" (经卦, jīng guà). Each separate hexagram is composed of an upper and a lower classic hexagram. The upper classic hexagram is called "upper trigram" (上卦, shàng guà) or "outer trigram," while the lower classic hexagram is called "lower trigram" (下卦, xià guà) or "inner trigram." The graphical representation of each separate hexagram is called "hexagram drawing" (卦画, guà huà), and the name of each separate hexagram is referred to as "hexagram title" (卦题, guà tí). After the overlapping, if the upper and lower hexagrams...</t>
+          <t>Zhouyi is a book about divination. Divination is fortune-telling. Originally, divination is two methods of fortune-telling. "Divination" is to use a specific tool to drill and burn tortoise shells and animal bones to judge good or bad luck according to the cracks on the oracle bones, and then carve the results on the oracle bones for future reference. In the late Qing Dynasty, during the Guangxu period, a large number of Shang Dynasty oracle bone inscriptions were discovered in Anyang, Henan, which were records of "divination" at that time. Therefore, oracle bone inscriptions are also called "divination inscriptions". "Shu" is fortune-telling with yarrow (Cuocao). It is said that 49 yarrows are randomly divided into two parts and held in two hands. Then the parts are divided according to certain requirements. The "yin" and "yang" are determined according to the odd and even relationship of the number combination, and then the hexagram is drawn to judge good and bad luck. "The Book of Changes" talks about fortune-telling with shu. The Yin people used tortoise divination; the Zhou people used tortoise divination and divination at the same time. Because the shu developed from the Western Zhou Dynasty, the "Book of Changes" is also called "Zhouyi". "Zhouyi" synthesizes the data and experience accumulated over a long period of history, summarizes and theorizes various number combinations as the basis for fortune-tellers to judge and explain good and bad fortune. This is the original nature of "Zhouyi". Another point of view of the ancients in observing the composition of the world is that there is heaven above and earth below, and human activities in between. The ancients called these three "Three Talents" (representing the three realms of heaven, earth and man). Therefore, eight combinations can be obtained by stacking the two symbols of yin and yang in three layers according to various arrangements. Each combination is called a "hexagram". The eight combinations are "Eight Trigrams". Giving each hexagram a name represents the vast world of all things. They are: The combination of these eight trigrams is exactly opposite to each other: Qian and Kun have three connected lines and three broken lines; Zhen and Gen have two broken lines above and two broken lines below; Li and Kan have one broken line in the middle and one connected line in the middle; Dui and Xun have one broken line above and one broken line below. Therefore, there was a mnemonic for remembering the Eight Trigrams in the past: Qian three connected Kun six broken Zhen inverted bowl (like a water bowl with the bottom down) Gen inverted bowl (like a water bowl with the bottom up) Li is empty in the middle, Kan is full in the middle, Dui is missing on the top, and Xun is broken on the bottom. Each of the eight trigrams represents a natural phenomenon. According to the "Book of Changes: Explanation of Trigrams", "Qian represents heaven, Kun represents earthquakes and thunder, Xun represents wind, Kan represents water, Li represents fire, Gen represents mountains, and Dui represents marshes". This is the most basic and original representative relationship. Later generations gradually added many representative relationships, such as direction, season, human body, animal, ethical relationship, etc. The image represented and symbolized by a trigram is called "trigram image". The eight trigrams can also embody various properties: Qian: strong; Kun: soft; Zhen: start; Xun: enter; Kan: sink; Li: attach; Gen: still; Dui: joy. The properties of these trigram images are called "trigram virtues". But eight trigrams are limited after all. In order to reflect more complex relationships between things, the eight trigrams were overlapped in pairs to form 8×8=64 trigrams. Overlapping eight trigrams is called "double trigrams". The 64 trigrams after overlapping are called "different trigrams". The original eight trigrams that make up the 64 different trigrams are called "classic trigrams". Each different trigram is composed of two classic trigrams. The upper classic trigram is called "upper trigram" or "outer trigram"; the lower classic trigram is called "lower trigram" or "inner trigram". The shape of each different trigram is called "trigram painting". The name of each different trigram is called "trigram title". After the double trigram, if the upper and lower trigrams are</t>
         </is>
       </c>
     </row>
@@ -688,16 +675,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>**Abstract**  
-Art song is a musical genre that combines poetry and music to achieve artistic expression, a term established by the works of the Romantic music master Franz Schubert. The structure of art songs is intricate and refined, with the musical language and poetic language seamlessly integrated. The poetry lays the groundwork for the song, while the song enhances the poetry, resulting in a synthesis that elevates both forms. 
-1. Art song is a general term for the lyrical songs that flourished in Europe from the late 18th century to the early 19th century, characterized by its delicate and intricate structure. The musical language and poetic language are harmoniously intertwined, with the song illuminating the poetry and the poetry providing a foundation for the song. Together, they reflect the refined artistic tastes, artistic realms, and aspirations of both composers and poets.
-2. The aesthetic characteristics of art songs, including musical language, lyrical language, external forms, and internal structures, are presented through various techniques such as melody, lyrics, modes, harmony, and accompaniment textures. These characteristics are displayed in three-dimensional, two-dimensional, or linear forms, satisfying the aesthetic needs of the audience. The three major European schools of art song share a high level of artistic quality; however, French art songs are imbued with the romantic character and vivid colors that reflect the French national identity, German art songs exhibit the rigor and discipline inherent in their national character, while Russian art songs are characterized by the passionate and exuberant nature of the Russian spirit.
-1. When performing art songs, it is essential to understand their characteristics, develop a reasonable performance plan, and select appropriate pieces.
-2. Additionally, it is crucial to have an in-depth understanding of the historical context and national style of the works. Only by approaching the historical background of the songs can one better interpret the pieces.
-3. Furthermore, repeated practice and refinement of the works are necessary. By infusing emotion throughout the performance and analyzing the thematic ideas through the lyrics, one can achieve the right balance and effectively convey the artistic conception of the pieces.
-The lyrics of art songs often draw from renowned poetry; their structure is generally short and exquisite, representing a highly condensed form of musical composition. When listening to or performing these songs, attention to detail is paramount. The themes covered are quite broad, focusing on the inner world of individuals. The melodies are highly expressive, employing complex compositional techniques, with the accompaniment playing a significant role.
-Art songs can be transposed. They are a musical genre that combines music and poetry to fulfill artistic expression. The melodies of art songs, including the vocal and piano accompaniment, cover a wide range of themes. Listening to art songs can significantly enhance one’s artistic sensibility, cultivation, and appreciation.
-Art songs primarily feature mixed voices and emphasize lightness and agility, while operas predominantly use full voices to achieve dramatic effects, requiring greater volume. Consequently, art songs are generally softer and more lyrical compared to operas. In operas, the volume demands result in a brighter timbre, whereas art songs, being relatively short, maintain a more intimate sound.</t>
+          <t>Abstract Art song is a musical genre that combines poetry and music to complete the task of artistic expression, and its name is established by the works of Schubert, the master of romantic music. The structure of art songs is delicate and exquisite, the musical language and the poetic language are blended, the poem paves the way for the song, and the song adds brilliance to the poem, and the two are combined into one and sublimated together.
+1. Art song is a musical genre in which poetry and music are combined to complete the task of artistic expression, and its name is established by the works of Schubert, the master of Romantic music. Art song is a common name for the lyrical songs that prevailed in Europe from the late 18th century to the early 19th century, with a delicate and exquisite structure, a blend of musical language and poetic language.
+2. The aesthetic characteristics of musical language, lyric language, external form, internal structure and other aesthetic characteristics in art songs are presented in front of the appreciation in a three-dimensional, flat or linear way through the melody, lyrics, tonality, harmony, accompaniment texture and other variations, and its colorful artistic expression meets the aesthetic needs of the appreciators. The three main European genres of art songs are equally elegant in terms of artistic quality, the difference is that French art songs are full of romantic character and distinctive colors as they are in the French national character, German art songs are as strict and regular as they are in their national character, and Russian art songs are as enthusiastic and unrestrained as they are in the Russian national character.
+1. To sing art songs, we must first understand the characteristics of art songs, formulate a reasonable singing plan, and choose the right songs.
+2. Singing art songs, secondly, we must have an in-depth understanding of the background of the times and national style of the work, only by approaching the background of the times of the song, can we better interpret the work.
+3. Singing art songs, but also repeatedly tempering the works and polishing the works repeatedly. Only by analyzing and studying the theme of the work with the help of lyrics can we grasp the degree of wellness and properly express the artistic conception of the work.
+The lyrics of the art songs are in the form of famous poems; The structure is generally short and delicate, and it is a highly condensed musical piece, which requires great attention to detail when listening to or singing; The subject matter involved in the content is quite broad, focusing on the expression of people's inner world; The melody is expressive, the means of expression and composition techniques are relatively complex, and the accompaniment occupies an important position.
+Art songs can be lowered. Art song is a kind of music genre that combines music and poetry to complete the task of artistic expression, art song tune, including singing part and accompaniment part is generally piano accompaniment, the subject matter involved in the content is quite broad, listening to art songs to improve people's artistic realm, artistic accomplishment, art appreciation has a quick help.
+Art songs are mostly mixed, emphasizing light function; The opera is mostly based on real voices, and in order to achieve a dramatic effect, the volume should be loud. Therefore, aurally, art songs are softer and more lyrical than operas. In the opera, the timbre is slightly brighter because of the volume requirements; Art songs are relatively short because they are relatively short, so the sound</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -707,30 +693,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在表达复杂概念时使用了更适合的词汇，如“seamlessly integrated”比谷歌翻译的“in perfect harmony”更能体现两者的紧密结合。此外，大模型翻译在结构上更为清晰，逻辑性更强。而谷歌翻译在某些句子中重复了原文的结构，导致表达略显冗余，例如“the poem paves the way for the song, the song adds brilliance to the poem”重复了相似的句式，影响了流畅性。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：80分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，特别是在“艺术歌曲的歌词采用著名诗歌”这一句中，谷歌翻译清晰地传达了原意，而大模型翻译则略显模糊。此外，谷歌翻译在保留原文的语气和细节方面做得更好，例如在描述艺术歌曲的特点时，使用了“高度浓缩的音乐小品”这一表达，增强了专业性。</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>**Abstract**  
-Art song is a musical genre that combines poetry and music to achieve artistic expression, a term established by the works of the Romantic music master Franz Schubert. The structure of art songs is intricate and refined, with the musical language and poetic language seamlessly integrated. The poetry lays the groundwork for the song, while the song enhances the poetry, resulting in a synthesis that elevates both forms. 
-1. Art song is a general term for the lyrical songs that flourished in Europe from the late 18th century to the early 19th century, characterized by its delicate and intricate structure. The musical language and poetic language are harmoniously intertwined, with the song illuminating the poetry and the poetry providing a foundation for the song. Together, they reflect the refined artistic tastes, artistic realms, and aspirations of both composers and poets.
-2. The aesthetic characteristics of art songs, including musical language, lyrical language, external forms, and internal structures, are presented through various techniques such as melody, lyrics, modes, harmony, and accompaniment textures. These characteristics are displayed in three-dimensional, two-dimensional, or linear forms, satisfying the aesthetic needs of the audience. The three major European schools of art song share a high level of artistic quality; however, French art songs are imbued with the romantic character and vivid colors that reflect the French national identity, German art songs exhibit the rigor and discipline inherent in their national character, while Russian art songs are characterized by the passionate and exuberant nature of the Russian spirit.
-1. When performing art songs, it is essential to understand their characteristics, develop a reasonable performance plan, and select appropriate pieces.
-2. Additionally, it is crucial to have an in-depth understanding of the historical context and national style of the works. Only by approaching the historical background of the songs can one better interpret the pieces.
-3. Furthermore, repeated practice and refinement of the works are necessary. By infusing emotion throughout the performance and analyzing the thematic ideas through the lyrics, one can achieve the right balance and effectively convey the artistic conception of the pieces.
-The lyrics of art songs often draw from renowned poetry; their structure is generally short and exquisite, representing a highly condensed form of musical composition. When listening to or performing these songs, attention to detail is paramount. The themes covered are quite broad, focusing on the inner world of individuals. The melodies are highly expressive, employing complex compositional techniques, with the accompaniment playing a significant role.
-Art songs can be transposed. They are a musical genre that combines music and poetry to fulfill artistic expression. The melodies of art songs, including the vocal and piano accompaniment, cover a wide range of themes. Listening to art songs can significantly enhance one’s artistic sensibility, cultivation, and appreciation.
-Art songs primarily feature mixed voices and emphasize lightness and agility, while operas predominantly use full voices to achieve dramatic effects, requiring greater volume. Consequently, art songs are generally softer and more lyrical compared to operas. In operas, the volume demands result in a brighter timbre, whereas art songs, being relatively short, maintain a more intimate sound.</t>
+          <t>AbstractArt song is a musical genre that combines poetry and music to accomplish the task of artistic expression. Its name was established by the works of the romantic music master Schubert. The structure of art song is delicate and exquisite, the musical language and the poetic language are in perfect harmony, the poem paves the way for the song, the song adds brilliance to the poem, and the two are combined into one and sublimated together. 1. Art song is a musical genre that combines poetry and music to accomplish the task of artistic expression. Its name was established by the works of the romantic music master Schubert. Art song is a general term for lyric songs that were popular in Europe from the late 18th century to the early 19th century. It has a delicate and exquisite structure, the musical language and the poetic language are in perfect harmony, the song adds brilliance to the poem, the poem paves the way for the song, and the two are combined into one and sublimated together, reflecting the elegant and upward artistic taste, artistic realm and artistic ambition deep in the hearts of composers and poets. 2. The aesthetic characteristics of art songs, such as music language, lyrics language, external form, internal structure, etc., are presented to the audience in a variety of ways, such as three-dimensional, flat or linear, through the changes in melody, lyrics, mode and tonality, harmony, accompaniment texture, etc. Its colorful artistic expression meets the aesthetic needs of the audience. The art songs of the three major schools in Europe are equally elegant in artistic quality. The difference is that French art songs are full of romantic character and bright colors, just like the French national character, German art songs are as rigorous and regular as their national character, and Russian art songs are as passionate and unrestrained as the Russian national character. 1. To sing art songs, we must first understand the characteristics of art songs, formulate a reasonable singing plan, and choose suitable songs. 2. To sing art songs, we must first have a deep understanding of the era background and national style of the works. Only by being close to the era background of the songs can we better interpret the works. 3. To sing art songs, we must repeatedly refine and polish the works. Only by running emotions throughout the works and analyzing and studying the theme of the works with the help of lyrics can we grasp the degree and express the artistic conception of the works appropriately. The lyrics of art songs are famous poems; the structure is generally short and exquisite, and it is a highly condensed musical piece. When listening or singing, you must pay great attention to details; the subject matter involved in the content is quite broad, focusing on expressing the inner world of people; the melody is highly expressive, the means of expression and composition techniques are relatively complex, and accompaniment plays an important role. Art songs can be lowered. Art songs are a musical genre that combines music and poetry to complete artistic expression tasks. The melody of art songs, including the singing part and the accompaniment part, is generally accompanied by piano. The subject matter involved in the content is quite broad. Listening to art songs can quickly help improve people's artistic realm, artistic cultivation, and artistic appreciation. Art songs are mostly mixed voices and emphasize light functions; operas are mostly real voices, and in order to achieve dramatic effects, the volume must be loud. Therefore, in terms of hearing, art songs are softer and more lyrical than operas. In operas, the timbre is slightly brighter due to the volume requirements; art songs are relatively short, so the sound is</t>
         </is>
       </c>
     </row>
@@ -745,10 +722,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>**Lecture Content:**
-The urban writing in modern Chinese literature can generally be divided into three dimensions: cultural symbols, spaces of desire, and secular states. Jia Pingwa's series of works, including "Impetuous," "Abandoned Capital," and "Happiness," are rooted in the living spaces and psychological worlds of intellectuals and migrant workers. While engaging in rural narratives, these works also express his understanding of the city. The novel "Temporary Sitting" primarily employs casual conversations in a teahouse to unfold urban writing through the daily lives of a group of modern women. The work captures the relational circles of numerous desire-driven women, subtly reflecting the state of worldly affairs. At the same time, the author draws from the tradition of worldly affairs in classical Chinese novels, employing the spatial model of "Along the River During the Qingming Festival" to depict urban life, while also incorporating some mystical imagery to create a sense of abstraction. These efforts in urban writing reflect the current state of existence and spiritual temperament of cities and their inhabitants in China, but they also contain certain misconceptions. Therefore, examining Jia Pingwa's approaches and methods in writing about the city, as well as identifying some of the misconceptions in his works, holds significant value and meaning for understanding the future direction of contemporary literature.
-**Speaker Introduction:**
-Jiang Lasheng is a second-level professor and doctoral supervisor at Jiangxi Normal University. He is a postdoctoral researcher at the Institute of Literature, Chinese Academy of Social Sciences. He has been recognized as an outstanding young and middle-aged social science expert in Jiangxi Province and is a leading figure among young and middle-aged scholars in the province. He serves as a council member of the Contemporary Chinese Literature Research Association, a council member of the Modern Chinese Literature Research Association, and the vice president of the Jiangxi Contemporary Literature Research Association. His main research areas include modern and contemporary Chinese literature, film literature, and popular culture. He has led and completed two National Social Science Fund projects, one Ministry of Education Humanities Planning project, three provincial key projects, and five general provincial projects. He has received five second prizes and two third prizes for the Jiangxi Provincial Social Science Achievement Award. He has published 102 papers, including six in authoritative core journals and 72 indexed by CSSCI. He has also published five academic monographs and is in charge of the Jiangxi Province's quality course "Modern and Contemporary Chinese Literature."</t>
+          <t>Lecture content:
+Since modern times, the urban writing of Chinese literature can be roughly divided into three dimensions: cultural symbols, desire space, and secular modality. Jia Pingwa's series of works, such as "Impetuous", "Wasted Capital" and "Happy", are based on the living space and psychological world of intellectuals and migrant workers, and express their understanding of the city in addition to the local narrative. The novel "Sitting" uses the chatter of the tea house as the main way, and unfolds the urban writing through the daily life of a group of modern women. The work captures the relationship circle of many desires of women, and seems to express the form of the world in a leisurely manner. At the same time, the writer draws on the tradition of classical Chinese novels, and uses the spatial mode of the Qingming Riverside Picture to depict urban life, and then uses some mysterious imagery to virtualize it. The efforts of these urban writings reflect the current living conditions and spiritual temperament of Chinese cities and people, but there are also some misunderstandings. Therefore, it is of certain value and significance to investigate the path and method of Jia Pingwa's writing about the city and to understand some misunderstandings in his creation.
+About the Speaker:
+Jiang Lasheng is a second-level professor and doctoral supervisor of Jiangxi Normal University. Postdoctoral Fellow, Institute of Literature, Chinese Academy of Social Sciences. The first outstanding young and middle-aged social science expert in Jiangxi Province, and the leader of young and middle-aged disciplines in Jiangxi Province. He is a director of the Chinese Contemporary Literature Research Association, a director of the Chinese Modern Literature Research Association, and a vice president of the Jiangxi Contemporary Literature Research Association. He is mainly engaged in the research of modern and contemporary Chinese literature, film and television literature and popular culture. He has presided over and completed 2 projects of the National Social Science Fund, 1 humanities planning project of the Ministry of Education, 3 provincial key projects, and 5 general provincial projects. He has won 5 second prizes and 2 third prizes of Jiangxi Provincial Social Science Achievement Award. He has published 102 papers, including 6 authoritative core papers and 72 CSSCI indexed papers. He has published 5 academic monographs. He presided over 1 excellent course "Chinese Modern and Contemporary Literature" in Jiangxi Province.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -761,7 +738,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，使用了更合适的词汇和句式，例如“spaces of desire”比“desire space”更符合英语表达习惯。此外，大模型翻译在细节上更为细腻，如“subtly reflecting the state of worldly affairs”比“expresses the form of worldly affairs in a seemingly leisurely manner”更准确地传达了原文的含义和语气。谷歌翻译在一些地方显得较为直白，缺乏一定的文学性和流畅性。</t>
+原因：大模型翻译在准确性上表现更佳，特别是在“世俗情态”翻译为“secular modality”上，较好地传达了原意，而谷歌翻译将其翻译为“secular mood”，略显不准确。此外，大模型翻译在流畅性上也更为自然，如“通过一群现代女性的日常生活来展开城市书写”翻译为“unfolds the urban writing through the daily life of a group of modern women”，语句结构清晰。谷歌翻译在某些地方使用了较为生硬的表达，如“temporary sitting”而非“sitting”，影响了整体的流畅性。</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -772,10 +749,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>**Lecture Content:**
-The urban writing in modern Chinese literature can generally be divided into three dimensions: cultural symbols, spaces of desire, and secular states. Jia Pingwa's series of works, including "Impetuous," "Abandoned Capital," and "Happiness," are rooted in the living spaces and psychological worlds of intellectuals and migrant workers. While engaging in rural narratives, these works also express his understanding of the city. The novel "Temporary Sitting" primarily employs casual conversations in a teahouse to unfold urban writing through the daily lives of a group of modern women. The work captures the relational circles of numerous desire-driven women, subtly reflecting the state of worldly affairs. At the same time, the author draws from the tradition of worldly affairs in classical Chinese novels, employing the spatial model of "Along the River During the Qingming Festival" to depict urban life, while also incorporating some mystical imagery to create a sense of abstraction. These efforts in urban writing reflect the current state of existence and spiritual temperament of cities and their inhabitants in China, but they also contain certain misconceptions. Therefore, examining Jia Pingwa's approaches and methods in writing about the city, as well as identifying some of the misconceptions in his works, holds significant value and meaning for understanding the future direction of contemporary literature.
-**Speaker Introduction:**
-Jiang Lasheng is a second-level professor and doctoral supervisor at Jiangxi Normal University. He is a postdoctoral researcher at the Institute of Literature, Chinese Academy of Social Sciences. He has been recognized as an outstanding young and middle-aged social science expert in Jiangxi Province and is a leading figure among young and middle-aged scholars in the province. He serves as a council member of the Contemporary Chinese Literature Research Association, a council member of the Modern Chinese Literature Research Association, and the vice president of the Jiangxi Contemporary Literature Research Association. His main research areas include modern and contemporary Chinese literature, film literature, and popular culture. He has led and completed two National Social Science Fund projects, one Ministry of Education Humanities Planning project, three provincial key projects, and five general provincial projects. He has received five second prizes and two third prizes for the Jiangxi Provincial Social Science Achievement Award. He has published 102 papers, including six in authoritative core journals and 72 indexed by CSSCI. He has also published five academic monographs and is in charge of the Jiangxi Province's quality course "Modern and Contemporary Chinese Literature."</t>
+          <t>Lecture content:
+Since modern times, the urban writing of Chinese literature can be roughly divided into three dimensions: cultural symbols, desire space, and secular modality. Jia Pingwa's series of works, such as "Impetuous", "Wasted Capital" and "Happy", are based on the living space and psychological world of intellectuals and migrant workers, and express their understanding of the city in addition to the local narrative. The novel "Sitting" uses the chatter of the tea house as the main way, and unfolds the urban writing through the daily life of a group of modern women. The work captures the relationship circle of many desires of women, and seems to express the form of the world in a leisurely manner. At the same time, the writer draws on the tradition of classical Chinese novels, and uses the spatial mode of the Qingming Riverside Picture to depict urban life, and then uses some mysterious imagery to virtualize it. The efforts of these urban writings reflect the current living conditions and spiritual temperament of Chinese cities and people, but there are also some misunderstandings. Therefore, it is of certain value and significance to investigate the path and method of Jia Pingwa's writing about the city and to understand some misunderstandings in his creation.
+About the Speaker:
+Jiang Lasheng is a second-level professor and doctoral supervisor of Jiangxi Normal University. Postdoctoral Fellow, Institute of Literature, Chinese Academy of Social Sciences. The first outstanding young and middle-aged social science expert in Jiangxi Province, and the leader of young and middle-aged disciplines in Jiangxi Province. He is a director of the Chinese Contemporary Literature Research Association, a director of the Chinese Modern Literature Research Association, and a vice president of the Jiangxi Contemporary Literature Research Association. He is mainly engaged in the research of modern and contemporary Chinese literature, film and television literature and popular culture. He has presided over and completed 2 projects of the National Social Science Fund, 1 humanities planning project of the Ministry of Education, 3 provincial key projects, and 5 general provincial projects. He has won 5 second prizes and 2 third prizes of Jiangxi Provincial Social Science Achievement Award. He has published 102 papers, including 6 authoritative core papers and 72 CSSCI indexed papers. He has published 5 academic monographs. He presided over 1 excellent course "Chinese Modern and Contemporary Literature" in Jiangxi Province.</t>
         </is>
       </c>
     </row>
@@ -791,11 +768,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"The new era calls for masters of art and literature, and it is entirely capable of nurturing such masters! The new era requires peaks of artistic achievement, and it can certainly forge these peaks! We must firmly uphold this confidence!" On December 14, the 11th National Congress of the Chinese Federation of Literary and Art Circles and the 10th National Congress of the Chinese Writers Association were grandly opened in Beijing. **Central Government**, **State Council**, and **Central Military Commission** attended the opening ceremony and delivered important speeches. The significant remarks made by **[Name]** sparked enthusiastic responses and strong resonance among all delegates, leading to a wave of discussions and learning sessions in the group meetings. Everyone expressed their commitment to remember **[Name]**'s instructions, to promote cultural development, to cultivate moral integrity through literature, to establish a heartfelt connection through art, and to forge a soulful identity through literature. They are dedicated to the great cause of national rejuvenation, upholding the people's standpoint, adhering to integrity and innovation, promoting righteousness, and passionately telling the Chinese story, showcasing the spirit of the new era in a comprehensive and panoramic manner, and striving to reach the peaks of artistic achievement.
-**[Name]** stated that the people are the creators of history and the architects of the era. In the grand struggle of the people, vibrant chapters of history are constantly being written, coming together to form an epic of the people.
-"Studying **[Name]**'s important speech has further strengthened my long-standing pursuit and direction of effort," said Zhang Kairi, an actress from the China National Drama Theatre. "Regardless of the era, artistic creation must return to its essence, which is that art serves the people. It requires sincerity, dedication to creation, and a balance of virtue and artistry, with a people-centered approach being the right path for artistic creation. Fabricating stories, creating gimmicks, and seeking to attract attention will never produce masterpieces that resonate with the hearts of the people." Zhang Kairi's years of experience in performance have made her realize that an actor's artistic life derives from the support and affection of the audience, as well as from the perception and love of vibrant life. Therefore, in everything one does, the needs and satisfaction of the people should always come first.
-"**[Name]** once again emphasized in the speech that the cause of literature and art is an important undertaking of the Party and the people, and the literary and artistic front is a crucial front for the Party and the people. At the same time, new requirements for future literary and artistic work were proposed, hoping that the vast number of literary and artistic workers will uphold the people's standpoint and write an enduring epic of the people." Huang Dou Dou, vice president of the Chinese Dancers Association, deeply felt the enlightening impact of **[Name]**'s speech on her thoughts. "We once visited the Lei Feng Memorial in Fushun, where we learned about the spirit of Lei Feng while collaborating with soldiers to create the dance 'Forest Sea and Snowfield'; we traveled to Qionghai City in Hainan Province to create a new program celebrating the Navy soldiers guarding the South China Sea for the local student dance troupe; we performed in the rain for villagers during grassroots activities in Shaoshan, Hunan; and I was honored to join the 'Great Journey' production team, paying tribute to the great spirit of the War to Resist U.S. Aggression and Aid Korea alongside over a thousand actors..." Huang Dou Dou expressed her intention to continue engaging deeply with grassroots communities, experiencing life among the people, sharing their breath and fate, and creating artistic works filled with genuine emotions, shaping vivid and relatable characters on stage.
-In **[Name]**'s speech, the term 'people' was mentioned multiple times. The essence of the people is the main thread of literary and artistic work, and the people...</t>
+          <t>"The new era needs literary masters, and it is completely capable of creating literary and artistic masters! The new era needs a literary peak, and it is completely capable of creating a literary and artistic peak! We need to strengthen this self-confidence!" On December 14, the 11th National Congress of the China Federation of Literary and Art Circles and the 10th National Congress of the China Writers Association were grandly opened in Beijing. Xi Jinping, General Secretary of the CPC Central Committee, President of the People's Republic of China, and Chairman of the Central Military Commission, attended the opening ceremony and delivered an important speech. General Secretary Xi Jinping's important speech aroused a warm response and strong resonance among all the delegates, and then the group meeting of the delegations set off an upsurge of learning and discussing the speech. Everyone has expressed that they will keep in mind the entrustment of General Secretary Xi Jinping, promote the industry with literature, Peiyuan with literature, establish the heart with literature, cast the soul with literature, care about the great cause of national rejuvenation, adhere to the people's position, adhere to integrity and innovation, adhere to the right path, tell Chinese stories with affection and strength, show the spirit of the new era in an all-round panoramic way, and bravely climb the peak of literature and art.
+General Secretary Xi Jinping said that the people are the creators of history and the creators of the times. In the magnificent struggle of the people, the fiery chapter of creating history is jumping everywhere, and it is a people's epic when it comes together.
+"Studying the spirit of General Secretary Xi Jinping's important speech has strengthened the direction of my pursuit and efforts." Zhang Kaili, an actor from the National Theatre of China, said, "No matter what era it is, literary and artistic creation must return to its true nature, that is, literature and art are to serve the people, be down-to-earth, devote themselves to creation, have both virtue and art, and people-oriented is the right way to artistic creation; It is impossible to make up nonsense, create gimmicks, and sensationalize the public, and it is impossible to produce a masterpiece that remains in the hearts of the people." Years of acting experience have made Zhang Kaili realize that the artistic life of an actor comes from the support and love of the audience, and from the perception and love of the hot life. Therefore, when doing anything, we should put the people in the first place, and we should first think about whether the people like it or not, and whether they are satisfied or dissatisfied.
+In his speech, the general secretary once again emphasized that the literary and artistic cause is an important cause of the party and the people, and the literary and artistic front is an important front of the party and the people. At the same time, it has put forward new requirements for future literary and artistic work, and hopes that the vast number of literary and artistic workers will stick to the people's stand and write an endless people's epic." Huang Doudou, vice chairman of the Chinese Dancers Association, deeply felt the enlightenment of General Secretary Xi Jinping's speech on his thoughts. We once visited the Fushun Lei Feng Brigade, while learning the spirit of Lei Feng, and at the same time co-creating the dance "Lin Hai Snow Plain" with the soldiers; He went to Qionghai City, Hainan Province, to create a new program for the local student dance troupe to praise the naval soldiers who guarded the South China Sea; In the grassroots activities in Shaoshan, Hunan, he performed for the villagers in the rain in the countryside; What is even more glorious is that I joined the crew of the "Great Journey", and together with more than 1,000 actors, I paid tribute to the great spirit of resisting US aggression and aiding Korea in the way of literary and artistic workers......" Huang Doudou said that in the future, I will continue to go deep into the grassroots frontline, go to the people to feel life, breathe with the people, share fate, heart to heart, create literary and artistic works full of true feelings, and create flesh-and-blood stage characters.
+"The word 'people' was mentioned many times in General Secretary Xi Jinping's speech. People's nature is the main line of literary and artistic work, people</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -808,7 +785,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在对“文艺高峰”和“文艺大师”的翻译上，使用了“peaks of artistic achievement”和“masters of art and literature”，更好地传达了原文的含义和语气。而谷歌翻译在某些地方的直译使得句子略显生硬，例如“use literature to promote the cause”不如“大模型翻译”的“to promote cultural development”自然。此外，大模型翻译在细节上更为丰富，能够更好地体现原文的情感和深度。</t>
+原因：大模型翻译在准确性上表现更好，特别是在表达“以文弘业, 以文培元, 以文立心, 以文铸魂”时，使用了“promote the industry with literature, Peiyuan with literature, establish the heart with literature, cast the soul with literature”，更好地传达了原文的细腻含义。而谷歌翻译在某些地方使用了较为简单的表达，如“use literature to promote the cause”，未能完全体现原文的丰富性。此外，大模型翻译在流畅性上也稍显优越，整体语句更为自然。</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -819,11 +796,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"The new era calls for masters of art and literature, and it is entirely capable of nurturing such masters! The new era requires peaks of artistic achievement, and it can certainly forge these peaks! We must firmly uphold this confidence!" On December 14, the 11th National Congress of the Chinese Federation of Literary and Art Circles and the 10th National Congress of the Chinese Writers Association were grandly opened in Beijing. **Central Government**, **State Council**, and **Central Military Commission** attended the opening ceremony and delivered important speeches. The significant remarks made by **[Name]** sparked enthusiastic responses and strong resonance among all delegates, leading to a wave of discussions and learning sessions in the group meetings. Everyone expressed their commitment to remember **[Name]**'s instructions, to promote cultural development, to cultivate moral integrity through literature, to establish a heartfelt connection through art, and to forge a soulful identity through literature. They are dedicated to the great cause of national rejuvenation, upholding the people's standpoint, adhering to integrity and innovation, promoting righteousness, and passionately telling the Chinese story, showcasing the spirit of the new era in a comprehensive and panoramic manner, and striving to reach the peaks of artistic achievement.
-**[Name]** stated that the people are the creators of history and the architects of the era. In the grand struggle of the people, vibrant chapters of history are constantly being written, coming together to form an epic of the people.
-"Studying **[Name]**'s important speech has further strengthened my long-standing pursuit and direction of effort," said Zhang Kairi, an actress from the China National Drama Theatre. "Regardless of the era, artistic creation must return to its essence, which is that art serves the people. It requires sincerity, dedication to creation, and a balance of virtue and artistry, with a people-centered approach being the right path for artistic creation. Fabricating stories, creating gimmicks, and seeking to attract attention will never produce masterpieces that resonate with the hearts of the people." Zhang Kairi's years of experience in performance have made her realize that an actor's artistic life derives from the support and affection of the audience, as well as from the perception and love of vibrant life. Therefore, in everything one does, the needs and satisfaction of the people should always come first.
-"**[Name]** once again emphasized in the speech that the cause of literature and art is an important undertaking of the Party and the people, and the literary and artistic front is a crucial front for the Party and the people. At the same time, new requirements for future literary and artistic work were proposed, hoping that the vast number of literary and artistic workers will uphold the people's standpoint and write an enduring epic of the people." Huang Dou Dou, vice president of the Chinese Dancers Association, deeply felt the enlightening impact of **[Name]**'s speech on her thoughts. "We once visited the Lei Feng Memorial in Fushun, where we learned about the spirit of Lei Feng while collaborating with soldiers to create the dance 'Forest Sea and Snowfield'; we traveled to Qionghai City in Hainan Province to create a new program celebrating the Navy soldiers guarding the South China Sea for the local student dance troupe; we performed in the rain for villagers during grassroots activities in Shaoshan, Hunan; and I was honored to join the 'Great Journey' production team, paying tribute to the great spirit of the War to Resist U.S. Aggression and Aid Korea alongside over a thousand actors..." Huang Dou Dou expressed her intention to continue engaging deeply with grassroots communities, experiencing life among the people, sharing their breath and fate, and creating artistic works filled with genuine emotions, shaping vivid and relatable characters on stage.
-In **[Name]**'s speech, the term 'people' was mentioned multiple times. The essence of the people is the main thread of literary and artistic work, and the people...</t>
+          <t>"The new era needs literary masters, and it is completely capable of creating literary and artistic masters! The new era needs a literary peak, and it is completely capable of creating a literary and artistic peak! We need to strengthen this self-confidence!" On December 14, the 11th National Congress of the China Federation of Literary and Art Circles and the 10th National Congress of the China Writers Association were grandly opened in Beijing. Xi Jinping, General Secretary of the CPC Central Committee, President of the People's Republic of China, and Chairman of the Central Military Commission, attended the opening ceremony and delivered an important speech. General Secretary Xi Jinping's important speech aroused a warm response and strong resonance among all the delegates, and then the group meeting of the delegations set off an upsurge of learning and discussing the speech. Everyone has expressed that they will keep in mind the entrustment of General Secretary Xi Jinping, promote the industry with literature, Peiyuan with literature, establish the heart with literature, cast the soul with literature, care about the great cause of national rejuvenation, adhere to the people's position, adhere to integrity and innovation, adhere to the right path, tell Chinese stories with affection and strength, show the spirit of the new era in an all-round panoramic way, and bravely climb the peak of literature and art.
+General Secretary Xi Jinping said that the people are the creators of history and the creators of the times. In the magnificent struggle of the people, the fiery chapter of creating history is jumping everywhere, and it is a people's epic when it comes together.
+"Studying the spirit of General Secretary Xi Jinping's important speech has strengthened the direction of my pursuit and efforts." Zhang Kaili, an actor from the National Theatre of China, said, "No matter what era it is, literary and artistic creation must return to its true nature, that is, literature and art are to serve the people, be down-to-earth, devote themselves to creation, have both virtue and art, and people-oriented is the right way to artistic creation; It is impossible to make up nonsense, create gimmicks, and sensationalize the public, and it is impossible to produce a masterpiece that remains in the hearts of the people." Years of acting experience have made Zhang Kaili realize that the artistic life of an actor comes from the support and love of the audience, and from the perception and love of the hot life. Therefore, when doing anything, we should put the people in the first place, and we should first think about whether the people like it or not, and whether they are satisfied or dissatisfied.
+In his speech, the general secretary once again emphasized that the literary and artistic cause is an important cause of the party and the people, and the literary and artistic front is an important front of the party and the people. At the same time, it has put forward new requirements for future literary and artistic work, and hopes that the vast number of literary and artistic workers will stick to the people's stand and write an endless people's epic." Huang Doudou, vice chairman of the Chinese Dancers Association, deeply felt the enlightenment of General Secretary Xi Jinping's speech on his thoughts. We once visited the Fushun Lei Feng Brigade, while learning the spirit of Lei Feng, and at the same time co-creating the dance "Lin Hai Snow Plain" with the soldiers; He went to Qionghai City, Hainan Province, to create a new program for the local student dance troupe to praise the naval soldiers who guarded the South China Sea; In the grassroots activities in Shaoshan, Hunan, he performed for the villagers in the rain in the countryside; What is even more glorious is that I joined the crew of the "Great Journey", and together with more than 1,000 actors, I paid tribute to the great spirit of resisting US aggression and aiding Korea in the way of literary and artistic workers......" Huang Doudou said that in the future, I will continue to go deep into the grassroots frontline, go to the people to feel life, breathe with the people, share fate, heart to heart, create literary and artistic works full of true feelings, and create flesh-and-blood stage characters.
+"The word 'people' was mentioned many times in General Secretary Xi Jinping's speech. People's nature is the main line of literary and artistic work, people</t>
         </is>
       </c>
     </row>
@@ -836,8 +813,8 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The leftist literary tradition essentially ceased to develop after the end of the war. The silencing and amnesia of leftist thought became a significant cultural phenomenon from the 1950s to the 1970s. It was not until after the 1980s, when the authoritarian regime began to loosen its grip, that leftist writers regained vitality. Among them, the two most noteworthy authors are Yeh Shih-tao (1925-2008) and Chen Yingzhen (1937-), who represent two ideological spectrums of "leftist independence" and "leftist unity," respectively. Around the time of the lifting of martial law, as capitalism continued to flourish and the wave of globalization swept across the islands, the reconstruction and reappearance of leftist memory garnered widespread attention in the literary world. Yeh Shih-tao's "A Veteran Writer's 1950s" and Chen Yingzhen's "Bellflower" offer a poignant retrospective on the post-war leftist movement through a series of novels, encapsulating the unspeakable yet unavoidable truths that both authors grapple with.
-Both Yeh and Chen's literary endeavors bear the historical scars of the authoritarian era and witness the realities of capitalism's transformation of society, with their inner pain weighing heavier than past experiences of imprisonment. Their novels are not merely contests for historical interpretation nor just attempts to reclaim the voice in the unfinished debates of local literature; in the face of the rise of democratic movements, they evidently harbor endless expectations for the future. Political beliefs have led both to choose opposing camps, yet the trend of globalization compels them to adopt a similar critical stance towards capitalism. This paper re-examines the red legacy of leftist literature through a re-reading of Yeh and Chen's novels, tracing the tragic fates of these two intellectuals representing leftist independence and unity.</t>
+          <t>Taiwan's left-wing literary tradition has largely ceased to develop after the end of the war. The aphasia and amnesia of left-wing ideology were major cultural phenomena in the 1950s and 70s. It was only after 1980, when the authoritarian system began to loosen, that left-wing writers came back to life. Two of the most noteworthy writers are Ye Shitao (1925-2008) and Chen Yingzhen (1937-), who represent the two ideological spectrums of "left independence" and "left unification" in Taiwanese society, respectively. Before and after the lifting of martial law in Taiwan, when the development of capitalism continued to be high, and the wave of globalization swept the island, the reshaping and reproduction of left-wing memory attracted the general attention of Taiwan's literary circles. Ye Shitao's "The 50s of a Taiwanese Writer" and Chen Yingzhen's "Bell Flower" are a series of novels that look back fondly at the post-war left-wing movement.
+Both Ye and Chen's literary careers bear the historical scars of authoritarian eras, and the fact that they have witnessed the transformation of Taiwanese society by capitalism, and their inner pain is heavier than the prison experience of the past. Their novels are not just competing for the right to interpret Taiwan's history, nor are they just competing for the right to speak in the unfinished debate of vernacular literature; In the face of the rise of the pro-democracy movement, it is clear that they have endless expectations for their vision for Taiwan's future. Political beliefs led the two to choose to stand on opposite sides, but the trend of globalization led them to take the same critical stance on capitalism. Through the re-reading of Ye and Chen's novels, this paper re-examines the red heritage of Taiwanese literature and traces the tragic fate of the two intellectuals, Zuo Independence and Zuo Tong.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -847,22 +824,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“左翼思想的失语与失忆”翻译为“the silencing and amnesia of leftist thought”时，准确传达了原文的含义。相比之下，谷歌翻译的“aphasia and amnesia”虽然也传达了失语的概念，但“aphasia”一词在此语境中不够恰当，可能导致理解上的偏差。此外，大模型翻译在句子结构上更为自然，整体阅读体验更佳。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：80分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性上表现更佳，特别是在“深情回眸”翻译为“look back at... with deep affection”时，较好地传达了原文的情感色彩。而大模型翻译在“微言大义”部分使用了“subtle meanings”，未能完全体现原文的深意。此外，谷歌翻译在流畅性上也略胜一筹，整体语句更为自然。</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The leftist literary tradition essentially ceased to develop after the end of the war. The silencing and amnesia of leftist thought became a significant cultural phenomenon from the 1950s to the 1970s. It was not until after the 1980s, when the authoritarian regime began to loosen its grip, that leftist writers regained vitality. Among them, the two most noteworthy authors are Yeh Shih-tao (1925-2008) and Chen Yingzhen (1937-), who represent two ideological spectrums of "leftist independence" and "leftist unity," respectively. Around the time of the lifting of martial law, as capitalism continued to flourish and the wave of globalization swept across the islands, the reconstruction and reappearance of leftist memory garnered widespread attention in the literary world. Yeh Shih-tao's "A Veteran Writer's 1950s" and Chen Yingzhen's "Bellflower" offer a poignant retrospective on the post-war leftist movement through a series of novels, encapsulating the unspeakable yet unavoidable truths that both authors grapple with.
-Both Yeh and Chen's literary endeavors bear the historical scars of the authoritarian era and witness the realities of capitalism's transformation of society, with their inner pain weighing heavier than past experiences of imprisonment. Their novels are not merely contests for historical interpretation nor just attempts to reclaim the voice in the unfinished debates of local literature; in the face of the rise of democratic movements, they evidently harbor endless expectations for the future. Political beliefs have led both to choose opposing camps, yet the trend of globalization compels them to adopt a similar critical stance towards capitalism. This paper re-examines the red legacy of leftist literature through a re-reading of Yeh and Chen's novels, tracing the tragic fates of these two intellectuals representing leftist independence and unity.</t>
+          <t>Taiwan's left-wing literary tradition basically stopped developing after the war. The aphasia and amnesia of left-wing thought were the main cultural phenomena from the 1950s to the 1970s. It was not until after 1980, when the authoritarian system began to loosen, that left-wing writers regained vitality. The two most noteworthy writers are Ye Shitao (1925-2008) and Chen Yingzhen (1937-), who represent the two ideological spectra of "left independence" and "left unification" in Taiwanese society. Before and after the lifting of martial law in Taiwan, capitalist development continued to grow rapidly, and the wave of globalization swept across the island. The reshaping and reappearance of left-wing memory attracted widespread attention in the Taiwanese literary world. Ye Shitao's "The 1950s of an Old Taiwanese Writer" and Chen Yingzhen's "Bellflower" are a series of novels that look back at the post-war left-wing movement with deep affection, which contain the subtle meanings that the two people cannot say but must say. The literary careers of Ye and Chen both bear the historical scars of the authoritarian era and witness the fact that capitalism has transformed Taiwanese society. Their inner pain is even heavier than their past prison experiences. Their novels are not just a competition for the right to interpret Taiwanese history, nor are they just a competition for the right to speak in the unfinished debate on local literature; in the face of the rise of the democratic movement, they clearly have endless expectations for Taiwan's future vision. Political beliefs have led the two to choose to stand in opposing camps, but the trend of globalization has made them take the same critical stance towards capitalism. This paper re-examines the red heritage of Taiwanese literature through re-reading Ye and Chen's novels, and traces the tragic fate of the two intellectuals, the left-independent and the left-unified.</t>
         </is>
       </c>
     </row>
@@ -880,12 +856,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Was the United States deliberately lenient towards him to avoid exposing the historical examples of East Asian aggression? Ōkawa Shumei, the only civilian listed as a Class A war criminal during the Tokyo Trials, escaped prosecution due to a mental health evaluation. After the execution of seven war criminals, including Hideki Tōjō, by hanging at Sugamo Prison at the end of 1948, he was released and returned home. Viewed by the Allied forces as responsible for Japan's wartime atrocities during World War II, Ōkawa had, in the early Shōwa period, embraced "Japanese nationalism" amidst the discourse on Asian modernization, playing a significant role in promoting Japan's subsequent aggressive wars in Asia and becoming a leading figure in encouraging militarism in Japanese society. The American media labeled him as an "ideological instigator," while The New York Times characterized Ōkawa as a "civilian mind" that unveiled the "September 18 Incident," which marked the beginning of the "Fifteen-Year War."
-The author of this book, Eric Jaffe, is the grandson of Daniel Jaffe, a battlefield psychiatrist for the U.S. military, who assessed Ōkawa Shumei as mentally incapacitated and unable to continue his trial. Dr. Daniel Jaffe's mental evaluation of Ōkawa has become a point of contention in modern history, intertwining their lives. The author seeks to glimpse into his grandfather's enigmatic life while also stepping into Ōkawa's world of madness. This journey opens a window for readers to understand modern Japan and explore the collective consciousness that led the Japanese people down the irreversible path of aggressive war.
-Ōkawa Shumei's reflections on modern Japan and Asia differ from those of Fukuzawa Yukichi, who advocated for a European model. For Ōkawa, returning to the spirit of Bushido to seek solutions was highly appealing. He believed that "Japanese identity" was the spiritual impetus for Asia to return to an "Asia for Asians," inspired by Okakura Tenshin's "Eastern Ideals" and inheriting the spirit of Saigō Takamori, a key figure in the Satsuma Rebellion. Allied memoranda described Ōkawa as "the most steadfast and persuasive advocate for 'Asia for Asians.'"
-In the wake of the global economic depression following World War I, Ōkawa called for a comprehensive overhaul of Japan, inspired by the Meiji Restoration, advocating for a "Shōwa Restoration" to rectify the corruption stemming from "Taishō democracy" and parliamentary politics. He admired the traditions of the shogunate and proposed the establishment of a cabinet centered around the military.
-Politically, Ōkawa's ideology is undoubtedly positioned on the far-right spectrum, specifically as a "fundamentalist rightist," which is reflected in his foreign policy stance of "anti-Americanism." Ōkawa believed that the United States intended to extend its influence into East Asia, and Japan must make it clear that the U.S. would not be able to realize this ambition. He had a keen sense of the impending confrontation between the U.S. and Japan, which he and his ideological followers viewed as the necessary path to redeem East Asia. In 1925, Ōkawa predicted in an NHK broadcast that the U.S. and Japan would ultimately engage in a deadly struggle for global dominance. He accused the United States of being an invader of East Asia, detailing America's incursions into the region since modern times. Ōkawa argued that unless Japan corrected the distorted U.S.-Japan relations that began with the "Black Ships Incident" in 1853, it would be difficult for Japan to lead Asia into modernity.
-However, Ōkawa's prediction that Japan would win the "War to Liberate Asia" did not materialize in history. After Japan's defeat, although Ōkawa Shumei was merely a civilian, he was regarded as a "co-conspirator in the aggressive war" and became a "suspect of war crimes," a situation not mitigated by his mental condition.</t>
+          <t>Or is it that the United States deliberately recklessly in order to avoid him exposing the example of the history of aggression in East Asia?
+At the end of 1948, seven war criminals, including Hideki Tojo, were released and returned home after seven war criminals including Tojo were hanged in Sugamo Prison. In the early Showa period, in the early Showa period, in the speculation of Asian modernization, Okawa Shuaki embarked on the "Great Japanism," which played a role in fueling Japan's subsequent war of aggression in Asia, and was also the main standard-bearer of encouraging Japanese society to embark on militarism.
+The author of this book, Eric. Eric Jaffe's grandfather, Daniel. Daniel Jaffe, a field psychiatrist in the U.S. military, ruled that Zhouaki Okawa was mentally incapacitated and could not continue to stand trial. Daniel. Dr. Jia Fei's psychiatric evaluation of Shumei Okawa has become a controversy in recent history, but it also connects the lives of the two people, and the author takes a glimpse of his grandfather's mysterious life and at the same time enters the crazy world of Shumei Okawa, which opens a window for readers to understand modern Japan and explore what kind of social collective consciousness pushed the Japanese people to the point of no return in the war of aggression.
+Shuaki Okawa's thinking about Japan and modern Asia is different from that of Yukichi Fukuzawa, who advocates a European approach, and it is fascinating for Shuaki Okawa to return to bushido to find solutions. Okawa believes that "Japaneseness" is the spiritual driving force for Asia to return to "Asiana for Asians", which should be the inspiration of Okakura Tenshin's "Oriental ideal" and the inheritance of the spirit of Saigo Takamori, the leader of the Southwest War. The Allied memo described Okawa as "the most determined and persuasive man who promoted 'Asian' Asia".
+Under the post-World War I world economic panic, where should Japan go, Okawa Shuming ascended to the heights, learned from the people of the Restoration, advocated a comprehensive and thorough renovation of Japan's "Showa Restoration", and corrected the corruption of parliamentary politics derived from the "Taisho Democracy". Okawa cherished the traditions of the shogunate and advocated the formation of a cabinet with the military at its core.
+Okawa Shuaki Thought is undoubtedly positioned on the extreme right on the political spectrum, that is, the "fundamentalist right," and its expression in foreign policy is "anti-American." Okawa Shuaki believes that the United States intends to extend its influence into East Asia, and Japan must make the United States understand that the other side will not be able to carry out this ambition. Okawa's keen sense of smell smells the air of beauty, and the air of the final showdown is also the only way for Okawa and his followers to redeem East Asia. In 1925, Okawa predicted on NHK that the United States and Japan would eventually fight to the death for global control, and Okawa accused the United States of being the invader of East Asia, and counted the U.S. aggression against East Asia in modern times, and Okawa believed that it would be difficult for Japan to lead Asia to modern times without putting the distorted U.S.-Japan relations that had been distorted since the "Black Ship Incident" in 1853.
+However, Okawa's prediction that Japan would inevitably win the "war for the liberation of Asia" has not become history, and after Japan's defeat in the war, although Okawa Shuming was a civilian, he was regarded as a "conspirator in the war of aggression" and reduced to a "suspected war criminal."</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -895,26 +872,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，特别是在专业术语的使用上，如“ideological instigator”和“fundamentalist rightist”，这些用词更符合学术语境。相比之下，谷歌翻译在一些句子的结构上显得较为生硬，例如“Okawa Shumei's thought is undoubtedly positioned at the extreme right wing on the political spectrum”这句话的表达不够自然。大模型翻译在保留原意和细节方面也做得更好，尤其是在描述大川周明与其祖父的关系时，传达了更深层次的联系。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：70分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在句子结构和用词上更符合英语表达习惯。例如，“deliberately let him go lightly”比“大模型翻译”的“deliberately recklessly”更清晰且自然。此外，谷歌翻译在保留原意和细节方面也做得更好，如对“意识形态的挑拨者”的翻译为“ideological instigator”，更准确地传达了原文的含义。</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Was the United States deliberately lenient towards him to avoid exposing the historical examples of East Asian aggression? Ōkawa Shumei, the only civilian listed as a Class A war criminal during the Tokyo Trials, escaped prosecution due to a mental health evaluation. After the execution of seven war criminals, including Hideki Tōjō, by hanging at Sugamo Prison at the end of 1948, he was released and returned home. Viewed by the Allied forces as responsible for Japan's wartime atrocities during World War II, Ōkawa had, in the early Shōwa period, embraced "Japanese nationalism" amidst the discourse on Asian modernization, playing a significant role in promoting Japan's subsequent aggressive wars in Asia and becoming a leading figure in encouraging militarism in Japanese society. The American media labeled him as an "ideological instigator," while The New York Times characterized Ōkawa as a "civilian mind" that unveiled the "September 18 Incident," which marked the beginning of the "Fifteen-Year War."
-The author of this book, Eric Jaffe, is the grandson of Daniel Jaffe, a battlefield psychiatrist for the U.S. military, who assessed Ōkawa Shumei as mentally incapacitated and unable to continue his trial. Dr. Daniel Jaffe's mental evaluation of Ōkawa has become a point of contention in modern history, intertwining their lives. The author seeks to glimpse into his grandfather's enigmatic life while also stepping into Ōkawa's world of madness. This journey opens a window for readers to understand modern Japan and explore the collective consciousness that led the Japanese people down the irreversible path of aggressive war.
-Ōkawa Shumei's reflections on modern Japan and Asia differ from those of Fukuzawa Yukichi, who advocated for a European model. For Ōkawa, returning to the spirit of Bushido to seek solutions was highly appealing. He believed that "Japanese identity" was the spiritual impetus for Asia to return to an "Asia for Asians," inspired by Okakura Tenshin's "Eastern Ideals" and inheriting the spirit of Saigō Takamori, a key figure in the Satsuma Rebellion. Allied memoranda described Ōkawa as "the most steadfast and persuasive advocate for 'Asia for Asians.'"
-In the wake of the global economic depression following World War I, Ōkawa called for a comprehensive overhaul of Japan, inspired by the Meiji Restoration, advocating for a "Shōwa Restoration" to rectify the corruption stemming from "Taishō democracy" and parliamentary politics. He admired the traditions of the shogunate and proposed the establishment of a cabinet centered around the military.
-Politically, Ōkawa's ideology is undoubtedly positioned on the far-right spectrum, specifically as a "fundamentalist rightist," which is reflected in his foreign policy stance of "anti-Americanism." Ōkawa believed that the United States intended to extend its influence into East Asia, and Japan must make it clear that the U.S. would not be able to realize this ambition. He had a keen sense of the impending confrontation between the U.S. and Japan, which he and his ideological followers viewed as the necessary path to redeem East Asia. In 1925, Ōkawa predicted in an NHK broadcast that the U.S. and Japan would ultimately engage in a deadly struggle for global dominance. He accused the United States of being an invader of East Asia, detailing America's incursions into the region since modern times. Ōkawa argued that unless Japan corrected the distorted U.S.-Japan relations that began with the "Black Ships Incident" in 1853, it would be difficult for Japan to lead Asia into modernity.
-However, Ōkawa's prediction that Japan would win the "War to Liberate Asia" did not materialize in history. After Japan's defeat, although Ōkawa Shumei was merely a civilian, he was regarded as a "co-conspirator in the aggressive war" and became a "suspect of war crimes," a situation not mitigated by his mental condition.</t>
+          <t>Or did the United States deliberately let him go lightly to prevent him from exposing the history of East Asian aggression? Okawa Shumei was the only civilian listed as a Class A war criminal in the Tokyo Trial. He also escaped trial due to mental evaluation. At the end of 1948, after Tojo Hideki and seven other war criminals were hanged in Sugamo Prison, he was released and returned home. Okawa Shumei, who was regarded by the Allies as responsible for Japan's crimes in World War II, embarked on "Greater Japanism" in the early Showa period in his thinking about Asian modernization, which played a role in fueling Japan's subsequent wars of aggression in Asia. He was also the main standard-bearer who instigated Japanese society to embark on militarism. The American media called him an "ideological instigator", and the "New York Times" even positioned Okawa as a "civilian brain" who uncovered the "September 18th Incident" of the "Fifteen Years' War". Daniel Jaffe, the grandfather of the author of this book, Eric Jaffe, Jaffe was a field psychiatrist of the US Army. He determined that Okawa Shumei was mentally incompetent and could not continue to stand trial. Dr. Daniel Jaffe's mental evaluation of Okawa Shumei became a controversy in modern history and also connected the lives of the two. In order to get a glimpse of his grandfather's mysterious life, the author also stepped into Okawa Shumei's crazy world. This opened a window for the author to lead readers to understand modern Japan and explore what kind of social collective consciousness pushed the Japanese to the road of no return of aggressive war. Okawa Shumei's thinking on modern Japan and Asia was different from Fukuzawa Yukichi, who advocated using Europe as a method. Returning to Bushido to seek a solution was very attractive to Okawa Shumei. Okawa believed that "Japaneseness" was the spiritual driving force for Asia to return to "Asia for Asians". This should be the inspiration of Okakura Tenshin's "Oriental Ideal" and the inheritance of the spirit of Saigo Takamori, the main person in charge of the Southwest War. The Allied memorandum described Okawa as "the most determined and persuasive person to promote 'Asia for Asians'". After the First World War, Japan was faced with a great economic crisis. Okawa Shumei raised his voice and advocated a comprehensive and thorough renovation of Japan's "Showa Restoration" to rectify the corruption of parliamentary politics derived from the "Taisho Democracy". Okawa admired the traditions of the shogunate and proposed the establishment of a cabinet with the military as the core. Okawa Shumei's thought is undoubtedly positioned at the extreme right wing on the political spectrum, that is, the "fundamentalist right wing", which is manifested in "anti-American" foreign policy. Okawa Shumei believes that the United States intends to extend its influence into East Asia, and Japan must make the United States understand that the other party will not be able to carry out this ambition. Okawa's keen sense of smell smells the air that the United States and Japan will eventually confront each other, which is also the only way to redeem East Asia for Okawa and his followers. In 1925, Okawa predicted on NHK radio that the United States and Japan will eventually fight to the death for global control. Okawa accused the United States of being an invader of East Asia and counted the invasions of the United States on East Asia in modern times. Okawa believes that if the distorted US-Japan relationship since the "Black Ship Incident" in 1853 is not corrected, it will be difficult for Japan to lead Asia into modern times. However, Okawa's prediction that Japan would win the "War of Liberation of Asia" did not become history. After Japan's defeat, although Okawa Shumei was a civilian, he was regarded as a "conspirator in the war of aggression" and became a "suspected war criminal".</t>
         </is>
       </c>
     </row>
@@ -929,11 +901,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>On December 14, 2021, at the opening ceremony of the 11th National Congress of the Chinese Federation of Literary and Art Circles and the 10th National Congress of the Chinese Writers Association, it was emphasized that: "Climbing high broadens the mind, and flowing waters inspire distant thoughts." Literary and artistic workers should closely follow the pace of the times, perceive the pulse of art from the rhythm of the era, and open up artistic creation towards the great struggles of billions of people and the rich and colorful social life. They should extract themes and materials from the changes of the times, the progress of China, and the calls of the people, showcasing the beauty of Chinese history, the beauty of mountains and rivers, the beauty of culture, and expressing the aspirations, creative power, and developmental achievements of the Chinese people, presenting a panoramic view of the spiritual landscape of the new era.
-The phrase "Climbing high broadens the mind, and flowing waters inspire distant thoughts" originates from "Cai Gen Tan." "Cai Gen Tan" is a collection of aphorisms compiled by the Ming Dynasty scholar Hong Yingming, which integrates Confucian, Taoist, and Buddhist thoughts, combining philosophy of life, speculative wisdom, and statecraft. Its profound and far-reaching connotations, along with its accessible reasoning, have made it highly regarded to this day, providing wisdom and inspiration to readers both domestically and internationally. The original meaning of the phrase suggests that climbing a high mountain opens one’s heart, while facing a clear stream refreshes the spirit and inspires distant thoughts. It emphasizes that by immersing oneself in nature and the environment while transcending them, one can elevate their perspective and realm.
-The understanding and exploration of the relationship between literature, art, and the times have been a continuous thread in the history of Chinese literary and artistic thought. As early as the Pre-Qin period, the "Book of Rites: Music" pointed out that literature and art serve as a mirror reflecting social reality and the spirit of the times: "In a well-governed world, music is harmonious; in a chaotic world, music expresses resentment and anger; in a fallen nation, music conveys sorrow and contemplation, and the people suffer." Liu Xie, a literary theorist and critic of the Southern Dynasties, systematically elaborated on the relationship between literature and the times in "Wenxin Diaolong," summarizing a law of literary development: "The essence of poetry and prose changes with the world; as times change, the quality and style of literature also transform." In summary, "Literature changes with the sentiments of the world; its rise and fall are linked to the sequence of time." Subsequently, the Tang Dynasty poet Bai Juyi, in his advocacy of the New Yuefu Movement, not only promoted the idea that "literature should be written for the times, and songs should be composed for events," but also practiced this philosophy in his poetry. Many of his works, such as "Newly Made Fur Cloak," "Summer Drought," "The Charcoal Seller," and "The Gatherer of Earth Yellow," profoundly reflect social realities and respond to the changes of the times. In the Qing Dynasty, Zhao Yi further elaborated on this idea in "On Poetry," proposing that "poetry and prose follow the trends of the world, and there is not a day without innovation," emphasizing that literary and artistic works must reflect and write about the times, and that their creation must keep pace with the times and innovate daily. 
-Looking back at the history of Chinese literary and artistic development, since the "Book of Songs" and "Chuci," the tradition of "writing for the times" and "creating for events" has gradually formed, and through the development of successive dynasties, it has been distilled into the aesthetic cultural pursuit of the Chinese nation. This pursuit of aesthetic values enables literature and art to consistently reflect the winds and clouds of the times and the joys and sorrows of the people, guiding the era and becoming a nourishing force that supplements the gaps of time and shapes the national soul.
-The embodiment of the spirit of the times in literature and art is not only a fine tradition of Chinese literary and artistic creation but also aligns with the Marxist theory of art as a reflection of reality.</t>
+          <t>On December 14, 2021, General Secretary Xi Jinping pointed out at the opening ceremony of the 11th National Congress of the China Federation of Literary and Art Circles and the 10th National Congress of the China Writers Association: "'Climbing the heights makes people feel open, and the current makes people far.'" The majority of literary and artistic workers should keep up with the pace of the times, feel the pulse of art from the pulse of the times, open artistic creation to the great struggle of hundreds of millions of people, and open to the rich and colorful social life. Write the aspirations of the Chinese people's struggle, the power of creation, and the fruits of development, and show the spiritual atmosphere of the new era in an all-round panoramic way."
+"Ascending makes people feel refreshed, and the stream makes people far", the words "Caigen Tan". Caigen Tan is a quotation work collected and compiled by the Ming Dynasty scholar Hong Yingming, which adopts Confucianism, Taoism and Buddhism, integrates the philosophy of the world, speculative wisdom, and statecraft as a whole, with profound and far-reaching connotations, and the reasoning is simple to understand, and it is still highly respected today, for readers at home and abroad to draw wisdom and enlightenment from it. Ascending makes people feel open, and the stream makes people feel far away", the original text is to the effect that climbing the mountain will make people open-minded, and facing the clear stream will make people clear and far-reaching, emphasizing that people are integrated into nature, and at the same time integrate into the environment, they will be able to enhance their vision and realm.
+The understanding and discussion of the relationship between literature and art and the times are in the same line in the history of Chinese literature and art thought. As early as the pre-Qin period, the "Book of Rites and Music" pointed out that literature and art are a mirror that reflects the social reality and the style of the times. The voice of the troubled times is angry, and its politics are obedient; Liu Xian, a literary critic of the Southern Dynasties, more systematically expounded the relationship between literature and the times in "Wenxin Carving the Dragon," and then summed up a law of literary development, "songs and ballads are written with the passage of time," "the fortunes of time change, and the quality of literature changes from generation to generation." In short, "literary changes are dyed by the world's conditions, and the rise and fall are related to the order of time." Subsequently, the Tang Dynasty poet Bai Juyi not only advocated that "articles should be written for the time, and songs and poems should be written for things" in the New Yuefu Movement initiated by him. Moreover, in his poetry creation, he implements the above concepts, and many of his works, such as "New Cloth Qiu", "Summer Drought", "Charcoal Seller" and "Rehmannia Picker", all deeply reflect social reality and respond to the changes of the times. Zhao Yi of the Qing Dynasty further elaborated this idea in "On Poetry", proposing that "poetry and writing follow the fortune of the world, and become new every day", which not only pointed out that literary and artistic works reflect the times and write the mission of the times, but also emphasized that the creation of literary and artistic works must keep pace with the times and innovate every day. Looking back on the history of the development of Chinese literature and art, since the "Book of Songs" and "Chu Ci", Chinese literary and artistic creation has gradually begun to form the tradition of "writing for the times" and "writing for things", and the development of later generations has gradually precipitated into the aesthetic and cultural pursuit of the Chinese nation. Such the pursuit of aesthetic value enables literature and art to always reflect the situation of the times, the joys and sorrows of the people, always lead the times, send the voice of the times, and become a rich nourishment that complements the time and shapes the soul of the nation.
+Literature and art embody the style of the times, which is not only a fine tradition of Chinese literary and artistic creation, but also conforms to the Marxist theory of literary and artistic reflection. horse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -944,24 +915,23 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
-谷歌翻译：70分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，能够较好地传达原文的复杂含义和细节，例如“Climbing high broadens the mind, and flowing waters inspire distant thoughts”这一句翻译得非常准确，保留了原文的意境。而谷歌翻译在某些地方显得较为机械，缺乏对文化背景的理解，导致一些细节的丢失，例如对“菜根谭”的解释不够深入，未能传达其文化内涵。</t>
+大模型翻译：85分  
+谷歌翻译：65分  
+原因：大模型翻译在准确性和流畅性方面表现更佳，能够较好地传达原文的复杂含义和细节。例如，“登高使人心旷,临流使人意远”被准确翻译为“Climbing the heights makes people feel open, and the current makes people far”，而谷歌翻译未提供。谷歌翻译在流畅性上稍显生硬，且缺乏对文化背景的深入理解，导致一些句子不够自然。</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>On December 14, 2021, at the opening ceremony of the 11th National Congress of the Chinese Federation of Literary and Art Circles and the 10th National Congress of the Chinese Writers Association, it was emphasized that: "Climbing high broadens the mind, and flowing waters inspire distant thoughts." Literary and artistic workers should closely follow the pace of the times, perceive the pulse of art from the rhythm of the era, and open up artistic creation towards the great struggles of billions of people and the rich and colorful social life. They should extract themes and materials from the changes of the times, the progress of China, and the calls of the people, showcasing the beauty of Chinese history, the beauty of mountains and rivers, the beauty of culture, and expressing the aspirations, creative power, and developmental achievements of the Chinese people, presenting a panoramic view of the spiritual landscape of the new era.
-The phrase "Climbing high broadens the mind, and flowing waters inspire distant thoughts" originates from "Cai Gen Tan." "Cai Gen Tan" is a collection of aphorisms compiled by the Ming Dynasty scholar Hong Yingming, which integrates Confucian, Taoist, and Buddhist thoughts, combining philosophy of life, speculative wisdom, and statecraft. Its profound and far-reaching connotations, along with its accessible reasoning, have made it highly regarded to this day, providing wisdom and inspiration to readers both domestically and internationally. The original meaning of the phrase suggests that climbing a high mountain opens one’s heart, while facing a clear stream refreshes the spirit and inspires distant thoughts. It emphasizes that by immersing oneself in nature and the environment while transcending them, one can elevate their perspective and realm.
-The understanding and exploration of the relationship between literature, art, and the times have been a continuous thread in the history of Chinese literary and artistic thought. As early as the Pre-Qin period, the "Book of Rites: Music" pointed out that literature and art serve as a mirror reflecting social reality and the spirit of the times: "In a well-governed world, music is harmonious; in a chaotic world, music expresses resentment and anger; in a fallen nation, music conveys sorrow and contemplation, and the people suffer." Liu Xie, a literary theorist and critic of the Southern Dynasties, systematically elaborated on the relationship between literature and the times in "Wenxin Diaolong," summarizing a law of literary development: "The essence of poetry and prose changes with the world; as times change, the quality and style of literature also transform." In summary, "Literature changes with the sentiments of the world; its rise and fall are linked to the sequence of time." Subsequently, the Tang Dynasty poet Bai Juyi, in his advocacy of the New Yuefu Movement, not only promoted the idea that "literature should be written for the times, and songs should be composed for events," but also practiced this philosophy in his poetry. Many of his works, such as "Newly Made Fur Cloak," "Summer Drought," "The Charcoal Seller," and "The Gatherer of Earth Yellow," profoundly reflect social realities and respond to the changes of the times. In the Qing Dynasty, Zhao Yi further elaborated on this idea in "On Poetry," proposing that "poetry and prose follow the trends of the world, and there is not a day without innovation," emphasizing that literary and artistic works must reflect and write about the times, and that their creation must keep pace with the times and innovate daily. 
-Looking back at the history of Chinese literary and artistic development, since the "Book of Songs" and "Chuci," the tradition of "writing for the times" and "creating for events" has gradually formed, and through the development of successive dynasties, it has been distilled into the aesthetic cultural pursuit of the Chinese nation. This pursuit of aesthetic values enables literature and art to consistently reflect the winds and clouds of the times and the joys and sorrows of the people, guiding the era and becoming a nourishing force that supplements the gaps of time and shapes the national soul.
-The embodiment of the spirit of the times in literature and art is not only a fine tradition of Chinese literary and artistic creation but also aligns with the Marxist theory of art as a reflection of reality.</t>
+          <t>On December 14, 2021, General Secretary Xi Jinping pointed out at the opening ceremony of the 11th National Congress of the China Federation of Literary and Art Circles and the 10th National Congress of the China Writers Association: "'Climbing the heights makes people feel open, and the current makes people far.'" The majority of literary and artistic workers should keep up with the pace of the times, feel the pulse of art from the pulse of the times, open artistic creation to the great struggle of hundreds of millions of people, and open to the rich and colorful social life. Write the aspirations of the Chinese people's struggle, the power of creation, and the fruits of development, and show the spiritual atmosphere of the new era in an all-round panoramic way."
+"Ascending makes people feel refreshed, and the stream makes people far", the words "Caigen Tan". Caigen Tan is a quotation work collected and compiled by the Ming Dynasty scholar Hong Yingming, which adopts Confucianism, Taoism and Buddhism, integrates the philosophy of the world, speculative wisdom, and statecraft as a whole, with profound and far-reaching connotations, and the reasoning is simple to understand, and it is still highly respected today, for readers at home and abroad to draw wisdom and enlightenment from it. Ascending makes people feel open, and the stream makes people feel far away", the original text is to the effect that climbing the mountain will make people open-minded, and facing the clear stream will make people clear and far-reaching, emphasizing that people are integrated into nature, and at the same time integrate into the environment, they will be able to enhance their vision and realm.
+The understanding and discussion of the relationship between literature and art and the times are in the same line in the history of Chinese literature and art thought. As early as the pre-Qin period, the "Book of Rites and Music" pointed out that literature and art are a mirror that reflects the social reality and the style of the times. The voice of the troubled times is angry, and its politics are obedient; Liu Xian, a literary critic of the Southern Dynasties, more systematically expounded the relationship between literature and the times in "Wenxin Carving the Dragon," and then summed up a law of literary development, "songs and ballads are written with the passage of time," "the fortunes of time change, and the quality of literature changes from generation to generation." In short, "literary changes are dyed by the world's conditions, and the rise and fall are related to the order of time." Subsequently, the Tang Dynasty poet Bai Juyi not only advocated that "articles should be written for the time, and songs and poems should be written for things" in the New Yuefu Movement initiated by him. Moreover, in his poetry creation, he implements the above concepts, and many of his works, such as "New Cloth Qiu", "Summer Drought", "Charcoal Seller" and "Rehmannia Picker", all deeply reflect social reality and respond to the changes of the times. Zhao Yi of the Qing Dynasty further elaborated this idea in "On Poetry", proposing that "poetry and writing follow the fortune of the world, and become new every day", which not only pointed out that literary and artistic works reflect the times and write the mission of the times, but also emphasized that the creation of literary and artistic works must keep pace with the times and innovate every day. Looking back on the history of the development of Chinese literature and art, since the "Book of Songs" and "Chu Ci", Chinese literary and artistic creation has gradually begun to form the tradition of "writing for the times" and "writing for things", and the development of later generations has gradually precipitated into the aesthetic and cultural pursuit of the Chinese nation. Such the pursuit of aesthetic value enables literature and art to always reflect the situation of the times, the joys and sorrows of the people, always lead the times, send the voice of the times, and become a rich nourishment that complements the time and shapes the soul of the nation.
+Literature and art embody the style of the times, which is not only a fine tradition of Chinese literary and artistic creation, but also conforms to the Marxist theory of literary and artistic reflection. horse</t>
         </is>
       </c>
     </row>
@@ -977,11 +947,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The An-Shi Rebellion marks a watershed moment in the decline of the Tang Dynasty, which was once a powerful superstate. Following this heavy blow, the dynasty struggled to recover. Historians have summarized the various impacts of the An-Shi Rebellion on the Tang Dynasty and included them in history textbooks. However, the severe psychological crisis experienced by the Tang emperors as a result of the rebellion seems to have been overlooked by scholars. In fact, the psychological crisis of the emperors had a profound impact on the political landscape of the later Tang Dynasty. The most direct manifestation of this psychological crisis was the emperors' growing distrust of military generals, leading them to rely solely on eunuchs. Eunuchs, being household servants in the palace, were perceived by the emperors as lacking the potential to rebel, and since they had served the emperors since childhood, the emperors believed they shared a bond of trust.
-Emperor Xuanzong initiated the rarely seen Kaiyuan era of prosperity in history and was undoubtedly a capable ruler. However, after the An-Shi Rebellion, the high level of confidence he had before was shattered overnight. Thus, when he ordered General Gao Xianzhi and Feng Changqing to lead troops to quell the rebellion, he specifically appointed the eunuch Bian Lingcheng as the military supervisor. Unfortunately, the appointment of a eunuch as military supervisor led to a tragic outcome. The narrow-minded Bian Lingcheng, due to disagreements with Gao Xianzhi and Feng Changqing, falsely accused them of embezzling military provisions, undermining troop morale. Emperor Xuanzong, believing the slander, unhesitatingly executed these two distinguished generals. This clearly illustrates the severity of Emperor Xuanzong's psychological crisis.
-A similar psychological crisis later emerged in Emperor Suzong. In September of the first year of Qianyuan (758 AD), Emperor Suzong ordered Guo Ziyi, Li Guangbi, and other regional governors to lead an army of 600,000 to besiege Xiangzhou and suppress the rebels. To monitor these generals, Emperor Suzong, citing the difficulty of having Guo Ziyi and Li Guangbi, both national heroes, subordinate to one another, did not appoint a commander-in-chief but instead appointed the eunuch Yu Chaoyin as the military observer and coordinator—essentially a commander-in-chief without the title. An eunuch, who was completely ignorant of military strategy, became the highest military officer, making the outcome of the war predictable. Indeed, in the battle of Xiangzhou, the Tang army suffered a crushing defeat, losing nearly all of their 100,000 weapons and reducing their cavalry from 10,000 to just 3,000. After the battle, Yu Chaoyin shifted the blame for the defeat entirely onto General Guo Ziyi, and Emperor Suzong, unable to discern right from wrong, stripped Guo Ziyi of his military authority.
-Eunuchs, often psychologically twisted due to their physical deformities, tend to be even more greedy and tyrannical than ordinary people once they gain power. Therefore, the appointment of eunuchs as military supervisors led to numerous adverse consequences, with several regional leaders being forced to rebel. General Pugu Huai'en, who had achieved remarkable military success in quelling the An-Shi Rebellion, had 46 members of his family die for the country, and his daughter was married off to the Khaganate of the Uyghurs as part of a state marriage policy. However, after offending the eunuch Luo Fengxian, Luo reported him for treason. Upon realizing this, Pugu Huai'en, unwilling to become another Gao Xianzhi, had no choice but to rebel. Similarly, Liu Wu, the governor of Zhaoyi, and Zhou Zhiguang, the governor of Tonghua, could not bear the oppression and bullying of the eunuchs and were driven to revolt. When Zhou Zhiguang rebelled, he declared, "Pugu Huai'en did not originally intend to rebel, but was forced to do so by you; I also did not intend to rebel, but today I rebel for you." The coercion of regional leaders by eunuchs further exacerbated the emperors' psychological crises, creating a vicious cycle.
-Eunuchs were not only appointed as military supervisors but also...</t>
+          <t>The Anshi Rebellion was a watershed in the Tang Dynasty from prosperity to decline. This once-prosperous superpower has been in a state of collapse since then. The impact of the Anshi Rebellion on the Tang Dynasty has been summarized by historians from many aspects and written into history textbooks. However, the serious psychological crisis of the Tang Dynasty emperor caused by the Anshi Rebellion seems to have been ignored by historians. In fact, the psychological crisis of the emperor had a very far-reaching impact on the political pattern of the late Tang Dynasty. The most direct manifestation of the emperor's psychological crisis is that he no longer trusts the generals, but only the eunuchs. Because the eunuchs were the domestic slaves in the palace, in the emperor's opinion, they would not be in danger of rebellion, and the emperor had been served by the eunuchs since he was a child, and he thought that he had a good relationship with each other and was trustworthy.
+Tang Xuanzong created a rare Kaiyuan era in history, and was undoubtedly an accomplished emperor. However, the Anshi Rebellion, the high level of self-confidence before Xuanzong, disappeared overnight. Therefore, when he ordered the general Gao Xianzhi and Feng Changqing to lead the troops to quell the rebellion, he specially sent the eunuch Bian Lingcheng as the supervisor. However, the opening of the eunuch's appointment as a prisoner created a tragedy. The narrow-minded Bian Lingcheng disagreed with Gao Xianzhi and Feng Changqing, so he falsely accused them of embezzling military rations and shaking the morale of the army. Tang Xuanzong actually listened to the slander and killed these two generals with outstanding achievements without hesitation. It can be seen from this how serious Tang Xuanzong's psychological crisis is.
+The same psychological crisis then appeared in Tang Suzong. In September of the first year of Qianyuan (758 AD), Su Zong ordered Guo Ziyi, Li Guangbi and other Jiujiedu envoys to lead an army of 600,000 to besiege Xiangzhou and crusade against the rebels. In order to monitor these generals, Su Zong did not set up a marshal on the grounds that Guo Ziyi and Li Guangbi were both state fathers and it was difficult to subordinate each other, but appointed the eunuch Yu Chaoen as the envoy of Guan Jun Rong Xuanwei - - This is the name newly created by Su Zong, that is, the generalissimo without the name of generalissimo. The eunuch, who knew nothing about the art of war, became the supreme military commander, and the outcome of the war was not difficult to predict. Sure enough, in the first battle of Xiangzhou, the Tang army was defeated, only 3,000 horses were left, and almost all of the 100,000 swords and guns were lost. After the war, Yu Chaoen put all the responsibility for the defeat on the general Guo Ziyi. Su Zong did not know right from wrong and relieved Guo Ziyi of military power.
+Because of their physical disabilities, most of the eunuchs are psychologically distorted, and once they gain power, they are often more insatiable and domineering than normal people. Therefore, the eunuchs served as the supervisors of the army, which caused many evil consequences, and many generals of the feudal towns were even forced to rebel. The general Gu Huai'en made outstanding achievements in the pacification of the Anshi Rebellion, forty-six of his disciples died for the country, and his daughter also married to the Hui Khanate for the sake of the country and pro-policy. However, because he offended the eunuch Luo Fengxian, Luo Fengxian secretly accused him of rebellion. After Fugu Huaien found out, he didn't want to be Gao Xianzhi's second, so he had to rebel. Liu Wu, the envoy of the Zhaoyi Festival, and Zhou Zhiguang, the envoy of the Tonghua Festival, were also unable to bear the humiliation and oppression of the eunuchs, and were forced to rebel. When Zhou Zhiguang rebelled, he issued a statement saying: "Fugu Huaien was not rebelling, but he was forced to rebel by you; I didn't rebel in the first place, but today I rebelled for you." The generals of the feudal towns were forced to rebel by the eunuchs, which further exacerbated the psychological crisis of the emperor, thus forming a vicious circle.
+Eunuchs were not only sent to the army as overseers, but</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -992,24 +962,24 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
-谷歌翻译：80分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在一些关键句子的表达上更为精准，例如“大将高仙芝，封常清”翻译为“General Gao Xianzhi and Feng Changqing”更符合原文的语境。而谷歌翻译在某些地方的用词略显生硬，如“生理残缺”翻译为“physical defects”不如“大模型翻译”的“psychologically twisted”来得贴切，未能很好地传达原文的情感和细节。</t>
+大模型翻译：85分  
+谷歌翻译：75分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“the serious psychological crisis of the Tang Dynasty emperor”这一句中，使用了“emperor”而非“emperors”，更准确地反映了原文的单数含义。此外，大模型翻译在细节上更为细腻，如“the eunuch created a tragedy as soon as he took the post of military supervisor”这一句，表达了因果关系，增强了逻辑性。谷歌翻译虽然整体流畅，但在某些地方如“the grand marshal without the title of grand marshal”显得重复，影响了表达的简洁性。</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>The An-Shi Rebellion marks a watershed moment in the decline of the Tang Dynasty, which was once a powerful superstate. Following this heavy blow, the dynasty struggled to recover. Historians have summarized the various impacts of the An-Shi Rebellion on the Tang Dynasty and included them in history textbooks. However, the severe psychological crisis experienced by the Tang emperors as a result of the rebellion seems to have been overlooked by scholars. In fact, the psychological crisis of the emperors had a profound impact on the political landscape of the later Tang Dynasty. The most direct manifestation of this psychological crisis was the emperors' growing distrust of military generals, leading them to rely solely on eunuchs. Eunuchs, being household servants in the palace, were perceived by the emperors as lacking the potential to rebel, and since they had served the emperors since childhood, the emperors believed they shared a bond of trust.
-Emperor Xuanzong initiated the rarely seen Kaiyuan era of prosperity in history and was undoubtedly a capable ruler. However, after the An-Shi Rebellion, the high level of confidence he had before was shattered overnight. Thus, when he ordered General Gao Xianzhi and Feng Changqing to lead troops to quell the rebellion, he specifically appointed the eunuch Bian Lingcheng as the military supervisor. Unfortunately, the appointment of a eunuch as military supervisor led to a tragic outcome. The narrow-minded Bian Lingcheng, due to disagreements with Gao Xianzhi and Feng Changqing, falsely accused them of embezzling military provisions, undermining troop morale. Emperor Xuanzong, believing the slander, unhesitatingly executed these two distinguished generals. This clearly illustrates the severity of Emperor Xuanzong's psychological crisis.
-A similar psychological crisis later emerged in Emperor Suzong. In September of the first year of Qianyuan (758 AD), Emperor Suzong ordered Guo Ziyi, Li Guangbi, and other regional governors to lead an army of 600,000 to besiege Xiangzhou and suppress the rebels. To monitor these generals, Emperor Suzong, citing the difficulty of having Guo Ziyi and Li Guangbi, both national heroes, subordinate to one another, did not appoint a commander-in-chief but instead appointed the eunuch Yu Chaoyin as the military observer and coordinator—essentially a commander-in-chief without the title. An eunuch, who was completely ignorant of military strategy, became the highest military officer, making the outcome of the war predictable. Indeed, in the battle of Xiangzhou, the Tang army suffered a crushing defeat, losing nearly all of their 100,000 weapons and reducing their cavalry from 10,000 to just 3,000. After the battle, Yu Chaoyin shifted the blame for the defeat entirely onto General Guo Ziyi, and Emperor Suzong, unable to discern right from wrong, stripped Guo Ziyi of his military authority.
-Eunuchs, often psychologically twisted due to their physical deformities, tend to be even more greedy and tyrannical than ordinary people once they gain power. Therefore, the appointment of eunuchs as military supervisors led to numerous adverse consequences, with several regional leaders being forced to rebel. General Pugu Huai'en, who had achieved remarkable military success in quelling the An-Shi Rebellion, had 46 members of his family die for the country, and his daughter was married off to the Khaganate of the Uyghurs as part of a state marriage policy. However, after offending the eunuch Luo Fengxian, Luo reported him for treason. Upon realizing this, Pugu Huai'en, unwilling to become another Gao Xianzhi, had no choice but to rebel. Similarly, Liu Wu, the governor of Zhaoyi, and Zhou Zhiguang, the governor of Tonghua, could not bear the oppression and bullying of the eunuchs and were driven to revolt. When Zhou Zhiguang rebelled, he declared, "Pugu Huai'en did not originally intend to rebel, but was forced to do so by you; I also did not intend to rebel, but today I rebel for you." The coercion of regional leaders by eunuchs further exacerbated the emperors' psychological crises, creating a vicious cycle.
-Eunuchs were not only appointed as military supervisors but also...</t>
+          <t>The Anshi Rebellion was a watershed in the Tang Dynasty from prosperity to decline. This once-prosperous superpower has been in a state of collapse since then. The impact of the Anshi Rebellion on the Tang Dynasty has been summarized by historians from many aspects and written into history textbooks. However, the serious psychological crisis of the Tang Dynasty emperor caused by the Anshi Rebellion seems to have been ignored by historians. In fact, the psychological crisis of the emperor had a very far-reaching impact on the political pattern of the late Tang Dynasty. The most direct manifestation of the emperor's psychological crisis is that he no longer trusts the generals, but only the eunuchs. Because the eunuchs were the domestic slaves in the palace, in the emperor's opinion, they would not be in danger of rebellion, and the emperor had been served by the eunuchs since he was a child, and he thought that he had a good relationship with each other and was trustworthy.
+Tang Xuanzong created a rare Kaiyuan era in history, and was undoubtedly an accomplished emperor. However, the Anshi Rebellion, the high level of self-confidence before Xuanzong, disappeared overnight. Therefore, when he ordered the general Gao Xianzhi and Feng Changqing to lead the troops to quell the rebellion, he specially sent the eunuch Bian Lingcheng as the supervisor. However, the opening of the eunuch's appointment as a prisoner created a tragedy. The narrow-minded Bian Lingcheng disagreed with Gao Xianzhi and Feng Changqing, so he falsely accused them of embezzling military rations and shaking the morale of the army. Tang Xuanzong actually listened to the slander and killed these two generals with outstanding achievements without hesitation. It can be seen from this how serious Tang Xuanzong's psychological crisis is.
+The same psychological crisis then appeared in Tang Suzong. In September of the first year of Qianyuan (758 AD), Su Zong ordered Guo Ziyi, Li Guangbi and other Jiujiedu envoys to lead an army of 600,000 to besiege Xiangzhou and crusade against the rebels. In order to monitor these generals, Su Zong did not set up a marshal on the grounds that Guo Ziyi and Li Guangbi were both state fathers and it was difficult to subordinate each other, but appointed the eunuch Yu Chaoen as the envoy of Guan Jun Rong Xuanwei - - This is the name newly created by Su Zong, that is, the generalissimo without the name of generalissimo. The eunuch, who knew nothing about the art of war, became the supreme military commander, and the outcome of the war was not difficult to predict. Sure enough, in the first battle of Xiangzhou, the Tang army was defeated, only 3,000 horses were left, and almost all of the 100,000 swords and guns were lost. After the war, Yu Chaoen put all the responsibility for the defeat on the general Guo Ziyi. Su Zong did not know right from wrong and relieved Guo Ziyi of military power.
+Because of their physical disabilities, most of the eunuchs are psychologically distorted, and once they gain power, they are often more insatiable and domineering than normal people. Therefore, the eunuchs served as the supervisors of the army, which caused many evil consequences, and many generals of the feudal towns were even forced to rebel. The general Gu Huai'en made outstanding achievements in the pacification of the Anshi Rebellion, forty-six of his disciples died for the country, and his daughter also married to the Hui Khanate for the sake of the country and pro-policy. However, because he offended the eunuch Luo Fengxian, Luo Fengxian secretly accused him of rebellion. After Fugu Huaien found out, he didn't want to be Gao Xianzhi's second, so he had to rebel. Liu Wu, the envoy of the Zhaoyi Festival, and Zhou Zhiguang, the envoy of the Tonghua Festival, were also unable to bear the humiliation and oppression of the eunuchs, and were forced to rebel. When Zhou Zhiguang rebelled, he issued a statement saying: "Fugu Huaien was not rebelling, but he was forced to rebel by you; I didn't rebel in the first place, but today I rebelled for you." The generals of the feudal towns were forced to rebel by the eunuchs, which further exacerbated the psychological crisis of the emperor, thus forming a vicious circle.
+Eunuchs were not only sent to the army as overseers, but</t>
         </is>
       </c>
     </row>
@@ -1025,10 +995,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Every generation of historians must rewrite the history recorded by the previous generation. The renowned historian John K. Fairbank, who has dedicated over sixty years to the study of Chinese history, has undergone a series of transformations in his reflections on both Chinese history and the nature of history itself. Throughout his academic career, he has been less concerned with the history that Westerners deem valuable, natural, and conventional, and more focused on delving into China, examining and reinterpreting Chinese history to the greatest extent possible, as if experiencing it firsthand.
-The history he personally experienced is starkly different from the history reconstructed later; the title of his book, "The Road Taken Twice," aptly symbolizes this crucial distinction. 
-In this memoir, Fairbank discusses the core issues that Western scholars of Chinese history have repeatedly debated since the latter half of the 20th century: from the "Western-centric" perspective represented by Fairbank himself to the emphasis on studying Chinese history from a Chinese viewpoint, and the exploration of popular historical narratives and the tensions between storytelling and memory, among other global themes. This is an inspiring book. As someone who participated in Fairbank's graduate course at Harvard from 1964 to 1965, I was particularly moved by the lifelong sincere friendship between the author and his mentor, Fairbank, as described in Chapter Four. — Lucien Bianco (Emeritus Professor, École des Hautes Études en Sciences Sociales, France)
-Few historians consider the way they choose to narrate the past to be both interesting and significant. Historians who possess a deep understanding of cross-cultural histories, knowing both the facts and the underlying reasons, are even rarer. By illuminating the study of Chinese history with a Western analytical imagination, Fairbank not only provides a model for Western scholars researching modern Chinese history but also offers Chinese historians new methodologies for exploring their own rich history as well as histories from around the world. His journey of self-discovery has brought enlightenment to the field of history. — Wang Gungwu (Distinguished Professor, National University of Singapore)</t>
+          <t>Every generation of historians has to rewrite the history written by the previous generation of historians.
+The famous historian Ke Wen, who has been studying Chinese history for more than 60 years, has undergone a series of evolutions in his thinking about Chinese history and history itself. What has lingered in his research career for a long time is not the concern for the natural, natural and conventional history that Westerners think is valuable, but the desire to go deep into China and examine and re-understand Chinese history to the greatest extent possible as Chinese himself.
+The history that I experienced at the beginning is very different from the history that I have reconstructed later, and the title of the book, "The Road Traveled Twice", symbolizes this crucial difference.
+This memoir discusses the core issues that have been repeatedly discussed by Western Chinese historians since the second half of the 20th century: from the "Western-centrism" represented by Fairbank to the emphasis on the study of Chinese history from a Chinese perspective, to the discussion of global issues such as the folk view of history and the tension between writing history, stories and memories. This is a great book that is deeply inspiring. As a foreigner who attended Fairbank's graduate program at Harvard in 1964-1965, I was also moved by the lifelong friendship between the author and his mentor Fairbank in Chapter 4. ―Lucien Bianco (Emeritus Professor, Institut des Hautes Etudes des Sciences in Social Sciences, France)
+Few historians believe that the fact that they chose to tell the story of the past is both interesting and important in itself. It is even rarer for a historian who has an in-depth understanding of the history of a different culture, knows what it is, and knows why it is so. Illuminating Chinese Historical Thinking with a Western Analytical Imagination -- Ke Wen not only provides an example for Western scholars who study modern Chinese history, but also provides Chinese historians with a new way to study the rich history of their own country and the history of the rest of the world. His journey of self-discovery has inspired the profession of history. ―Wang Gungwu (Distinguished Professor, National University of Singapore)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1041,7 +1012,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在对柯文（John K. Fairbank）名字的处理上，使用了正确的全名，并且在句子结构上更符合英语表达习惯，例如“the history he personally experienced is starkly different from the history reconstructed later”比谷歌翻译的“the history that he personally experienced at the beginning is very different from the history that he reconstructed later”更为简洁和自然。谷歌翻译在某些地方使用了不够准确的词汇，如将“柯文”翻译为“Cohen”，而大模型翻译则正确使用了“Fairbank”。</t>
+原因：大模型翻译在准确性上表现更佳，尤其在对“西方中心论”及“民间史观”的翻译上更为精准，使用了“Western-centrism”和“folk view of history”，而谷歌翻译则使用了“Western-centrism”但在“民间史观”上翻译为“folk historical views”，略显模糊。此外，大模型翻译在流畅性上更自然，如“illuminating Chinese Historical Thinking with a Western Analytical Imagination”表达更为流畅，而谷歌翻译的“Using a Western analytical imagination to illuminate Chinese historical thinking”则稍显生硬。整体上，大模型翻译在保留原意和语气方面也更为出色。</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1052,10 +1023,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Every generation of historians must rewrite the history recorded by the previous generation. The renowned historian John K. Fairbank, who has dedicated over sixty years to the study of Chinese history, has undergone a series of transformations in his reflections on both Chinese history and the nature of history itself. Throughout his academic career, he has been less concerned with the history that Westerners deem valuable, natural, and conventional, and more focused on delving into China, examining and reinterpreting Chinese history to the greatest extent possible, as if experiencing it firsthand.
-The history he personally experienced is starkly different from the history reconstructed later; the title of his book, "The Road Taken Twice," aptly symbolizes this crucial distinction. 
-In this memoir, Fairbank discusses the core issues that Western scholars of Chinese history have repeatedly debated since the latter half of the 20th century: from the "Western-centric" perspective represented by Fairbank himself to the emphasis on studying Chinese history from a Chinese viewpoint, and the exploration of popular historical narratives and the tensions between storytelling and memory, among other global themes. This is an inspiring book. As someone who participated in Fairbank's graduate course at Harvard from 1964 to 1965, I was particularly moved by the lifelong sincere friendship between the author and his mentor, Fairbank, as described in Chapter Four. — Lucien Bianco (Emeritus Professor, École des Hautes Études en Sciences Sociales, France)
-Few historians consider the way they choose to narrate the past to be both interesting and significant. Historians who possess a deep understanding of cross-cultural histories, knowing both the facts and the underlying reasons, are even rarer. By illuminating the study of Chinese history with a Western analytical imagination, Fairbank not only provides a model for Western scholars researching modern Chinese history but also offers Chinese historians new methodologies for exploring their own rich history as well as histories from around the world. His journey of self-discovery has brought enlightenment to the field of history. — Wang Gungwu (Distinguished Professor, National University of Singapore)</t>
+          <t>Every generation of historians has to rewrite the history written by the previous generation of historians.
+The famous historian Ke Wen, who has been studying Chinese history for more than 60 years, has undergone a series of evolutions in his thinking about Chinese history and history itself. What has lingered in his research career for a long time is not the concern for the natural, natural and conventional history that Westerners think is valuable, but the desire to go deep into China and examine and re-understand Chinese history to the greatest extent possible as Chinese himself.
+The history that I experienced at the beginning is very different from the history that I have reconstructed later, and the title of the book, "The Road Traveled Twice", symbolizes this crucial difference.
+This memoir discusses the core issues that have been repeatedly discussed by Western Chinese historians since the second half of the 20th century: from the "Western-centrism" represented by Fairbank to the emphasis on the study of Chinese history from a Chinese perspective, to the discussion of global issues such as the folk view of history and the tension between writing history, stories and memories. This is a great book that is deeply inspiring. As a foreigner who attended Fairbank's graduate program at Harvard in 1964-1965, I was also moved by the lifelong friendship between the author and his mentor Fairbank in Chapter 4. ―Lucien Bianco (Emeritus Professor, Institut des Hautes Etudes des Sciences in Social Sciences, France)
+Few historians believe that the fact that they chose to tell the story of the past is both interesting and important in itself. It is even rarer for a historian who has an in-depth understanding of the history of a different culture, knows what it is, and knows why it is so. Illuminating Chinese Historical Thinking with a Western Analytical Imagination -- Ke Wen not only provides an example for Western scholars who study modern Chinese history, but also provides Chinese historians with a new way to study the rich history of their own country and the history of the rest of the world. His journey of self-discovery has inspired the profession of history. ―Wang Gungwu (Distinguished Professor, National University of Singapore)</t>
         </is>
       </c>
     </row>
@@ -1074,13 +1046,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The story comes to an end here. I gently close the book "The Old Man and the Sea," feeling a lingering sense of contemplation. The image of the old man, gaunt and unyielding, lingers in my mind. Deep wrinkles carve his neck and back, and brown spots cover his cheeks; apart from his eyes, he appears aged. Those eyes are optimistic and never know defeat, their color reminiscent of the sea.
-"The Old Man and the Sea" is a representative work of American author Ernest Hemingway. It tells the story of Santiago, an old Cuban fisherman who, after eighty-four consecutive days without catching a fish, finally hooks a giant marlin. He struggles for three exhausting days to reel it in, killing it and tying it alongside his small boat. However, on his return journey, he faces repeated attacks from sharks, and by the time he reaches the harbor, all that remains are the fish's head, tail, and a spine.
-I believe he is a failure, yet in a certain sense, he is also a success. For the first eighty-four days, the old man's fish basket is empty as he stands on the shore waiting for the arrival of the eighty-fifth day—the day of good fortune. He sets out full of hope, sailing into the vastness of the sea. Despite hunger and exhaustion, he refuses to give up on the great fish. When only a skeleton remains after the sharks have devoured it, he asks himself, "But what defeated you?" "Nothing... I just went too far." The old man acknowledges his failure but firmly believes in his own strength. He believes that even in failure, he remains incredibly brave, convinced that he has not been defeated by the sharks in spirit, for it is the sharks that have been vanquished, not himself.
-After pondering for a long time and savoring the meaning of this book, I realize that the backdrop of the work is set after the two World Wars and the Spanish Civil War, during which people have not yet awakened from the nightmare of global conflict. Disillusionment and loss plague humanity. The post-war society is chaotic and decayed, with the absurdities of war and society inflicting deep wounds on Hemingway's spirit and body, a near brush with death. I reflect for a long time and come to understand that the marlin symbolizes life's ideals, the sharks represent inescapable tragic fate, the sea embodies the unpredictable nature of human society, and the lions in his dreams symbolize strength, valor, and the ability to create miracles. The old man represents the "tough guy" in humanity, bravely battling against powerful forces, and his unfortunate fishing experience symbolizes humanity's constant struggle against misfortune.
-"The sea is kind and beautiful," it grants the old man a marlin "two feet longer than his small boat." Yet the sea is also cruel—the sharks that come in droves steal away the great fish he has worked so hard to catch, shattering his "glory." The relationship between the old man and the sea is one of dependence and struggle. The sea is both his place of livelihood and battleground, and it will ultimately become his final resting place.
-Though the old man is aged, he remains unyielding, just as he says: "A man is not made for defeat. A man can be destroyed but not defeated." 
-"The Old Man and the Seagull" is a similar narrative. It tells the story of an elderly man named Wu Qingheng in Kunming, who has cared for and fed the seagulls by Cui Lake for over a decade, treating them like family. After the old man's death, the seagulls spontaneously keep vigil for him, unable to leave their beloved companion.</t>
+          <t>This is the end of the whole story, gently close the book "The Old Man and the Sea", the meaning is still unfinished, cover the volume and ponder, the old man's skinny, unyielding figure comes to my mind, his neck is carved with deep wrinkles, brown spots all over his cheeks, except for a pair of eyes, he is very old from top to bottom. Those eyes are optimistic and never say die, and the color is like the sea.
+"The Old Man and the Sea" is Hemingway's masterpiece in the United States, the old Cuban fisherman Santiago finally caught a big marlin alone after 84 consecutive days without catching a fish, dragged it for three days and was exhausted, he was killed and tied to the side of the boat, and was repeatedly attacked by sharks on the way back, and finally returned to port with only the head and tail and a backbone.
+I think he failed, but in a sense he succeeded.
+For the first eighty-four days, the old man's basket was empty, and he stood on the shore waiting for the eighty-fifth day to come - that day of good luck. He sailed away full of hope, sailing to the far side of the sea, and after hunger and exhaustion, he refused to give up the big fish, and when his big fish was eaten by the shark and only a skeleton remained, he asked himself, "But what defeated you?" Nothing...... It's that I've gone too far." The old man admits his failures, but he absolutely believes in the power of his own self. I believe that he is still brave even if he fails, and I believe that he is not mentally defeated by the shark, because it is the shark that is destroyed, not himself.
+I thought about it alone for a long time, savoring the moral of this book, which is set in the aftermath of the two world wars and the Spanish War, when people have not yet woken up from the nightmare of world wars, and disillusionment, loss, and other confusion plague people. The post-war society was a chaotic and decaying scene, and the absurdities of war and society brought deep mental and physical trauma to Hemingway. I thought about it for a long time and realized that the marlin symbolizes the ideal of life, the shark symbolizes the tragic fate that cannot be escaped, the sea symbolizes the fickle human society, and the lion in my dream is a symbol of courage and strength, hatred of evil, and can create miracles, and the old man is the representative of the "tough guy" who has the courage to fight against powerful forces in human beings, and his unfortunate fishing experience symbolizes that human beings are always fighting against bad luck.
+"The sea is merciful and beautiful," she said, giving the old man a large marlin that was "two feet longer than a boat." But the sea is cruel - then the sharks came in droves to take away the big fish he had hunted down and shattered his "glory". The sea is his place of life and battle, and it will also be his final destination.
+It turns out that the old man, despite his old age, has always refused to give in, as he said: "A man is not born to be defeated, he can be destroyed, but he cannot be defeated."
+"The Old Man and the Seagull" is one such text. tells the story of an old man named Wu Qingheng in Kunming who has been taking care of and feeding the seagulls by the Green Lake like a relative for more than ten years. When the old man died, the seagull spontaneously kept a vigil for the old man and could not bear to leave his loved ones.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1090,27 +1063,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更好，能够更好地传达原文的细腻情感和复杂结构，例如“the image of the old man, gaunt and unyielding”比谷歌翻译的“the skinny and unyielding figure of the old man”更具表现力。此外，大模型翻译在语气和细节的保留上也更为到位，如“he believes that even in failure, he remains incredibly brave”更好地传达了老人的内心斗争。谷歌翻译在某些地方显得较为直白，缺乏文学性，例如“the ocean is kind and very beautiful”不如“大海是仁慈的,十分美丽的”更具诗意。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：80分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“我想他是失败的，但在某种意义上说他又是成功了的”这句中，谷歌翻译使用了“but in a sense he succeeded”，更好地传达了原文的含义。大模型翻译在某些地方显得较为生硬，例如“他浑身上下都很苍老”翻译为“he is very old from top to bottom”不够自然。整体来看，谷歌翻译在保留原意和语气方面更为出色。</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>The story comes to an end here. I gently close the book "The Old Man and the Sea," feeling a lingering sense of contemplation. The image of the old man, gaunt and unyielding, lingers in my mind. Deep wrinkles carve his neck and back, and brown spots cover his cheeks; apart from his eyes, he appears aged. Those eyes are optimistic and never know defeat, their color reminiscent of the sea.
-"The Old Man and the Sea" is a representative work of American author Ernest Hemingway. It tells the story of Santiago, an old Cuban fisherman who, after eighty-four consecutive days without catching a fish, finally hooks a giant marlin. He struggles for three exhausting days to reel it in, killing it and tying it alongside his small boat. However, on his return journey, he faces repeated attacks from sharks, and by the time he reaches the harbor, all that remains are the fish's head, tail, and a spine.
-I believe he is a failure, yet in a certain sense, he is also a success. For the first eighty-four days, the old man's fish basket is empty as he stands on the shore waiting for the arrival of the eighty-fifth day—the day of good fortune. He sets out full of hope, sailing into the vastness of the sea. Despite hunger and exhaustion, he refuses to give up on the great fish. When only a skeleton remains after the sharks have devoured it, he asks himself, "But what defeated you?" "Nothing... I just went too far." The old man acknowledges his failure but firmly believes in his own strength. He believes that even in failure, he remains incredibly brave, convinced that he has not been defeated by the sharks in spirit, for it is the sharks that have been vanquished, not himself.
-After pondering for a long time and savoring the meaning of this book, I realize that the backdrop of the work is set after the two World Wars and the Spanish Civil War, during which people have not yet awakened from the nightmare of global conflict. Disillusionment and loss plague humanity. The post-war society is chaotic and decayed, with the absurdities of war and society inflicting deep wounds on Hemingway's spirit and body, a near brush with death. I reflect for a long time and come to understand that the marlin symbolizes life's ideals, the sharks represent inescapable tragic fate, the sea embodies the unpredictable nature of human society, and the lions in his dreams symbolize strength, valor, and the ability to create miracles. The old man represents the "tough guy" in humanity, bravely battling against powerful forces, and his unfortunate fishing experience symbolizes humanity's constant struggle against misfortune.
-"The sea is kind and beautiful," it grants the old man a marlin "two feet longer than his small boat." Yet the sea is also cruel—the sharks that come in droves steal away the great fish he has worked so hard to catch, shattering his "glory." The relationship between the old man and the sea is one of dependence and struggle. The sea is both his place of livelihood and battleground, and it will ultimately become his final resting place.
-Though the old man is aged, he remains unyielding, just as he says: "A man is not made for defeat. A man can be destroyed but not defeated." 
-"The Old Man and the Seagull" is a similar narrative. It tells the story of an elderly man named Wu Qingheng in Kunming, who has cared for and fed the seagulls by Cui Lake for over a decade, treating them like family. After the old man's death, the seagulls spontaneously keep vigil for him, unable to leave their beloved companion.</t>
+          <t>The whole story ends here. I gently close the book "The Old Man and the Sea", but I still feel unsatisfied. I close the book and ponder. The skinny and unyielding figure of the old man appears in my mind. There are deep wrinkles on his neck and back, and brown spots cover his cheeks. Except for a pair of eyes, he looks very old. Those eyes are optimistic and never give up, and their color is the same as the sea. "The Old Man and the Sea" is the representative work of Hemingway in the United States. After catching no fish for 84 consecutive days, the old Cuban fisherman Santiago finally caught a big marlin by himself. He dragged it for three days until he was exhausted. He killed it and tied it to the side of the boat. On the way back, he was repeatedly attacked by sharks. When he finally returned to the port, only the head, tail and spine of the fish were left. I think he failed, but in a sense he succeeded. In the first 84 days, the old man's fish basket was empty. He stood on the coast waiting for the arrival of the 85th day-- On that lucky day, he set out with hope, heading for the far end of the sea. After being hungry and tired, he still refused to give up the big fish. When the big fish was eaten by sharks and only a skeleton was left, he asked himself: "But what defeated you?" "Nothing... I went too far." The old man admitted his failure, but he absolutely believed in his own strength. He believed that he was still very brave even if he failed, and that he did not lose to the shark in spirit, because it was the shark that was destroyed, not himself. I pondered for a long time alone, savoring the moral of this book. The background of the work is after the two world wars and the Spanish War. People have not yet woken up from the nightmare of the world war. Disillusionment, loss and other confusions plagued people. The post-war society was a scene of chaos and decline. The absurd phenomena of war and society brought deep trauma to Hemingway's mind and body. It can be said that he had a narrow escape from death. I thought about it for a long time and realized that the marlin symbolizes the ideal of life, the shark symbolizes the tragic fate that cannot be escaped, the sea symbolizes the ever-changing human society, and the lion in the dream is a symbol of bravery, hatred of evil, and the ability to create miracles. The old man is a representative of the "tough guy" among humans who dares to fight against powerful forces. His unfortunate experience of fishing symbolizes that humans always fight against bad luck. "The ocean is kind and very beautiful," she gave the old man a big marlin "two feet longer than the boat." But the ocean is cruel- - The sharks that came in groups took away the big fish he had worked so hard to catch, shattering his "glory". The relationship between the old man and the sea is that he depends on the sea and fights with the sea. The sea is his place of life and battle, and will also be his final destination. It turns out that although the old man is old, he has never given in. As he said: "A person is not born to be defeated. People can be destroyed, but they cannot be defeated." "The Old Man and the Seagull" is such a text. It tells the story of an old man named Wu Qingheng in Kunming who has been taking care of and feeding the seagulls by the Cui Lake like a family member for more than ten years. When the old man died, the seagulls spontaneously kept vigil for the old man, unwilling to leave their loved ones.</t>
         </is>
       </c>
     </row>
@@ -1130,13 +1097,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>If there is any significance to literary studies, it must fill the void on the mercury column, cooling down the artificial or self-deceptive heat that seems to be reality, reorganizing it and creating new proportions. 
-Looking back at fifty years of Chinese literature, it is undoubtedly difficult to focus on a specific genre without being able to move freely, yet still requiring a precise articulation of its position, nature, and quality. The culture of an era is a unified entity; touching any part of it inevitably involves the whole. As a spiritual phenomenon, literature cannot escape the entanglements of other phenomena from the spiritual world. More seriously, due to the materiality of the subject, it must endure various stimuli from the realities of society, as well as resistances, oppressions, and attacks from different forces. Rousseau famously stated: "Man is born free, and everywhere he is in chains." Thus, whether it is possible to write with pure ink indeed becomes a question.
-When discussing contemporary literature, we often have to return to the starting point. The National Congress of Literary and Art Workers held in Beijing in July 1949 is still fondly remembered for its pioneering significance. In fact, this is a dangerous omen. At the congress, Zhou Yang particularly emphasized the issue of "organization." The so-called organization is not merely a professional group of freelancers, but rather a body unified and managed by the authorities according to certain principles.
-Within the organization, there is no individual independence. The speech made during the "Yan'an Forum on Literature and Art" during wartime is now redefined as the "common fighting program" for the literary and artistic movement in peacetime. Globally, the issue of how socialist literature can promote ideology while maintaining its aesthetic value has always been a troublesome one. However, when we habitually canonize and absolutize the works of the highest leaders, artistic issues cease to be subjects of free discussion. Zhang Zhongxiao referred to the "speech" as a "totem," encapsulating the idol-worship trend that had already prevailed in the literary world at the beginning of the nation’s founding. Furthermore, the congress clearly divided literary and artistic workers into different factions: those in liberated areas versus those in Kuomintang-controlled areas, party members versus non-party members, revolutionary versus non-revolutionary, and even counter-revolutionary, establishing a hierarchy of superiority and inferiority, which can be described as blatant sectarianism. Figures like Shen Congwen faced public criticism and exclusion. Strictly speaking, the militarization of cultural issues has a long history and did not originate with this congress; however, the legitimization, normalization, and expansion of struggle through this congress is an observable fact.
-A year later, the rectification of literature and art, along with various criticism movements, could unfold continuously and become a matter of course. 
-The system is fundamental. After 1949, China's political system essentially adopted the Soviet socialist model, while the pursuit of "Chinese characteristics" came later. From agricultural collectivization, the "Three Red Flags," to the "Cultural Revolution," attempts to overturn the world with one's own will not only failed to change the highly centralized nature of traditional Asian society but even tended to reinforce it. 
-"The Qin system has been effective for a hundred generations," as evidenced by poetry. The entire cultural system was established...</t>
+          <t>If the study of literature is anything else, it must fill in the gaps in the mercury column, cool down the heat of what seems to be reality, artificially or on the basis of self-deception, and rearrange it to create new proportions.
+Looking back at Chinese literature in the past 50 years, it is undoubtedly difficult to fix our eyes on a certain genre and not move it at will, but to ask for an exact description of its location, nature and quality.
+The culture of an era is a unity, and as long as any part of it is touched, the whole will be involved. As a spiritual phenomenon, literature cannot get rid of the stalking of other phenomena from the spiritual world, and what is especially serious is that due to the materiality of the subject, it will have to bear the stimulation of various things in the real society, and the resistance, oppression and blows of different forces. Rousseau famously said: Life is free and always in bondage. In this way, it is indeed questionable whether it is possible to write in pure ink.
+When we talk about contemporary literature, we often have to step back to square one. The All-China Congress of Literary and Art Workers, held in Beijing in July 1949, is still talked about by people today for its pioneering significance. Actually, this is a dangerous sign. At the conference, Zhou Yang particularly emphasized the issue of "organization". The so-called organization is not a purely industrial group of freelancers, but is arranged and managed by the government in accordance with certain principles.
+Within an organization, there is no independence of the individual. Mao Zedong's "Speech at the Yan'an Forum on Literature and Art" during the war was redefined as the "common program of combat" of the literary and artistic movement in peacetime. However, when we are accustomed to canonizing and absolutizing the writings of the supreme leader, the question of art will no longer be the object of free discussion. Zhang Zhongxiao's call for "speech" as a "totem" is a summary of the idolatrous atmosphere that had prevailed in the literary and artistic circles at the beginning of the founding of the People's Republic of China. In addition, the congress clearly divided literary and artistic workers into liberated areas and nationally controlled areas, within and outside the party, revolutionary and non-revolutionary, and even counter-revolutionary. Like Shen Congwen's first-class class, he was openly criticized and ostracized. Strictly speaking, the militarization of cultural issues has a long history and did not originate at this conference; However, it is a fact that the struggle was legitimized, standardized, and expanded through this congress is obvious to all.
+A year later, the literary and artistic rectification, as well as various critical movements, could continue to be interpreted and became logical.
+Institutions are fundamental. After 1949, China's political system basically adopted the socialist model of the Soviet Union, and it was later that it sought "Chinese characteristics". From agricultural cooperativeization, the "Three Red Flags" to the "Cultural Revolution", Mao Zedong tried to turn the world upside down with his own will, not only did not change the highly centralized nature of the traditional Asian society, but even tended to strengthen it.
+"A hundred generations have practiced the Qin political system", which is evidenced by poetry.
+The whole cultural system was built</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1149,7 +1118,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在句子结构和专业术语的使用上更为恰当。例如，“fill the void on the mercury column”比“fill the gaps on the mercury column”更符合原意。此外，大模型翻译在语气和细节的保留上更为到位，如“Rousseau famously stated”比“Rousseau has a famous saying”更能传达原文的权威性和语境。谷歌翻译在某些地方显得较为直白，缺乏文学性。</t>
+原因：大模型翻译在准确性上表现更佳，尤其在“要使人为的,或者是基于自我蒙骗的,似乎是现实的燥热冷却下来”这一句中，使用了“cool down the heat of what seems to be reality, artificially or on the basis of self-deception”，更好地传达了原文的复杂含义。而谷歌翻译在“要使人为的”部分翻译为“cool down the artificial or self-deceptive, seemingly realistic heat”，略显生硬，未能充分体现原文的细腻语气。此外，大模型翻译在流畅性上也更自然，整体结构更符合英语表达习惯。</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1160,13 +1129,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>If there is any significance to literary studies, it must fill the void on the mercury column, cooling down the artificial or self-deceptive heat that seems to be reality, reorganizing it and creating new proportions. 
-Looking back at fifty years of Chinese literature, it is undoubtedly difficult to focus on a specific genre without being able to move freely, yet still requiring a precise articulation of its position, nature, and quality. The culture of an era is a unified entity; touching any part of it inevitably involves the whole. As a spiritual phenomenon, literature cannot escape the entanglements of other phenomena from the spiritual world. More seriously, due to the materiality of the subject, it must endure various stimuli from the realities of society, as well as resistances, oppressions, and attacks from different forces. Rousseau famously stated: "Man is born free, and everywhere he is in chains." Thus, whether it is possible to write with pure ink indeed becomes a question.
-When discussing contemporary literature, we often have to return to the starting point. The National Congress of Literary and Art Workers held in Beijing in July 1949 is still fondly remembered for its pioneering significance. In fact, this is a dangerous omen. At the congress, Zhou Yang particularly emphasized the issue of "organization." The so-called organization is not merely a professional group of freelancers, but rather a body unified and managed by the authorities according to certain principles.
-Within the organization, there is no individual independence. The speech made during the "Yan'an Forum on Literature and Art" during wartime is now redefined as the "common fighting program" for the literary and artistic movement in peacetime. Globally, the issue of how socialist literature can promote ideology while maintaining its aesthetic value has always been a troublesome one. However, when we habitually canonize and absolutize the works of the highest leaders, artistic issues cease to be subjects of free discussion. Zhang Zhongxiao referred to the "speech" as a "totem," encapsulating the idol-worship trend that had already prevailed in the literary world at the beginning of the nation’s founding. Furthermore, the congress clearly divided literary and artistic workers into different factions: those in liberated areas versus those in Kuomintang-controlled areas, party members versus non-party members, revolutionary versus non-revolutionary, and even counter-revolutionary, establishing a hierarchy of superiority and inferiority, which can be described as blatant sectarianism. Figures like Shen Congwen faced public criticism and exclusion. Strictly speaking, the militarization of cultural issues has a long history and did not originate with this congress; however, the legitimization, normalization, and expansion of struggle through this congress is an observable fact.
-A year later, the rectification of literature and art, along with various criticism movements, could unfold continuously and become a matter of course. 
-The system is fundamental. After 1949, China's political system essentially adopted the Soviet socialist model, while the pursuit of "Chinese characteristics" came later. From agricultural collectivization, the "Three Red Flags," to the "Cultural Revolution," attempts to overturn the world with one's own will not only failed to change the highly centralized nature of traditional Asian society but even tended to reinforce it. 
-"The Qin system has been effective for a hundred generations," as evidenced by poetry. The entire cultural system was established...</t>
+          <t>If the study of literature is anything else, it must fill in the gaps in the mercury column, cool down the heat of what seems to be reality, artificially or on the basis of self-deception, and rearrange it to create new proportions.
+Looking back at Chinese literature in the past 50 years, it is undoubtedly difficult to fix our eyes on a certain genre and not move it at will, but to ask for an exact description of its location, nature and quality.
+The culture of an era is a unity, and as long as any part of it is touched, the whole will be involved. As a spiritual phenomenon, literature cannot get rid of the stalking of other phenomena from the spiritual world, and what is especially serious is that due to the materiality of the subject, it will have to bear the stimulation of various things in the real society, and the resistance, oppression and blows of different forces. Rousseau famously said: Life is free and always in bondage. In this way, it is indeed questionable whether it is possible to write in pure ink.
+When we talk about contemporary literature, we often have to step back to square one. The All-China Congress of Literary and Art Workers, held in Beijing in July 1949, is still talked about by people today for its pioneering significance. Actually, this is a dangerous sign. At the conference, Zhou Yang particularly emphasized the issue of "organization". The so-called organization is not a purely industrial group of freelancers, but is arranged and managed by the government in accordance with certain principles.
+Within an organization, there is no independence of the individual. Mao Zedong's "Speech at the Yan'an Forum on Literature and Art" during the war was redefined as the "common program of combat" of the literary and artistic movement in peacetime. However, when we are accustomed to canonizing and absolutizing the writings of the supreme leader, the question of art will no longer be the object of free discussion. Zhang Zhongxiao's call for "speech" as a "totem" is a summary of the idolatrous atmosphere that had prevailed in the literary and artistic circles at the beginning of the founding of the People's Republic of China. In addition, the congress clearly divided literary and artistic workers into liberated areas and nationally controlled areas, within and outside the party, revolutionary and non-revolutionary, and even counter-revolutionary. Like Shen Congwen's first-class class, he was openly criticized and ostracized. Strictly speaking, the militarization of cultural issues has a long history and did not originate at this conference; However, it is a fact that the struggle was legitimized, standardized, and expanded through this congress is obvious to all.
+A year later, the literary and artistic rectification, as well as various critical movements, could continue to be interpreted and became logical.
+Institutions are fundamental. After 1949, China's political system basically adopted the socialist model of the Soviet Union, and it was later that it sought "Chinese characteristics". From agricultural cooperativeization, the "Three Red Flags" to the "Cultural Revolution", Mao Zedong tried to turn the world upside down with his own will, not only did not change the highly centralized nature of the traditional Asian society, but even tended to strengthen it.
+"A hundred generations have practiced the Qin political system", which is evidenced by poetry.
+The whole cultural system was built</t>
         </is>
       </c>
     </row>
@@ -1180,9 +1151,9 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Water Margin" is the first long chapter-style novel in Chinese literature. Its story took a long time to develop; the deeds of the notorious bandit Song Jiang and others were already recorded in the Song History. Over time, these tales became more widely circulated, and during the Yuan Dynasty, many works were created based on the characters from "Water Margin" in the form of zaju (variety plays). By the Ming Dynasty, scattered stories were compiled into a chapter-style novel, which became well-known and familiar in local communities, and the 108 heroes finally emerged as legendary figures in popular culture.
-In the late Ming Dynasty, the eccentric scholar Jin Shengtan boldly declared in the 17th century that "Water Margin" holds equal literary value to historical texts like "Records of the Grand Historian" and "National Policies." He argued that Shi Nai'an stands on par with literary giants such as Zhuang Zhou, Qu Yuan, Sima Qian, Du Fu, and Dong Jieyuan in the history of literature, stating: "No literature in the world surpasses 'Water Margin,' and no scholar in the realm of understanding surpasses Mr. Shi Nai'an!"
-Mr. Tsai Chih-chung's comic artistry cleverly transcends the limitations of the chapter-style novel's narrative structure. The seven representative main characters are humorously and satirically depicted within a dense layout, illustrating the struggles of humanity amidst the currents of society and revealing a grander perspective on life.</t>
+          <t>"Water Margin" is China's first full-length novel. Its story formed after a long period of gestation, the history of the Song Dynasty has recorded the deeds of the thief Song Jiang and others, and then spread more and more, the Yuan Dynasty to the Water Margin characters to write a lot of miscellaneous works, to the Ming Dynasty, some people will sporadic stories into chapters back to the novel, praise the township, one hundred and eight heroes finally become a household name, familiar heroes and legends.
+At the end of the Ming Dynasty, Jie Jin Shengsigh boldly declared as early as the 17th century that the Water Margin has the same literary value as the historical records and national policies, saying that Shi Nai'an and Zhuang Zhou, Qu Yuan, Sima Qian, Du Fu, and Dong Xie Yuan occupy an equal position in the history of literature, he said: "There is no article in the world that is out of the right of the Water Margin, and there is no gentleman in the world who is out of Mr. Shi Naiyong's right!"
+Mr. Cai Zhizhong's comic ingenuity easily breaks through the limitations of the story relay of chapter back novels. The seven main characters are also in the dense layout, humorously and mockingly outlining the graphics of human beings struggling in the pulse of society, showing a more magnificent life bearing.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1192,23 +1163,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：70分  
-原因：大模型翻译在准确性和流畅性上表现更好，使用了“notorious bandit”来准确传达“伟大盗贼”的含义，而谷歌翻译的“great thief”则显得不够准确。此外，大模型翻译在句子结构上更为自然，如“the 108 heroes finally emerged as legendary figures in popular culture”，而谷歌翻译的“108 heroes finally became a well-known and familiar heroic legend”则略显笨拙。大模型翻译在保留原意和细节方面也做得更好，尤其是在对文学价值的描述上。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：75分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“水浒传”与“史记”的比较中，使用了“better”一词，传达了更清晰的比较关系。而大模型翻译在某些句子结构上显得较为生硬，例如“the history of the Song Dynasty has recorded the deeds of the thief Song Jiang and others”不够自然。谷歌翻译</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F16" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"Water Margin" is the first long chapter-style novel in Chinese literature. Its story took a long time to develop; the deeds of the notorious bandit Song Jiang and others were already recorded in the Song History. Over time, these tales became more widely circulated, and during the Yuan Dynasty, many works were created based on the characters from "Water Margin" in the form of zaju (variety plays). By the Ming Dynasty, scattered stories were compiled into a chapter-style novel, which became well-known and familiar in local communities, and the 108 heroes finally emerged as legendary figures in popular culture.
-In the late Ming Dynasty, the eccentric scholar Jin Shengtan boldly declared in the 17th century that "Water Margin" holds equal literary value to historical texts like "Records of the Grand Historian" and "National Policies." He argued that Shi Nai'an stands on par with literary giants such as Zhuang Zhou, Qu Yuan, Sima Qian, Du Fu, and Dong Jieyuan in the history of literature, stating: "No literature in the world surpasses 'Water Margin,' and no scholar in the realm of understanding surpasses Mr. Shi Nai'an!"
-Mr. Tsai Chih-chung's comic artistry cleverly transcends the limitations of the chapter-style novel's narrative structure. The seven representative main characters are humorously and satirically depicted within a dense layout, illustrating the struggles of humanity amidst the currents of society and revealing a grander perspective on life.</t>
+          <t>"Water Margin" is the first long chapter novel in Chinese vernacular. Its story took a long time to form. The deeds of the great thief Song Jiang and others were recorded in the History of Song Dynasty. After that, it became more and more popular. In the Yuan Dynasty, many works were written as dramas based on the characters of Water Margin. In the Ming Dynasty, some people compiled scattered stories into chapter novels and spread them in the countryside. The 108 heroes finally became a well-known and familiar heroic legend. As early as the 17th century, Jin Shengtan, a eccentric in the late Ming Dynasty, boldly declared that Water Margin had the same literary value as Records of the Grand Historian and National Policy, saying that Shi Naian, Zhuang Zhou, Qu Yuan, Sima Qian, Du Fu, and Dong Jieyuan occupied the same position in the history of literature. He said: "There is no better article in the world than Water Margin, and no better gentleman in the world than Mr. Shi Naiyong!" Mr. Tsai Chih-chung's comics are ingenious, easily breaking through the limitations of the story relay of chapter novels. The seven representative main characters also humorously and mockingly outline the picture of human struggle in the pulse of society, showing a more magnificent attitude of life.</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1195,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Which dynasty in history was the most lenient towards criminals? In this article, we will provide a detailed introduction.
-In ancient China, there was a dynasty known for its relatively humane treatment of criminals, particularly with a set of "end-of-life care" specifically designed for death row inmates. This dynasty was the Song Dynasty. Both the Tang and Song Dynasties were considered to have more open-minded ideologies, but in certain aspects, the Song Dynasty was even more progressive than the Tang.
-Perhaps it was the rich literary atmosphere during the Song Dynasty that fostered a culture of gentility and compassion, leading to a particular sympathy and leniency towards criminals. It is said that there was an official during the Song Dynasty who, whenever sentencing a death row inmate, would say, "Your crime deserves death, but I will allow you to see your family one last time." This means that even though the sentence was death, the inmate was still given an opportunity to bid farewell to their loved ones. Furthermore, before the execution, a sumptuous meal would be arranged for the inmate, ensuring they were well-fed before their final journey, rather than becoming a "hungry ghost." After the execution, monks would be invited to perform rituals for the deceased, and some inmates even expressed gratitude towards the officials for such treatment. These actions were considered exceptionally humane in ancient times, as most dynasties would not offer such privileges to criminals.
-In feudal society, death row inmates typically had no rights whatsoever, and since they were already facing execution, they were unlikely to engage in any troublesome matters. During the Qin and Han Dynasties, many death row inmates were forced into labor, spending the rest of their lives working on construction sites until they ultimately died from exhaustion. Compared to the treatment of death row inmates in the Song Dynasty, their plight was indeed tragic. So why were the officials of the Song Dynasty more enlightened, lenient, and compassionate? Beyond their upbringing, this attitude was also influenced by the social climate and regulations of the time. The aforementioned "end-of-life care" is a general term; in fact, the Song Dynasty had specific regulations regarding the treatment of criminals.
-The most significant difference from other dynasties was the careful consideration given to the trials of death row inmates. If a wrongful conviction occurred, the life lost could never be restored, so the trial process had to be rigorous, avoiding any instances of coerced confessions. Although some later dynasties had similar regulations, their enforcement was not as strong as that of the Song Dynasty. The key factor was the unique respect and value that the people of the Song Dynasty placed on life, always maintaining a sense of reverence. However, this appreciation for life may have contributed to the general reluctance among the Song populace to engage in warfare, leading to criticisms of the dynasty's military capabilities despite its strengths in other areas.
-In conclusion, while the Song Dynasty reached a peak in literature, it also suffered greatly from invasions by the Liao and Mongol states. If we were to choose a dynasty to live in, we might still prefer the more free and tolerant Song Dynasty, as its humanistic values resonate more closely with modern ideals.</t>
+          <t>Which dynasty in history was the most lenient with prisoners?
+Which dynasty in history was the most lenient with prisoners? The editor of the face brings you a detailed article introduction.
+In ancient China, there was a dynasty that was more benevolent to prisoners, and also formulated a set of "hospice care" for death row prisoners, and this dynasty was the Song Dynasty. In fact, both the Tang Dynasty and the Song Dynasty were relatively open-minded dynasties, and the Song Dynasty was more enlightened than the Tang Dynasty in some aspects.
+I don't know if it was during the Song Dynasty, the whole society was too literary, and everyone was gentle and elegant, so they were particularly sympathetic and tolerant to the prisoners. It is said that in the Song Dynasty, there was an official who would say to him every time he sentenced a prisoner to death: "If you are guilty, you should die, and you should do your best to make your family meet you." This means that even though you are guilty of a capital offense, it still gives you a chance to see your family one last time. And before the execution of the condemned prisoner, arrange a hearty meal for him, so that he can eat enough and go on the road not to be a starving ghost. Moreover, after the death penalty is over, some monks will be specially invited to do it for them, and some prisoners are even grateful to the officials for doing this for them. In fact, these actions were already very benevolent in ancient times, and most dynasties would not treat prisoners like this.
+In a feudal society, the average condemned prisoner has no human rights at all, and since you are already going to die, you will not do those troublesome things. During the Qin and Han dynasties, many condemned prisoners worked directly as laborers, and stayed at the construction site for the rest of their lives until they were finally exhausted to death. Compared to the death row prisoners of the Song Dynasty, it is simply a tragic word. Then why were the officials of the Song Dynasty so enlightened, tolerant, and kind? In addition to the education I received since childhood, it is also related to the social atmosphere and regulations of the time. The "hospice care" mentioned above is only a relatively general statement, in fact, the Song Dynasty also gave a set of relevant regulations on how to deal with prisoners.
+The biggest difference between this and other dynasties is that the Song Dynasty was very cautious about the trial of condemned prisoners. Because if there is an unjust case and the wrong person is killed, then this life cannot be saved in any way, so it must be rigorous in the trial, and there can be no torture. In fact, some later dynasties also had similar regulations, but the execution was not as strong as the Song Dynasty, the key is that the Song Dynasty people had a unique emphasis and respect for life, and always had a heart of awe. However, it seems that it is precisely because of this idea of cherishing life that the people of the Song Dynasty do not like to fight very much, so although the Song Dynasty is very good in other aspects, only the military ability has been criticized by later generations.
+Therefore, although the Song Dynasty reached its peak in literature, the invasion of the Liao State and the Mongols also made the Great Song Dynasty miserable. However, if we ask which dynasty we want to return to live, we may still choose the more liberal and tolerant Song Dynasty, and this humanistic feeling will be closer to the values of our modern people.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1241,26 +1211,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在句子结构和用词上更符合英语的表达习惯，例如“end-of-life care”与“hospice care”相比，前者更贴切原文含义。同时，大模型翻译在保留原文细节方面做得更好，如“a sumptuous meal would be arranged for the inmate”清晰传达了为死刑犯准备丰盛食物的意图。谷歌翻译在某些地方的用词和句式较为直白，缺乏一定的文雅感，如“you would not do those troublesome things”显得不够正式。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：82分  
+谷歌翻译：88分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在句子结构和用词上更符合英语表达习惯。例如，谷歌翻译使用了“Your crime should be put to death”这一表达，较好地传达了原文的严肃性，而大模型翻译的“you should die”显得较为直白。此外，谷歌翻译在细节上更为严谨，如“some monks will be specially invited to pray for their souls”更准确地传达了原文中“超度”的含义。</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Which dynasty in history was the most lenient towards criminals? In this article, we will provide a detailed introduction.
-In ancient China, there was a dynasty known for its relatively humane treatment of criminals, particularly with a set of "end-of-life care" specifically designed for death row inmates. This dynasty was the Song Dynasty. Both the Tang and Song Dynasties were considered to have more open-minded ideologies, but in certain aspects, the Song Dynasty was even more progressive than the Tang.
-Perhaps it was the rich literary atmosphere during the Song Dynasty that fostered a culture of gentility and compassion, leading to a particular sympathy and leniency towards criminals. It is said that there was an official during the Song Dynasty who, whenever sentencing a death row inmate, would say, "Your crime deserves death, but I will allow you to see your family one last time." This means that even though the sentence was death, the inmate was still given an opportunity to bid farewell to their loved ones. Furthermore, before the execution, a sumptuous meal would be arranged for the inmate, ensuring they were well-fed before their final journey, rather than becoming a "hungry ghost." After the execution, monks would be invited to perform rituals for the deceased, and some inmates even expressed gratitude towards the officials for such treatment. These actions were considered exceptionally humane in ancient times, as most dynasties would not offer such privileges to criminals.
-In feudal society, death row inmates typically had no rights whatsoever, and since they were already facing execution, they were unlikely to engage in any troublesome matters. During the Qin and Han Dynasties, many death row inmates were forced into labor, spending the rest of their lives working on construction sites until they ultimately died from exhaustion. Compared to the treatment of death row inmates in the Song Dynasty, their plight was indeed tragic. So why were the officials of the Song Dynasty more enlightened, lenient, and compassionate? Beyond their upbringing, this attitude was also influenced by the social climate and regulations of the time. The aforementioned "end-of-life care" is a general term; in fact, the Song Dynasty had specific regulations regarding the treatment of criminals.
-The most significant difference from other dynasties was the careful consideration given to the trials of death row inmates. If a wrongful conviction occurred, the life lost could never be restored, so the trial process had to be rigorous, avoiding any instances of coerced confessions. Although some later dynasties had similar regulations, their enforcement was not as strong as that of the Song Dynasty. The key factor was the unique respect and value that the people of the Song Dynasty placed on life, always maintaining a sense of reverence. However, this appreciation for life may have contributed to the general reluctance among the Song populace to engage in warfare, leading to criticisms of the dynasty's military capabilities despite its strengths in other areas.
-In conclusion, while the Song Dynasty reached a peak in literature, it also suffered greatly from invasions by the Liao and Mongol states. If we were to choose a dynasty to live in, we might still prefer the more free and tolerant Song Dynasty, as its humanistic values resonate more closely with modern ideals.</t>
+          <t>[Follow-up] Which dynasty in history was the most tolerant towards prisoners? Which dynasty in history was the most tolerant towards prisoners? Here is a detailed article introduction. In ancient China, there was a dynasty that was relatively benevolent towards prisoners and even developed a set of "hospice care" for death row prisoners. This dynasty was the Song Dynasty. In fact, both the Tang Dynasty and the Song Dynasty were relatively open-minded dynasties, and the Song Dynasty was more open-minded than the Tang Dynasty in some aspects. I don't know if it was because the whole society was too literary during the Song Dynasty, and everyone was gentle and polite, so they were particularly sympathetic and tolerant to the prisoners. It is said that there was an official in the Song Dynasty who would say to the prisoner every time he sentenced him to death: "Your crime should be put to death, and all your family members will be summoned to meet you." This means that although you are guilty of a capital crime, you will still be given a chance to see your family for the last time. And before the execution of the prisoner, a sumptuous meal will be arranged for him, so that he can eat well and go on the road instead of being a starving ghost. And after the death penalty is over, some monks will be specially invited to pray for their souls, and some prisoners are even grateful to the officials for doing this for them. In fact, these actions were considered very benevolent in ancient times, and most dynasties would not treat prisoners like this. In feudal society, death row prisoners generally had no human rights, and since you were going to die, you would not do those troublesome things. In the Qin and Han dynasties, many death row prisoners worked directly as laborers, staying on construction sites for the rest of their lives until they were exhausted to death. Compared with the death row prisoners in the Song Dynasty, it was simply miserable. Why were officials in the Song Dynasty more open-minded, tolerant, and kind? In addition to the education they received since childhood, it was also related to the social atmosphere and regulations at that time. The "hospice care" mentioned above is just a more general statement. In fact, the Song Dynasty also gave a set of relevant regulations on how to deal with prisoners. The biggest difference between this and other dynasties is that the Song Dynasty was very cautious in judging death row prisoners. Because if an unjust case occurred and the wrong person was killed, the life could not be saved anyway, so the trial must be rigorous and no confession could be made under torture. In fact, some dynasties later also had similar regulations, but the execution was not as strong as that of the Song Dynasty. The key was that the people of the Song Dynasty had a unique emphasis and respect for life and always had a reverent heart. However, it seems that it was precisely because of this idea of cherishing life that the people of the Song Dynasty did not like to fight. Therefore, although the Song Dynasty was good in other aspects, its military ability has been criticized by later generations. So although the Song Dynasty reached its peak in literature, the invasion of the Liao Kingdom and Mongolia also made the Song Dynasty miserable. But if we were asked which dynasty we would like to return to, we would probably choose the more free and tolerant Song Dynasty. This humanistic sentiment would be closer to the values of modern people.</t>
         </is>
       </c>
     </row>
@@ -1280,15 +1245,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**News Sharing: Sichuan Calligraphy and Painting Masters Join Forces to Hold an Exhibition, 500-Year-Old "Ya Paper" Makes a Comeback**
-In the rich and fertile land, the elegance of art flourishes. On January 7, the "Qingjiang Elegance - Calligraphy and Painting Masters' Ya Paper Creation Art Exhibition" officially opened at the Liujiang Calligraphy and Painting Institute. The exhibition showcased works from 12 renowned calligraphy and painting masters across two generations, including Wei Chuanyi, Liu Po, Hong Houtian, Hua Keyuan, Lin Maosen, Gong Zhilong, Xu Peng, Sun Chengzikan, Li Guozhou, Tang Dianguo, and He Zhiyong.
-Additionally, the concurrent "Ya Paper Heritage Collection" featured works from esteemed artists such as Zhou Beixi, Cen Xuegong, Lü Lin, Li Lingyun, Yang Shaoquan, Liu Han, Lu Chen, Liu Boshun, Wang Xiqi, Yang Lizhou, Qiu Jimu, Xiong Boqi, Jiang Yixun, Xu Shan, Zhou Dehua, Pang Shiquan, Wang Yixin, Wu Xun, Ye Ruikun, Liu Deyang, Cai Yinkun, Zhang Xiaofei, and Wang Yunmeng, all presented on the intangible cultural heritage of Ya Paper, showcasing a unique ink and wash charm.
-On the opening day, Liu Po, President of the Sichuan Chinese Painting Association, Dong Weiwei, Vice President of the Sichuan Chinese Painting Association, Zhang Dachuan, a renowned editor from Sichuan Fine Arts Publishing House, a representative from the Chengdu Federation of Literary and Art Circles, famous host Guo Yue, Gong Yun, Secretary-General of the Sichuan Chinese Painting Association, and representatives from the exhibiting artists known as the "Eight Talents of Puyuan" attended the ceremony. Jiang Dingbo, Deputy County Mayor of Hongya County, hosted the opening ceremony.
-According to Yang Yunliang, Secretary of the Hongya County Committee, the papermaking technique developed by Cai Lun, the Marquis of Longting during the Eastern Han Dynasty, opened a new chapter in human civilization. Over 500 years ago, amidst the naturally beautiful landscapes of Ya, the people of Hongya used their diligence and wisdom to create "Ya Paper."
-In the 1980s, "Longxu Ya Paper," primarily made from dragon beard grass, amazed the Chinese calligraphy and painting community, being renowned alongside Anhui Xuan Paper as "Eastern Xuan and Western Ya." Over 50 famous calligraphers and painters, including Liu Haisu and Li Keran, tested the paper. Mr. Qi Gong named it "Ya Paper," and Huang Zhou praised it with "Five Donkeys" saying, "How delightful is Ya Paper!" However, due to historical reasons, "Ya Paper" nearly vanished.
-To revive "Ya Paper" and recreate a cultural brand, the county committee and government have placed great emphasis on the revival of "Ya Paper" production. Last year, the craftsmanship of Hongya Ya Paper was successfully included in the Sichuan Provincial Intangible Cultural Heritage Protection List. The participating artists eagerly painted on the traditionally made Ya Paper, and through their loose and elegant brushwork, the audience could strongly feel the aesthetic spirit of Daoism—simplicity, innocence, and gentleness—embedded in the works.
-Liu Po, President of the Sichuan Chinese Painting Association, excitedly recalled a story that had been buried in time for over thirty years during the exhibition. In 1984, during a preparatory meeting for the Sichuan Poetry, Calligraphy, and Painting Institute, Comrade Yang Chao, the first president of the institute, listened to eight vice presidents, including Li Shaoyan, Feng Jianwu, and Zhu Peijun, discussing the art of Zhang Daqian. They mentioned that Mr. Zhang had a fondness for a type of paper known as "Daqian Paper," produced in small workshops around Hongya and Jiajing, made primarily from grass materials, which was different from Anhui Xuan Paper. This led to the decision for the institute to participate in the restoration of "Daqian Paper," making it a priority in their official work plan after the institute's establishment.
-In early 1985, Wei Chuanyi, the executive vice president of the institute at the time, and Liu Po, one of the initial artists involved in the institute's establishment, took on this important task and traveled to Hongya and Jiajing for research, ultimately choosing to collaborate with the Hongya Paper Factory.</t>
+          <t>News sharing: Sichuan calligraphy and painting master Liujiang Ancient Town jointly held an exhibition 500 years of elegant paper "re-emergence"
+On January 7th, "Qingjiang Yayun - - Famous Calligraphers and Painters Elegant Paper Creation Art Exhibition" was officially launched in Liujiang Painting and Calligraphy Institute. The exhibition exhibits the works of 12 generations of famous calligraphers and painters, including Wei Chuanyi, Liu Pu, Hong Houtian, Hua Keyuan, Lin Maosen, Gong Zhilong, Xu Peng, Sun Chengzikang, Li Guozhou, Tang Diangui, He Zhiyong, etc.
+In addition, at the same time, Zhou Beixi, Cen Xuegong, Lu Lin, Li Lingyun, Yang Shaoquan, Liu Han, Lu Shen, Liu Boshu, Wang Xiqi, Yang Lizhou, Qiu Jimu, Xiong Boqi, Jiang Yixun, Xu Shan, Zhou Dehua, Pang Shiquan, Wang Yixin, Wu Xun, Ye Ruikun, Liu Deyang, Cai Yinkun, Zhang Xiaofei, Wang Yunmeng and other famous works are all presented on the intangible cultural heritage of elegant paper, and different ink and wash charm is paved.
+On the day of the launch, Liu Pu, President of Sichuan Chinese Painting Society, Dong Weiwei, Vice President of Sichuan Chinese Painting Society, Zhang Dachuan, famous editor of Sichuan Fine Arts Publishing House, Guo Yue, Vice Chairman of Chengdu Federation of Literary and Art Circles, famous host, Gong Yun, Secretary-General of Sichuan Chinese Painting Society, and representatives of participating artists "Pu Yuan Bajun" attended the opening ceremony. Jiang Dingbo, deputy head of Hongya County Government, presided over the opening ceremony.
+According to Yang Yunliang, secretary of the Hongya County Party Committee, the papermaking technology of Hou Cailun of Longting in the Eastern Han Dynasty opened a new chapter in human civilization.
+In the 80s of the last century, the main raw material for the dragon beard grass "dragon beard Ya paper" amazed the Chinese painting and calligraphy circles, and Anhui Xuan paper and called "East Xuan Xiya", Liu Haisu, Li Keran and other more than 50 famous calligraphers and painters waved the test paper. Mr. Qi Gong inscribed the title of "Ya Paper", and Huang Zhou's "Five Donkey Pictures" inscribed "Lovely Ya Paper also!". However, due to historical reasons, "Ya paper" is almost extinct.
+In order to make "Ya Paper" reappear in the rivers and lakes and rebuild the cultural brand, the county party committee and the county government have attached great importance to the resumption of production of "Ya Paper". Last year, Hong Yaya's paper-making skills were successfully declared on the list of provincial intangible cultural heritage protection in Sichuan Province. In their loose and elegant brushwork, the audience feels that the works contain the bland, innocent and soft aesthetic spirit of Taoism.
+Liu Pu, president of the Sichuan Chinese Painting Society, recalled with great excitement at the exhibition site a past that had been sealed by the dust of the years for more than 30 years. It was 1984, Comrade Yang Chao, the first president of the Sichuan Provincial Academy of Poetry, Calligraphy and Painting, listened to Li Shaoyan, Feng Jianwu, Zhu Peijun and other 8 vice presidents of the Academy of Painting at a preparatory meeting of the Academy when talking about Mr. Zhang Daqian's art, mentioning that Mr. Daqian used to be very fond of using a small workshop in Hongya, Jiajiang area with forage and other raw materials to produce "Daqian paper", which is different from Anhui Xuan paper. After that, it was decided that the Academy would participate in the resumption of the creation of "Daqian Paper", and arrange it as the primary work plan after the formal establishment of the Academy.
+At the beginning of 1985, Mr. Wei Chuanyi, then the executive vice president of the Academy, and Mr. Liu Pu, a painter who had participated in the preparation for the establishment of the Academy, undertook this important task and went to Hongya and Jiajiang to investigate, and finally chose to cooperate with Hongya Paper Mill</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1298,29 +1263,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，特别是在专业术语的使用上，如“Ya Paper”与“Daqian Paper”的翻译更为准确且符合文化背景。谷歌翻译在一些细节上略显生硬，比如“elegant paper”翻译为“雅纸”时未能体现出其文化内涵，且句子结构较为简单，缺乏流畅性。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：75分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“雅纸”翻译为“elegant paper”时，保持了原意并且使用了更自然的表达。此外，谷歌翻译在细节处理上更为细致，例如“东汉龙亭侯蔡伦的造纸术”翻译为“the papermaking technique of Cai Lun, the Marquis of Longting in the Eastern Han Dynasty”，更准确地传达了历史背景。而大模型翻译在某些地方略显生硬，如“the audience strongly felt the Taoist aesthetic spirit of plainness, innocence and softness contained in the works”相对较为复杂，缺乏流畅性。</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>**News Sharing: Sichuan Calligraphy and Painting Masters Join Forces to Hold an Exhibition, 500-Year-Old "Ya Paper" Makes a Comeback**
-In the rich and fertile land, the elegance of art flourishes. On January 7, the "Qingjiang Elegance - Calligraphy and Painting Masters' Ya Paper Creation Art Exhibition" officially opened at the Liujiang Calligraphy and Painting Institute. The exhibition showcased works from 12 renowned calligraphy and painting masters across two generations, including Wei Chuanyi, Liu Po, Hong Houtian, Hua Keyuan, Lin Maosen, Gong Zhilong, Xu Peng, Sun Chengzikan, Li Guozhou, Tang Dianguo, and He Zhiyong.
-Additionally, the concurrent "Ya Paper Heritage Collection" featured works from esteemed artists such as Zhou Beixi, Cen Xuegong, Lü Lin, Li Lingyun, Yang Shaoquan, Liu Han, Lu Chen, Liu Boshun, Wang Xiqi, Yang Lizhou, Qiu Jimu, Xiong Boqi, Jiang Yixun, Xu Shan, Zhou Dehua, Pang Shiquan, Wang Yixin, Wu Xun, Ye Ruikun, Liu Deyang, Cai Yinkun, Zhang Xiaofei, and Wang Yunmeng, all presented on the intangible cultural heritage of Ya Paper, showcasing a unique ink and wash charm.
-On the opening day, Liu Po, President of the Sichuan Chinese Painting Association, Dong Weiwei, Vice President of the Sichuan Chinese Painting Association, Zhang Dachuan, a renowned editor from Sichuan Fine Arts Publishing House, a representative from the Chengdu Federation of Literary and Art Circles, famous host Guo Yue, Gong Yun, Secretary-General of the Sichuan Chinese Painting Association, and representatives from the exhibiting artists known as the "Eight Talents of Puyuan" attended the ceremony. Jiang Dingbo, Deputy County Mayor of Hongya County, hosted the opening ceremony.
-According to Yang Yunliang, Secretary of the Hongya County Committee, the papermaking technique developed by Cai Lun, the Marquis of Longting during the Eastern Han Dynasty, opened a new chapter in human civilization. Over 500 years ago, amidst the naturally beautiful landscapes of Ya, the people of Hongya used their diligence and wisdom to create "Ya Paper."
-In the 1980s, "Longxu Ya Paper," primarily made from dragon beard grass, amazed the Chinese calligraphy and painting community, being renowned alongside Anhui Xuan Paper as "Eastern Xuan and Western Ya." Over 50 famous calligraphers and painters, including Liu Haisu and Li Keran, tested the paper. Mr. Qi Gong named it "Ya Paper," and Huang Zhou praised it with "Five Donkeys" saying, "How delightful is Ya Paper!" However, due to historical reasons, "Ya Paper" nearly vanished.
-To revive "Ya Paper" and recreate a cultural brand, the county committee and government have placed great emphasis on the revival of "Ya Paper" production. Last year, the craftsmanship of Hongya Ya Paper was successfully included in the Sichuan Provincial Intangible Cultural Heritage Protection List. The participating artists eagerly painted on the traditionally made Ya Paper, and through their loose and elegant brushwork, the audience could strongly feel the aesthetic spirit of Daoism—simplicity, innocence, and gentleness—embedded in the works.
-Liu Po, President of the Sichuan Chinese Painting Association, excitedly recalled a story that had been buried in time for over thirty years during the exhibition. In 1984, during a preparatory meeting for the Sichuan Poetry, Calligraphy, and Painting Institute, Comrade Yang Chao, the first president of the institute, listened to eight vice presidents, including Li Shaoyan, Feng Jianwu, and Zhu Peijun, discussing the art of Zhang Daqian. They mentioned that Mr. Zhang had a fondness for a type of paper known as "Daqian Paper," produced in small workshops around Hongya and Jiajing, made primarily from grass materials, which was different from Anhui Xuan Paper. This led to the decision for the institute to participate in the restoration of "Daqian Paper," making it a priority in their official work plan after the institute's establishment.
-In early 1985, Wei Chuanyi, the executive vice president of the institute at the time, and Liu Po, one of the initial artists involved in the institute's establishment, took on this important task and traveled to Hongya and Jiajing for research, ultimately choosing to collaborate with the Hongya Paper Factory.</t>
+          <t>News sharing: Sichuan calligraphy and painting masters join hands to hold an exhibition. 500-year-old elegant paper "re-emerges". The vast land and elegant charm flow. On January 7, "Qingjiang Elegance - Calligraphy and Painting Masters' Elegant Paper Creation Art Exhibition" was officially launched at Liujiang Calligraphy and Painting Academy. The exhibition exhibited the works of 12 calligraphy and painting masters from two generations, including Wei Chuanyi, Liu Pu, Hong Houtian, Hua Keyuan, Lin Maosen, Gong Zhilong, Xu Peng, Sun Chengzikang, Li Guozhou, Tang Diangui, and He Zhiyong. In addition, at the "Yazhi Gu Collection" held at the same time, the works of Zhou Beixi, Cen Xuegong, Lv Lin, Li Lingyun, Yang Shaoquan, Liu Han, Lu Chen, Liu Boshu, Wang Xiqi, Yang Lizhou, Qiu Jimu, Xiong Boqi, Jiang Yixun, Xu Shan, Zhou Dehua, Pang Shiquan, Wang Yixin, Wu Xun, Ye Ruikun, Liu Deyang, Cai Yinkun, Zhang Xiaofei, Wang Yunmeng and other famous artists were all presented on the intangible cultural heritage Yazhi paper, and the different ink and wash charm came out. On the opening day, Liu Pu, President of Sichuan Chinese Painting Society, Dong Weiwei, Vice President of Sichuan Chinese Painting Society, Zhang Dachuan, famous editor of Sichuan Fine Arts Publishing House, Guo Yue, Vice Chairman of Chengdu Federation of Literary and Art Circles and famous host, Gong Yun, Secretary General of Sichuan Chinese Painting Society and representatives of participating artists "Puyuan Bajun" attended the opening ceremony. Jiang Dingbo, Deputy County Magistrate of Hongya County Government, presided over the opening ceremony. According to Yang Yunliang, secretary of the Hongya County Party Committee, the papermaking technique of Cai Lun, the Marquis of Longting in the Eastern Han Dynasty, opened a new chapter in human civilization. More than 500 years ago, in the natural landscape, the people of Hongya used their diligence and wisdom to create "elegant paper". In the 1980s, the "Dragon Beard Elegant Paper", whose main raw material was dragon beard grass, amazed the Chinese calligraphy and painting circles, and was called "Eastern Xuan and Western Elegant" together with Anhui Xuan paper. More than 50 famous calligraphers and painters such as Liu Haisu and Li Keran tried to make paper. Mr. Qi Gong named it "elegant paper", and Huang Zhou praised it in his "Five Donkeys" as "Delightful and elegant paper!". However, due to historical reasons, "elegant paper" is almost extinct. In order to bring "Yazhi" back to the market and recreate a cultural brand, the county party committee and the county government attached great importance to the resumption of "Yazhi". Last year, the Hongya Yazhi production technique was successfully applied for the Sichuan Provincial Intangible Cultural Heritage Protection List. The participating artists happily painted on the Yazhi made by the ancient method. In their loose and elegant brushwork, the audience strongly felt the Taoist aesthetic spirit of plainness, innocence and softness contained in the works. Liu Pu, president of Sichuan Chinese Painting Society, excitedly recalled an event that had been forgotten for more than 30 years at the exhibition. It was in 1984, when Yang Chao, the first president of Sichuan Academy of Poetry, Calligraphy and Painting, heard Li Shaoyan, Feng Jianwu, Zhu Peijun and other 8 vice presidents of the academy talking about Mr. Zhang Daqian's art at a preparatory meeting of the academy. They mentioned that Mr. Daqian once liked to use a kind of "Daqian paper" produced by small workshops in Hongya and Jiajiang with straw as the main raw materials, which was different from Anhui Xuan paper. After that, it was decided that the academy would participate in the restoration and creation of "Daqian paper" and arrange it as the primary work plan after the formal establishment of the academy. In early 1985, Mr. Wei Chuanyi, then executive vice president of the academy, and Mr. Liu Pu, a painter who initially participated in the preparatory work of the academy, took on this important task and went to Hongya and Jiajiang to investigate, and finally chose to cooperate with Hongya Paper Factory.</t>
         </is>
       </c>
     </row>
@@ -1346,25 +1303,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Here is the English translation of the provided text, with careful attention to professional terminology and industry-standard expressions:
----
-A selection of 32 classic literary masterpieces from the Western Renaissance to the 20th century, this collection gathers authoritative translations published over the years, rediscovering the aesthetic value of literary classics and the dignity of the individual, while recognizing the rich tension of human intellect and the complex depth of human nature.
-Included are five of Shakespeare's most popular comedies: "A Midsummer Night's Dream," "The Merchant of Venice," "Much Ado About Nothing," "The Merry Wives of Windsor," and "The Tempest." Shakespeare's achievements in comedy are as remarkable as those in tragedy. He employs the optimistic spirit of Renaissance humanism as the tone for his comedic creations, clearly expressing humanistic ideas such as the demand for individual liberation, a love for real life, and the celebration of genuine love.
-The first modern novel in Western literary history caricatures chivalry and knightly spirit, leading to the collapse of the traditional Spanish chivalric novel.
-Inheriting the epic traditions of ancient Greece and Rome, it reveals the original sin and fall of humanity with grand momentum.
-Written in the first-person epistolary form, Goethe's most widely known representative work.
-A poetic tragedy based on 16th-century folklore, it is a monumental work that Goethe poured his lifelong efforts into.
-The renowned work of British novelist Jane Austen, which breaks away from the sentimental and affected writing style of the time, vividly reflects the life and social conditions of English towns from the late 18th to early 19th centuries.
-The author Stendhal is known for his precise psychological analysis of characters and concise writing style. This book is not only a realist novel but also pioneers the genre of "psychological novel."
-As a representative work of Romanticism, it marks another victory for Romanticism in breaking the rigid patterns of Classicism.
-Herman Melville is one of the most outstanding Romantic novelists in American literary history, and "Moby-Dick" is his representative work. The author imbues the white whale, Moby Dick, with symbols of innocence and terror, representing the mixture of good and evil, which reflects the fundamental condition of human existence. This novel, with its rich thematic content, epic scale, and mature, contemplative prose, has become a timeless masterpiece.
-Gustave Flaubert's debut and representative work, it not only marks a turning point in 19th-century French novel history but also influenced the evolution and development of the novel as a literary form worldwide for over a century thereafter.
-A lengthy historical novel by British literary giant Charles Dickens, set against the backdrop of the French Revolution, it carries a clear social relevance and humanitarian tone.
-An outstanding social psychological novel, it incisively analyzes the inner world of a criminal, marking the maturity of Fyodor Dostoevsky's artistic style.
-Developing the theme of "the insulted and the injured," Dostoevsky's proposed ideals face bankruptcy; however, the fervent yearning for beautiful ideals forever shines with the brilliance of humanitarianism.
-"The Brothers Karamazov" is Dostoevsky's final work, a summation of the author's philosophical reflections. With immense artistic power, he depicts the shameless and despicable decline of the Karamazov family. He expresses profound sympathy for the displaced and those living in dire conditions, showcasing the intricate themes of society, family, morality, and the tragedy of human nature, reflecting the writer's deep engagement with these issues.
---- 
-This translation maintains the professional tone and accurately reflects the literary and philosophical nuances of the original text.</t>
+          <t>A selection of 32 classic literary masterpieces from the Western Renaissance to the 20th century, a collection of authoritative translations published over the years, re-exploring the aesthetic value and individual dignity of literary classics, and recognizing the rich tension of human intellect and the complexity and depth of human nature.
+Featuring five of Shakespeare's most popular comedies, A Midsummer Night's Dream, The Merchant of Venice, Catching the Wind, The Merry Wives of Windsor, and The Tempest, Shakespeare's comedy is as remarkable as its tragedy. He took the optimism of the Renaissance humanists as the keynote of his comedy creation, and clearly expressed in his works humanist ideas such as demanding the emancipation of individuality, loving real life, and praising sincere love.
+The first modern novel in the history of Western literature, caricaturing the system of chivalry and chivalry, led to the collapse of traditional Spanish chivalric novels.
+Inheriting the tradition of ancient Greek and Roman epics, it reveals the original sin and depravity of man with majestic momentum.
+Written in the first person, Goethe's most well-known masterpiece is an epistolary novel.
+The poetic tragedy, based on sixteenth-century folklore, is the work of Goethe's life.
+The famous work of the British novelist Jane Austen, contrary to the pretentious writing method of sentimental novels at that time, vividly reflects the life and human conditions of the English towns and villages from the late 18th century to the early 19th century.
+Stendhal, the author, is known for his accurate psychological analysis of characters and concise penmanship, and this book is not only a realistic novel, but also a precedent for "psychological fiction".
+As a masterpiece of Romanticism, it won another victory of Romanticism to break the rigid mode of classicism.
+Herman Melville is one of the most outstanding romantic novelists in the history of American literature, and "Moby Dick" is his masterpiece. The white color given by the author to Moby Dick symbolizes innocence and horror, and the white whale symbolizes the mixture of good and evil, which is also the basic condition of the human world. This novel has become a masterpiece with its rich ideological content, the scale and maturity of the epic ship, and the contemplative nature of the writing.
+Flaubert, the master of realist literature in the 19th century, not only marked a turning point in the history of French fiction in the 19th century, but also influenced the evolution and development of the literary genre of the novel in the following century or so.
+A long historical novel written by the British writer Charles Dickens against the backdrop of the French Revolution, with a clear realistic relevance and humanitarian overtones.
+A remarkable psychosocial novel, heartily dissecting the inner world of a criminal, marks the maturity of Dostoevsky's artistic style.
+Having developed the theme of "insulted and damaged", Dostoevsky's positive ideals were bankrupt, but the ardent yearning for good ideals always shone with the brilliance of humanism.
+"The Brothers Karamazov" is Dostoevsky's last work, a summary of the author's philosophical reflections. The author depicts the depraved collapse of the shameless, despicable Karamazov family with great artistic power. Expressing deep sympathy for people who are displaced and living in dire straits, it shows the tragic themes of intricate society, family, morality and humanity, embodying the writer one</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1375,38 +1328,34 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
+大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，使用了更专业的术语和表达方式，例如“rediscovering the aesthetic value”与“realizing the rich tension”更符合学术语境。谷歌翻译在某些地方使用了较为直白的表达，如“Catching Shadows”显然是对“Much Ado About Nothing”的错误翻译，影响了准确性和专业性。</t>
+原因：大模型翻译在准确性上表现更佳，例如“Catching the Wind”翻译为“Catching the Wind”而非“Catching Shadows”，保持了原文的准确性。同时，大模型翻译在流畅性上更为自然，句子结构更符合英语表达习惯。谷歌翻译虽然整体通顺，但在某些细节上如“以磅礴气势揭示了人的原罪与堕落”翻译为“reveals the original sin and depravity of man with magnificent momentum”略显生硬。</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F19" t="n">
         <v>75</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Here is the English translation of the provided text, with careful attention to professional terminology and industry-standard expressions:
----
-A selection of 32 classic literary masterpieces from the Western Renaissance to the 20th century, this collection gathers authoritative translations published over the years, rediscovering the aesthetic value of literary classics and the dignity of the individual, while recognizing the rich tension of human intellect and the complex depth of human nature.
-Included are five of Shakespeare's most popular comedies: "A Midsummer Night's Dream," "The Merchant of Venice," "Much Ado About Nothing," "The Merry Wives of Windsor," and "The Tempest." Shakespeare's achievements in comedy are as remarkable as those in tragedy. He employs the optimistic spirit of Renaissance humanism as the tone for his comedic creations, clearly expressing humanistic ideas such as the demand for individual liberation, a love for real life, and the celebration of genuine love.
-The first modern novel in Western literary history caricatures chivalry and knightly spirit, leading to the collapse of the traditional Spanish chivalric novel.
-Inheriting the epic traditions of ancient Greece and Rome, it reveals the original sin and fall of humanity with grand momentum.
-Written in the first-person epistolary form, Goethe's most widely known representative work.
-A poetic tragedy based on 16th-century folklore, it is a monumental work that Goethe poured his lifelong efforts into.
-The renowned work of British novelist Jane Austen, which breaks away from the sentimental and affected writing style of the time, vividly reflects the life and social conditions of English towns from the late 18th to early 19th centuries.
-The author Stendhal is known for his precise psychological analysis of characters and concise writing style. This book is not only a realist novel but also pioneers the genre of "psychological novel."
-As a representative work of Romanticism, it marks another victory for Romanticism in breaking the rigid patterns of Classicism.
-Herman Melville is one of the most outstanding Romantic novelists in American literary history, and "Moby-Dick" is his representative work. The author imbues the white whale, Moby Dick, with symbols of innocence and terror, representing the mixture of good and evil, which reflects the fundamental condition of human existence. This novel, with its rich thematic content, epic scale, and mature, contemplative prose, has become a timeless masterpiece.
-Gustave Flaubert's debut and representative work, it not only marks a turning point in 19th-century French novel history but also influenced the evolution and development of the novel as a literary form worldwide for over a century thereafter.
-A lengthy historical novel by British literary giant Charles Dickens, set against the backdrop of the French Revolution, it carries a clear social relevance and humanitarian tone.
-An outstanding social psychological novel, it incisively analyzes the inner world of a criminal, marking the maturity of Fyodor Dostoevsky's artistic style.
-Developing the theme of "the insulted and the injured," Dostoevsky's proposed ideals face bankruptcy; however, the fervent yearning for beautiful ideals forever shines with the brilliance of humanitarianism.
-"The Brothers Karamazov" is Dostoevsky's final work, a summation of the author's philosophical reflections. With immense artistic power, he depicts the shameless and despicable decline of the Karamazov family. He expresses profound sympathy for the displaced and those living in dire conditions, showcasing the intricate themes of society, family, morality, and the tragedy of human nature, reflecting the writer's deep engagement with these issues.
---- 
-This translation maintains the professional tone and accurately reflects the literary and philosophical nuances of the original text.</t>
+          <t>A selection of 32 classic literary masterpieces from the Western Renaissance to the 20th century, a collection of authoritative translations published over the years, re-exploring the aesthetic value and individual dignity of literary classics, and recognizing the rich tension of human intellect and the complexity and depth of human nature.
+Featuring five of Shakespeare's most popular comedies, A Midsummer Night's Dream, The Merchant of Venice, Catching the Wind, The Merry Wives of Windsor, and The Tempest, Shakespeare's comedy is as remarkable as its tragedy. He took the optimism of the Renaissance humanists as the keynote of his comedy creation, and clearly expressed in his works humanist ideas such as demanding the emancipation of individuality, loving real life, and praising sincere love.
+The first modern novel in the history of Western literature, caricaturing the system of chivalry and chivalry, led to the collapse of traditional Spanish chivalric novels.
+Inheriting the tradition of ancient Greek and Roman epics, it reveals the original sin and depravity of man with majestic momentum.
+Written in the first person, Goethe's most well-known masterpiece is an epistolary novel.
+The poetic tragedy, based on sixteenth-century folklore, is the work of Goethe's life.
+The famous work of the British novelist Jane Austen, contrary to the pretentious writing method of sentimental novels at that time, vividly reflects the life and human conditions of the English towns and villages from the late 18th century to the early 19th century.
+Stendhal, the author, is known for his accurate psychological analysis of characters and concise penmanship, and this book is not only a realistic novel, but also a precedent for "psychological fiction".
+As a masterpiece of Romanticism, it won another victory of Romanticism to break the rigid mode of classicism.
+Herman Melville is one of the most outstanding romantic novelists in the history of American literature, and "Moby Dick" is his masterpiece. The white color given by the author to Moby Dick symbolizes innocence and horror, and the white whale symbolizes the mixture of good and evil, which is also the basic condition of the human world. This novel has become a masterpiece with its rich ideological content, the scale and maturity of the epic ship, and the contemplative nature of the writing.
+Flaubert, the master of realist literature in the 19th century, not only marked a turning point in the history of French fiction in the 19th century, but also influenced the evolution and development of the literary genre of the novel in the following century or so.
+A long historical novel written by the British writer Charles Dickens against the backdrop of the French Revolution, with a clear realistic relevance and humanitarian overtones.
+A remarkable psychosocial novel, heartily dissecting the inner world of a criminal, marks the maturity of Dostoevsky's artistic style.
+Having developed the theme of "insulted and damaged", Dostoevsky's positive ideals were bankrupt, but the ardent yearning for good ideals always shone with the brilliance of humanism.
+"The Brothers Karamazov" is Dostoevsky's last work, a summary of the author's philosophical reflections. The author depicts the depraved collapse of the shameless, despicable Karamazov family with great artistic power. Expressing deep sympathy for people who are displaced and living in dire straits, it shows the tragic themes of intricate society, family, morality and humanity, embodying the writer one</t>
         </is>
       </c>
     </row>
@@ -1431,11 +1380,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The autobiography of Nazi leader Adolf Hitler, "Mein Kampf," will be re-released for sale in Germany on the 8th, after being banned for 70 years, making it available to the German public once again. The new edition, however, is an annotated version that includes a significant amount of critical commentary.
-The publication of the annotated "Mein Kampf" has sparked intense controversy in Germany. Supporters argue that it serves to expose Hitler's political lies, while opponents fear that it may open a "Pandora's box," potentially reviving the extreme ideologies that Hitler espoused.
-Through the publication of this book and the ensuing debate, one can observe how modern Germany grapples with its history and views Hitler as a historical figure. 
-On December 11, 2015, the Munich Institute of Contemporary History in Germany exhibited various versions of "Mein Kampf." (Image source: Xinhua/Associated Press)
-Historian Norman Cohn pointed out that every word in "Mein Kampf" has cost 125 lives; every page has resulted in 4,700 deaths; and each chapter, on average</t>
+          <t>Nazi leader Hitler's autobiography "Mein Kampf" will be on sale again on the 8th after being banned in Germany for 70 years, and will meet the German public. Through the publication of this book and the controversy it caused, we can also see how modern Germany treats history and how it views Hitler as a historical figure.
+Nazi leader Hitler's autobiography "Mein Kampf" will be on sale again on the 8th after being banned in Germany for 70 years, and will meet the German public. This time, however, an annotated edition of Mein Kampf was published, with a large number of critical commentaries added.
+The publication of the annotated version of Mein Kampf sparked a heated controversy in Germany, with proponents advocating that it would expose Hitler's political lies, while opponents feared that "Pandora's box" might be opened and Hitler's extremist ideas might be revived.
+Through the publication of this book and the controversy it caused, we can also see how modern Germany treats history and how it views Hitler as a historical figure.
+On December 11, 2015, the Society for Contemporary History in Munich, Germany, exhibited different versions of "Mein Kampf". (Photo source: Xinhua/Midland)
+Historian Norman Cousins points out that every word in "Mein Kampf" cost 125 lives; 4,700 people lost their lives per page; Each chapter kills an average of 1.2 million people.
+Dubbed "the most dangerous book in the world", it has been banned from reprinting in Germany since 1945. After World War II, the Allies transferred ownership of Hitler's manuscripts to the Bavarian state government, as Hitler's registered address had been in Munich, the state capital, before his death.
+"Mein Kampf" uses Hitler's biography as the main clue, tells Hitler's life experience and his worldview, and the core idea is to promote the merger of Germany and Austria and anti-Semitism. After the defeat of Nazi Germany, the publication of this book in many countries was restricted by law because of its promotion of Nazi ideology.
+As the legal heir to the Nazi publishing house, the Bavarian State Ministry of Finance has been working to prevent the republication of Mein Kampf after inheriting the copyright of Mein Kampf, and has been doing so successfully.
+The goal of the Bavarian state government is very clear, which is to prevent the publication of works containing Nazi ideology by all means. The state government believes that in this era of radical right-wing ideas and anti-Semitic tendencies returning to society, Germany in particular needs to stop the spread of "Mein Kampf".
+However, due to copyright law, Bavaria could not hold the copyright of Hitler's works forever, and the seal on Mein Kampf would eventually be lifted.
+According to the relevant regulations, copyright automatically lapses after 70 years of the author's death. That is, after the 70th year after Hitler's suicide in 1945, that is, after December 31, 2015, the copyright of "Mein Kampf" will be free.
+In the face of this situation, the German government planned in advance, first, it determined that the publication of the original edition of "Mein Kampf" in Germany was illegal and violated the provisions of the law prohibiting incitement to the public; Second, the Munich Institute for Contemporary History in Bavaria has been preparing for the launch of a scientifically critical version of "Mein Kampf" in the event of copyright lapse in order to avoid copyright abuse and over-commercialization.
+From January</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1448,7 +1406,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在表达上更为自然，如“the new edition, however, is an annotated version that includes a significant</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达细节方面更为细腻，例如“the publication of this book and the controversy it caused”比谷歌翻译的“the publication of this book and the controversy it has caused”更符合原文的时态和语境。此外，大模型翻译在专业性上更强，使用了“scientifically critical version”而非“scientific and critical version”，更准确地传达了原意。谷歌翻译虽然整体可读性较好，但在某些句子的结构上略显生硬。</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1459,11 +1417,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The autobiography of Nazi leader Adolf Hitler, "Mein Kampf," will be re-released for sale in Germany on the 8th, after being banned for 70 years, making it available to the German public once again. The new edition, however, is an annotated version that includes a significant amount of critical commentary.
-The publication of the annotated "Mein Kampf" has sparked intense controversy in Germany. Supporters argue that it serves to expose Hitler's political lies, while opponents fear that it may open a "Pandora's box," potentially reviving the extreme ideologies that Hitler espoused.
-Through the publication of this book and the ensuing debate, one can observe how modern Germany grapples with its history and views Hitler as a historical figure. 
-On December 11, 2015, the Munich Institute of Contemporary History in Germany exhibited various versions of "Mein Kampf." (Image source: Xinhua/Associated Press)
-Historian Norman Cohn pointed out that every word in "Mein Kampf" has cost 125 lives; every page has resulted in 4,700 deaths; and each chapter, on average</t>
+          <t>Nazi leader Hitler's autobiography "Mein Kampf" will be on sale again on the 8th after being banned in Germany for 70 years, and will meet the German public. Through the publication of this book and the controversy it caused, we can also see how modern Germany treats history and how it views Hitler as a historical figure.
+Nazi leader Hitler's autobiography "Mein Kampf" will be on sale again on the 8th after being banned in Germany for 70 years, and will meet the German public. This time, however, an annotated edition of Mein Kampf was published, with a large number of critical commentaries added.
+The publication of the annotated version of Mein Kampf sparked a heated controversy in Germany, with proponents advocating that it would expose Hitler's political lies, while opponents feared that "Pandora's box" might be opened and Hitler's extremist ideas might be revived.
+Through the publication of this book and the controversy it caused, we can also see how modern Germany treats history and how it views Hitler as a historical figure.
+On December 11, 2015, the Society for Contemporary History in Munich, Germany, exhibited different versions of "Mein Kampf". (Photo source: Xinhua/Midland)
+Historian Norman Cousins points out that every word in "Mein Kampf" cost 125 lives; 4,700 people lost their lives per page; Each chapter kills an average of 1.2 million people.
+Dubbed "the most dangerous book in the world", it has been banned from reprinting in Germany since 1945. After World War II, the Allies transferred ownership of Hitler's manuscripts to the Bavarian state government, as Hitler's registered address had been in Munich, the state capital, before his death.
+"Mein Kampf" uses Hitler's biography as the main clue, tells Hitler's life experience and his worldview, and the core idea is to promote the merger of Germany and Austria and anti-Semitism. After the defeat of Nazi Germany, the publication of this book in many countries was restricted by law because of its promotion of Nazi ideology.
+As the legal heir to the Nazi publishing house, the Bavarian State Ministry of Finance has been working to prevent the republication of Mein Kampf after inheriting the copyright of Mein Kampf, and has been doing so successfully.
+The goal of the Bavarian state government is very clear, which is to prevent the publication of works containing Nazi ideology by all means. The state government believes that in this era of radical right-wing ideas and anti-Semitic tendencies returning to society, Germany in particular needs to stop the spread of "Mein Kampf".
+However, due to copyright law, Bavaria could not hold the copyright of Hitler's works forever, and the seal on Mein Kampf would eventually be lifted.
+According to the relevant regulations, copyright automatically lapses after 70 years of the author's death. That is, after the 70th year after Hitler's suicide in 1945, that is, after December 31, 2015, the copyright of "Mein Kampf" will be free.
+In the face of this situation, the German government planned in advance, first, it determined that the publication of the original edition of "Mein Kampf" in Germany was illegal and violated the provisions of the law prohibiting incitement to the public; Second, the Munich Institute for Contemporary History in Bavaria has been preparing for the launch of a scientifically critical version of "Mein Kampf" in the event of copyright lapse in order to avoid copyright abuse and over-commercialization.
+From January</t>
         </is>
       </c>
     </row>

--- a/out/literature_evaluation_results.xlsx
+++ b/out/literature_evaluation_results.xlsx
@@ -494,21 +494,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>更好的翻译：谷歌翻译  
-大模型翻译：75分  
-谷歌翻译：85分  
-原因：谷歌翻译在准确性和流畅性方面表现更佳，尤其在“心传心授”翻译为“heart-to-heart transmission”时，保留了原文的细腻情感。而大模型翻译在某些地方显得较为生硬，例如“从一个让娼玻就相当于否定了新中国以来所有戏曲作曲家的贡献”这一句的翻译不够清晰，导致理解困难。整体而言，谷歌翻译在语气和细节的保留上更为出色。</t>
+          <t>更好的翻译：大模型翻译  
+大模型翻译：85分  
+谷歌翻译：75分  
+原因：大模型翻译在准确性上表现更佳，尤其在“心传”一词的翻译上，使用了“heart-to-heart transmission”，而谷歌翻译则直接翻译为“heart-to-heart transmission”，未能体现其文化内涵。此外，大模型翻译在流畅性上更为自然，如“the contradiction between maintaining tradition and reflecting the content of new social life”表达得更为清晰。谷歌翻译在某些句子结构上略显生硬，例如“which made the traditional opera music, which had been passed down for a hundred years, enter a new era of change”显得冗长。</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2" t="n">
         <v>75</v>
       </c>
-      <c r="F2" t="n">
-        <v>85</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>During its long development, traditional Chinese opera mainly relied on oral transmission and heart-to-heart transmission. All the singing styles and tunes remained unchanged for decades or even hundreds of years. After participating in the creation of opera music, new music workers like Xu Ruhui (pen name Shuihui) from Shanghai Opera, who have a deep foundation in national music, have continuously integrated modern composition techniques with tradition in practice. Especially in the creation of modern opera, they have explored and created a series of novel and wonderful genres, which have well solved the contradiction between maintaining tradition and reflecting the new social life content. From the selection of themes to artistic treatment, they have filled many gaps in traditional opera music, and made a large number of opera repertoires from local small operas have a significant impact on guiding the development direction of Chinese literature and art. Xu Ruhui, under the pen name Shuihui, has created influential works such as "White Haired Girl", "Mother of Slaves", "Home", and "Two Generations", which have been passed down to this day in society, and his historical achievements are undeniable. It is not just Xu Ruhui. In the early 1950s, a group of new music workers joined the reform of various Chinese operas, such as Henan Opera and Yue Opera, which made the traditional opera music, which had been passed down for a hundred years, enter a new era of change. Their work is very creative and vital, which has brought about a qualitative change in Chinese opera music. Denying this is equivalent to denying the contributions of all opera composers since the founding of New China, and the achievements and basic direction of the development of Chinese literature and art since the founding of New China. All the singing styles of traditional operas are of the same basic tune. The singing styles of "schools" are just adjustments, changes and references made by actors to certain sections or phrases according to their own vocal conditions and characteristics. Because it is not based on the theoretical basis of the development of music disciplines and technologies, it is local, random and naturally generated. Therefore, Chinese opera has rarely changed in its hundreds of years of development history, and its fixed inheritance model cannot meet the requirements of expressing contemporary humanistic life. It was not until professional music workers like Xu Ruhui entered the creation of opera music that the overall design, overall layout, local integration, tone setting and theme penetration of opera repertoire music and singing styles were realized. , creating new patterns, expressing genres, and diversifying forms. A complete musical work (including a complete opera music) can only become a whole when the composer reprocesses, refines, integrates and recreates the basic patterns, programs, tunes and related materials. Looking at the representative works of the representatives of various Chinese opera genres since the 1950s, they are all the achievements of new literary and artistic workers, including new music workers such as Xu Ruhui, after entering the opera world. It is enough to illustrate the difference between the two. These works have more distinct characteristics of the times, and are closer to artistic and figurative musical languages and musical forms that are popular with the masses. The reform of modern Shanghai opera is a genre that is at the forefront of many operas in the country, and has produced a number of modern repertoires with great influence in the country (before this, the influence of Shanghai opera art and its scope of spread were very regional, and all the most important representative works of Shanghai opera were produced in the new literature and art circles).</t>
+          <t>In the long process of its development, traditional Chinese opera mainly relies on oral transmission, and all singing programs and music cards have basically not changed significantly for decades or even hundreds of years. After participating in the creation of opera music, Xu Ruhui (pen name Shui Hui), a new musician with deep national music skills in Shanghai's Shanghai opera industry, has continuously integrated modern composition techniques with tradition in practice, especially in the creation of modern opera, and has explored and created a series of novel and wonderful genres, which has well solved the contradiction between maintaining tradition and reflecting the content of new social life, and has filled many gaps in traditional opera music from the selection of themes to artistic treatment. Moreover, a large number of opera repertoire from local small operas later had a significant impact on the direction of Chinese literature and art development. Xu Ruhui used the pen name Shui Hui to create "The White-Haired Girl", "The Mother of a Slave", "Home", "Two Generations" and other influential works, which have been passed down in society to this day, and the historical achievements are undeniable.
+Not only Xu Ruhui, in the early fifties of the last century, various Chinese opera genres such as Henan Opera, Yue Opera, etc., have successively joined a group of new music workers to participate in its reform, so that the traditional opera music that has been inherited unchanged for a hundred years has begun to enter a new era of change, and the work they have done has a very strong creativity and vitality, so that Chinese opera music has undergone qualitative changes, denying this, from a Let Prostitute Bo is equivalent to denying the contribution of all opera composers since New China. The achievements and basic direction of China's literary and artistic development since the People's Republic of China.
+All the singing tones of traditional opera are a basic tone, and the "genre" singing voice is only the actor's adjustment, change and reference to a certain singing segment and a certain singing phrase according to their different voice conditions and characteristics, because it is not based on the theory of technical development of music disciplines, it is local, random and naturally generated, so Chinese opera has rarely changed in the development history of hundreds of years, and its fixed inheritance mode cannot meet the requirements of expressing contemporary humanistic life. Since Xu Ruhui, a professional musician entered the creation of opera music, there have been major developments and changes such as the overall design of the music and singing of the opera repertoire, the overall layout, the local integration, the setting of the tone, the theme throughout, the creation of new styles, the expression of genres, and the diversity of forms. A complete musical work (including a complete opera music) can only be integrated into a whole when the composer reprocesses, refines, integrates and recreates the basic format, program, melody and related materials. Throughout the fifties of the last century, the representative works of representatives of various types of Chinese opera are all made by new literary and artistic workers, including new music workers such as Xu Ruhui, after entering the opera world. Suffice it to explain the difference between the two before and after. These works have more distinctive characteristics of the times, closer to the artistic and figurative musical language and the musical form that the masses like to see.
+The reform of modern opera in Shanghai opera is a leading type of opera in many operas in the country, and has produced a number of modern repertoire that has a significant impact on the country (before that, the influence of Shanghai opera art and the circulation range were very regional, and all the most important masterpieces of Shanghai opera were produced in Xinwen).</t>
         </is>
       </c>
     </row>
@@ -543,7 +546,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：70分  
-原因：大模型翻译在准确性和流畅性方面表现更好，能够较好地传达原文的细节和语气。例如，"I was overjoyed"准确传达了原文的情感，而谷歌翻译未提供该情感的表达。此外，大模型翻译在句子结构上更为自然，避免了谷歌翻译中出现的生硬表达，如“the refugees set out from Tianjin”相较于原文的“逃难是从天津出发”更为直白。谷歌翻译在某些地方缺乏细节，导致信息的丢失。</t>
+原因：大模型翻译在准确性和流畅性方面表现更佳，能够较好地传达原文的细节和语气，例如“我喜出望外”被翻译为“I was overjoyed”，准确传达了原文的情感。而谷歌翻译在一些细节上略显生硬，如“我在年谱中有记载的有四次”翻译为“I recorded it four times in the annals”显得不够自然，缺乏流畅性。</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -592,7 +595,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性上表现更佳，尤其在“新感觉派”翻译为“New Sensibility”上更符合原意，而谷歌翻译使用了“New Sensationalism”，可能导致误解。此外，大模型翻译在流畅性上更自然，句子结构更符合英语表达习惯，例如“the influence of their pursuit and exploration transcends national boundaries and is far-reaching”比谷歌翻译的“the influence of their pursuit and exploration transcends national boundaries and reaches far and wide”更为简洁。</t>
+原因：大模型翻译在准确性上表现更佳，尤其在“新感觉派”翻译为“New Sensibility”而非“New Sensationalism”上更为贴切。此外，大模型翻译在流畅性上也更自然，例如“the three promoters of modernity: the prodigal, the wanderer, and the cultural translator”比谷歌翻译的“the three major promoters of modernity: the libertine, the wanderer and the cultural translator”更符合原文的语气和风格。谷歌翻译在某些地方使用了较为生硬的表达，如“the influence of their pursuit and exploration transcends national boundaries and reaches far and wide”，显得不够流畅。</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -642,16 +645,16 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>更好的翻译：谷歌翻译  
-大模型翻译：70分  
-谷歌翻译：80分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“卜”和“筮”的翻译上，使用了“fortune-telling”而非“大模型翻译”的“divination”，更符合英语使用习惯。此外，谷歌翻译在句子结构上更为自然，整体阅读体验更佳。大模型翻译在一些细节上略显生硬，例如“the two symbols of yin and yang can be stacked into three layers”不够清晰。</t>
+大模型翻译：75分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“卜”和“筮”的翻译上，使用了“fortune-telling”而非“大模型翻译”的“divination”，更符合语境。此外，谷歌翻译在句子结构上更为自然，避免了大模型翻译中出现的重复和不必要的复杂表达，如“Divination is divination”。整体而言，谷歌翻译更好地保留了原文的语气和细节。</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -694,13 +697,13 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>更好的翻译：谷歌翻译  
-大模型翻译：80分  
+大模型翻译：75分  
 谷歌翻译：85分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，特别是在“艺术歌曲的歌词采用著名诗歌”这一句中，谷歌翻译清晰地传达了原意，而大模型翻译则略显模糊。此外，谷歌翻译在保留原文的语气和细节方面做得更好，例如在描述艺术歌曲的特点时，使用了“高度浓缩的音乐小品”这一表达，增强了专业性。</t>
+原因：谷歌翻译在准确性和流畅性方面表现更佳，尤其在表达“艺术歌曲的结构细致精巧，音乐语言与诗歌语言水**融”时，使用了“the musical language and the poetic language are in perfect harmony”，更符合英语表达习惯。而大模型翻译在某些句子结构上略显复杂，导致流畅性下降，例如“the two are combined into one and sublimated together”可以更简洁地表达。谷歌翻译在保留原意和细节方面也做得更好，尤其是在描述艺术歌曲的特点时，使用了“reflecting the elegant and upward artistic taste”这一句，增强了原文的情感色彩。</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
         <v>85</v>
@@ -738,7 +741,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性上表现更佳，特别是在“世俗情态”翻译为“secular modality”上，较好地传达了原意，而谷歌翻译将其翻译为“secular mood”，略显不准确。此外，大模型翻译在流畅性上也更为自然，如“通过一群现代女性的日常生活来展开城市书写”翻译为“unfolds the urban writing through the daily life of a group of modern women”，语句结构清晰。谷歌翻译在某些地方使用了较为生硬的表达，如“temporary sitting”而非“sitting”，影响了整体的流畅性。</t>
+原因：大模型翻译在准确性上表现更佳，例如将“世俗情态”翻译为“secular modality”，而谷歌翻译使用了“secular mood”，后者未能准确传达原意。在流畅性方面，大模型翻译的句子结构更为自然，如“the relationship circle of many desires of women”相比于谷歌翻译的“relationship circles of many desire women”更符合英语表达习惯。虽然谷歌翻译也能传达大意，但在细节和专业性上略显不足。</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -785,7 +788,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性上表现更好，特别是在表达“以文弘业, 以文培元, 以文立心, 以文铸魂”时，使用了“promote the industry with literature, Peiyuan with literature, establish the heart with literature, cast the soul with literature”，更好地传达了原文的细腻含义。而谷歌翻译在某些地方使用了较为简单的表达，如“use literature to promote the cause”，未能完全体现原文的丰富性。此外，大模型翻译在流畅性上也稍显优越，整体语句更为自然。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“用文学促进事业”和“用文学铸魂”等表达上更为贴切，保留了原文的语气和细节。谷歌翻译虽然也传达了大意，但在某些地方如“fabricating, creating gimmicks, and sensationalism”使用了不够准确的词汇，导致语义略显模糊，影响了整体的流畅性和专业性。</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -826,15 +829,15 @@
         <is>
           <t>更好的翻译：谷歌翻译  
 大模型翻译：80分  
-谷歌翻译：85分  
-原因：谷歌翻译在准确性上表现更佳，特别是在“深情回眸”翻译为“look back at... with deep affection”时，较好地传达了原文的情感色彩。而大模型翻译在“微言大义”部分使用了“subtle meanings”，未能完全体现原文的深意。此外，谷歌翻译在流畅性上也略胜一筹，整体语句更为自然。</t>
+谷歌翻译：86分  
+原因：谷歌翻译在准确性上表现更佳，特别是在“深情回眸”翻译为“look back at the post-war left-wing movement with deep affection”时，保留了原文的情感色彩。而大模型翻译在“微言大义”部分翻译为“subtle meanings that the two people cannot say but must say”显得较为笨拙，未能准确传达原文的深意。此外，谷歌翻译在流畅性上也更自然，整体语句更符合英语表达习惯。</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -873,13 +876,13 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>更好的翻译：谷歌翻译  
-大模型翻译：70分  
+大模型翻译：75分  
 谷歌翻译：85分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在句子结构和用词上更符合英语表达习惯。例如，“deliberately let him go lightly”比“大模型翻译”的“deliberately recklessly”更清晰且自然。此外，谷歌翻译在保留原意和细节方面也做得更好，如对“意识形态的挑拨者”的翻译为“ideological instigator”，更准确地传达了原文的含义。</t>
+原因：谷歌翻译在准确性和流畅性方面表现更佳，尤其在句子结构和用词上更符合英语表达习惯。例如，谷歌翻译将“刻意轻放”翻译为“deliberately let him go lightly”，更贴近原意，而大模型翻译的“deliberately recklessly”则显得不够准确且不自然。此外，谷歌翻译在保留原文细节方面做得更好，如提到“民间头脑”时，谷歌翻译使用了“civilian brain”，而大模型翻译则未能准确传达这一细节。</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
         <v>85</v>
@@ -916,15 +919,15 @@
         <is>
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
-谷歌翻译：65分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，能够较好地传达原文的复杂含义和细节。例如，“登高使人心旷,临流使人意远”被准确翻译为“Climbing the heights makes people feel open, and the current makes people far”，而谷歌翻译未提供。谷歌翻译在流畅性上稍显生硬，且缺乏对文化背景的深入理解，导致一些句子不够自然。</t>
+谷歌翻译：70分  
+原因：大模型翻译在准确性和流畅性上表现更佳，能够较好地传达原文的含义和语气。例如，“登高使人心旷, 临流使人意远”被翻译为“Climbing the heights makes people feel open, and the current makes people far”，准确传达了原文的意境。而谷歌翻译在某些句子的结构上显得较为生硬，缺乏自然流畅的表达，影响了整体的可读性。</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>85</v>
       </c>
       <c r="F11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -961,25 +964,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“the serious psychological crisis of the Tang Dynasty emperor”这一句中，使用了“emperor”而非“emperors”，更准确地反映了原文的单数含义。此外，大模型翻译在细节上更为细腻，如“the eunuch created a tragedy as soon as he took the post of military supervisor”这一句，表达了因果关系，增强了逻辑性。谷歌翻译虽然整体流畅，但在某些地方如“the grand marshal without the title of grand marshal”显得重复，影响了表达的简洁性。</t>
+          <t>更好的翻译：谷歌翻译  
+大模型翻译：80分  
+谷歌翻译：85分  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“这曾经繁荣的超级大国，在经历这次沉重打击后，永远无法恢复”这一句中，使用了“never recovered”更准确地传达了原文的含义。而大模型翻译在某些地方如“the eunuch created a tragedy as soon as he took the post of military supervisor”中，表达略显生硬，影响了流畅性。整体来看，谷歌翻译在保留原意和自然表达上更胜一筹。</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>The Anshi Rebellion was a watershed in the Tang Dynasty from prosperity to decline. This once-prosperous superpower has been in a state of collapse since then. The impact of the Anshi Rebellion on the Tang Dynasty has been summarized by historians from many aspects and written into history textbooks. However, the serious psychological crisis of the Tang Dynasty emperor caused by the Anshi Rebellion seems to have been ignored by historians. In fact, the psychological crisis of the emperor had a very far-reaching impact on the political pattern of the late Tang Dynasty. The most direct manifestation of the emperor's psychological crisis is that he no longer trusts the generals, but only the eunuchs. Because the eunuchs were the domestic slaves in the palace, in the emperor's opinion, they would not be in danger of rebellion, and the emperor had been served by the eunuchs since he was a child, and he thought that he had a good relationship with each other and was trustworthy.
-Tang Xuanzong created a rare Kaiyuan era in history, and was undoubtedly an accomplished emperor. However, the Anshi Rebellion, the high level of self-confidence before Xuanzong, disappeared overnight. Therefore, when he ordered the general Gao Xianzhi and Feng Changqing to lead the troops to quell the rebellion, he specially sent the eunuch Bian Lingcheng as the supervisor. However, the opening of the eunuch's appointment as a prisoner created a tragedy. The narrow-minded Bian Lingcheng disagreed with Gao Xianzhi and Feng Changqing, so he falsely accused them of embezzling military rations and shaking the morale of the army. Tang Xuanzong actually listened to the slander and killed these two generals with outstanding achievements without hesitation. It can be seen from this how serious Tang Xuanzong's psychological crisis is.
-The same psychological crisis then appeared in Tang Suzong. In September of the first year of Qianyuan (758 AD), Su Zong ordered Guo Ziyi, Li Guangbi and other Jiujiedu envoys to lead an army of 600,000 to besiege Xiangzhou and crusade against the rebels. In order to monitor these generals, Su Zong did not set up a marshal on the grounds that Guo Ziyi and Li Guangbi were both state fathers and it was difficult to subordinate each other, but appointed the eunuch Yu Chaoen as the envoy of Guan Jun Rong Xuanwei - - This is the name newly created by Su Zong, that is, the generalissimo without the name of generalissimo. The eunuch, who knew nothing about the art of war, became the supreme military commander, and the outcome of the war was not difficult to predict. Sure enough, in the first battle of Xiangzhou, the Tang army was defeated, only 3,000 horses were left, and almost all of the 100,000 swords and guns were lost. After the war, Yu Chaoen put all the responsibility for the defeat on the general Guo Ziyi. Su Zong did not know right from wrong and relieved Guo Ziyi of military power.
-Because of their physical disabilities, most of the eunuchs are psychologically distorted, and once they gain power, they are often more insatiable and domineering than normal people. Therefore, the eunuchs served as the supervisors of the army, which caused many evil consequences, and many generals of the feudal towns were even forced to rebel. The general Gu Huai'en made outstanding achievements in the pacification of the Anshi Rebellion, forty-six of his disciples died for the country, and his daughter also married to the Hui Khanate for the sake of the country and pro-policy. However, because he offended the eunuch Luo Fengxian, Luo Fengxian secretly accused him of rebellion. After Fugu Huaien found out, he didn't want to be Gao Xianzhi's second, so he had to rebel. Liu Wu, the envoy of the Zhaoyi Festival, and Zhou Zhiguang, the envoy of the Tonghua Festival, were also unable to bear the humiliation and oppression of the eunuchs, and were forced to rebel. When Zhou Zhiguang rebelled, he issued a statement saying: "Fugu Huaien was not rebelling, but he was forced to rebel by you; I didn't rebel in the first place, but today I rebelled for you." The generals of the feudal towns were forced to rebel by the eunuchs, which further exacerbated the psychological crisis of the emperor, thus forming a vicious circle.
-Eunuchs were not only sent to the army as overseers, but</t>
+          <t>The An-Shi Rebellion was the watershed of the Tang Dynasty from prosperity to decline. This once-prosperous superpower, after experiencing this heavy blow, never recovered. Historians have summarized the impact of the An-Shi Rebellion on the Tang Dynasty from many aspects and written it into history textbooks. However, the serious psychological crisis of the Tang Dynasty emperors caused by the An-Shi Rebellion seems to have been ignored by historians. In fact, the emperor's psychological crisis had a profound impact on the political structure of the late Tang Dynasty. The most direct manifestation of the emperor's psychological crisis was that he no longer trusted military generals, but only eunuchs. Because eunuchs were palace slaves, in the emperor's view, they would not be in danger of rebellion, and the emperor had been served by eunuchs since he was a child, and he thought that they had a harmonious relationship and were trustworthy. Emperor Xuanzong of Tang created the rare Kaiyuan prosperity in history and was undoubtedly an accomplished emperor. However, the high self-confidence that Emperor Xuanzong had before disappeared overnight during the An-Shi Rebellion. Therefore, when he ordered the generals Gao Xianzhi and Feng Changqing to lead the army to suppress the rebellion, he specially sent the eunuch Bian Lingcheng as the military supervisor. However, the eunuch created a tragedy as soon as he took the post of military supervisor. The narrow-minded Bian Lingcheng, due to disagreements with Gao Xianzhi and Feng Changqing, falsely accused them of embezzling military rations and shaking the morale of the army. Emperor Xuanzong actually believed the slander and killed these two generals with outstanding military achievements without hesitation. This shows how serious Emperor Xuanzong's psychological crisis was. The same psychological crisis then appeared in Tang Suzong. In September of the first year of Qianyuan (758 AD), Suzong ordered Guo Ziyi, Li Guangbi and other nine military governors to lead 600,000 troops to besiege Xiangzhou and fight against the rebels. In order to monitor these generals, Suzong did not appoint a marshal on the grounds that Guo Ziyi and Li Guangbi were both national heroes and it was difficult for them to be subordinate to each other. Instead, he appointed the eunuch Yu Chaoen as the military commander - this was a new name created by Suzong, that is, the grand marshal without the title of grand marshal. The eunuch who knew nothing about military tactics became the highest military commander, and the outcome of the war was not difficult to predict. Sure enough, in the battle of Xiangzhou, the Tang army was defeated, and only 3,000 war horses were left, and almost all of the 100,000 swords and guns were lost. After the war, Yu Chaoen put all the responsibility for the failure on the general Guo Ziyi. Suzong did not know right from wrong and removed Guo Ziyi's military power. Because of their physical defects, eunuchs are mostly psychologically distorted. Once they gain power, they are often more greedy and overbearing than normal people. Therefore, eunuchs serving as military supervisors has caused many bad consequences, and many vassal generals have even been forced to rebel. General Pugu Huai'en made outstanding military achievements in pacifying the Anshi Rebellion. Forty-six people in his family died in battle for the country. His daughter also married to the Uighur Khanate for the country's policy of marriage. However, because he offended the eunuch Luo Fengxian, Luo Fengxian secretly reported him for rebellion. After Pugu Huai'en found out, he did not want to be the second Gao Xianzhi, so he had to rebel. Liu Wu, the governor of Zhaoyi, and Zhou Zhiguang, the governor of Tonghua, were also forced to rebel because they could not bear the humiliation and oppression of the eunuchs. When Zhou Zhiguang rebelled, he issued a statement saying: "Pugu Huai'en did not rebel originally, but was forced to rebel by you; I did not rebel originally, but I rebel for you today." The vassal generals were forced to rebel by the eunuchs, which further aggravated the emperor's psychological crisis, thus forming a vicious circle. Eunuchs were not only sent to the army as supervisors, but also</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1011,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性上表现更佳，尤其在对“西方中心论”及“民间史观”的翻译上更为精准，使用了“Western-centrism”和“folk view of history”，而谷歌翻译则使用了“Western-centrism”但在“民间史观”上翻译为“folk historical views”，略显模糊。此外，大模型翻译在流畅性上更自然，如“illuminating Chinese Historical Thinking with a Western Analytical Imagination”表达更为流畅，而谷歌翻译的“Using a Western analytical imagination to illuminate Chinese historical thinking”则稍显生硬。整体上，大模型翻译在保留原意和语气方面也更为出色。</t>
+原因：大模型翻译在准确性上表现更佳，特别是在对“西方中心论”一词的翻译上使用了“Western-centrism”，而谷歌翻译则使用了“Western-centrism”但未提及“John King Fairbank”的全名，导致信息不够完整。此外，大模型翻译在流畅性上更自然，句子结构较为优雅，例如“the desire to go deep into China and examine and re-understand Chinese history to the greatest extent possible as Chinese himself”比谷歌翻译的“his determination to go deep into China and examine and re-understand Chinese history to the greatest extent possible, just as the Chinese people have experienced it themselves”更为简洁。谷歌翻译在某些地方的用词和句式稍显笨拙，影响了整体流畅性。</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1063,21 +1062,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>更好的翻译：谷歌翻译  
-大模型翻译：80分  
-谷歌翻译：85分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“我想他是失败的，但在某种意义上说他又是成功了的”这句中，谷歌翻译使用了“but in a sense he succeeded”，更好地传达了原文的含义。大模型翻译在某些地方显得较为生硬，例如“他浑身上下都很苍老”翻译为“he is very old from top to bottom”不够自然。整体来看，谷歌翻译在保留原意和语气方面更为出色。</t>
+          <t>更好的翻译：大模型翻译  
+大模型翻译：85分  
+谷歌翻译：75分  
+原因：大模型翻译在准确性上表现更佳，特别是在细节的传达上，例如“他浑身上下都很苍老”翻译为“he is very old from top to bottom”，更贴近原意。而谷歌翻译在某些地方如“他那捕鱼的不幸遭遇象征人类总是与厄运不断抗争”未能准确传达原文的深意，导致整体流畅性略有欠缺。大模型翻译的句子结构更为自然，语气也更符合原文的情感表达。</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>The whole story ends here. I gently close the book "The Old Man and the Sea", but I still feel unsatisfied. I close the book and ponder. The skinny and unyielding figure of the old man appears in my mind. There are deep wrinkles on his neck and back, and brown spots cover his cheeks. Except for a pair of eyes, he looks very old. Those eyes are optimistic and never give up, and their color is the same as the sea. "The Old Man and the Sea" is the representative work of Hemingway in the United States. After catching no fish for 84 consecutive days, the old Cuban fisherman Santiago finally caught a big marlin by himself. He dragged it for three days until he was exhausted. He killed it and tied it to the side of the boat. On the way back, he was repeatedly attacked by sharks. When he finally returned to the port, only the head, tail and spine of the fish were left. I think he failed, but in a sense he succeeded. In the first 84 days, the old man's fish basket was empty. He stood on the coast waiting for the arrival of the 85th day-- On that lucky day, he set out with hope, heading for the far end of the sea. After being hungry and tired, he still refused to give up the big fish. When the big fish was eaten by sharks and only a skeleton was left, he asked himself: "But what defeated you?" "Nothing... I went too far." The old man admitted his failure, but he absolutely believed in his own strength. He believed that he was still very brave even if he failed, and that he did not lose to the shark in spirit, because it was the shark that was destroyed, not himself. I pondered for a long time alone, savoring the moral of this book. The background of the work is after the two world wars and the Spanish War. People have not yet woken up from the nightmare of the world war. Disillusionment, loss and other confusions plagued people. The post-war society was a scene of chaos and decline. The absurd phenomena of war and society brought deep trauma to Hemingway's mind and body. It can be said that he had a narrow escape from death. I thought about it for a long time and realized that the marlin symbolizes the ideal of life, the shark symbolizes the tragic fate that cannot be escaped, the sea symbolizes the ever-changing human society, and the lion in the dream is a symbol of bravery, hatred of evil, and the ability to create miracles. The old man is a representative of the "tough guy" among humans who dares to fight against powerful forces. His unfortunate experience of fishing symbolizes that humans always fight against bad luck. "The ocean is kind and very beautiful," she gave the old man a big marlin "two feet longer than the boat." But the ocean is cruel- - The sharks that came in groups took away the big fish he had worked so hard to catch, shattering his "glory". The relationship between the old man and the sea is that he depends on the sea and fights with the sea. The sea is his place of life and battle, and will also be his final destination. It turns out that although the old man is old, he has never given in. As he said: "A person is not born to be defeated. People can be destroyed, but they cannot be defeated." "The Old Man and the Seagull" is such a text. It tells the story of an old man named Wu Qingheng in Kunming who has been taking care of and feeding the seagulls by the Cui Lake like a family member for more than ten years. When the old man died, the seagulls spontaneously kept vigil for the old man, unwilling to leave their loved ones.</t>
+          <t>This is the end of the whole story, gently close the book "The Old Man and the Sea", the meaning is still unfinished, cover the volume and ponder, the old man's skinny, unyielding figure comes to my mind, his neck is carved with deep wrinkles, brown spots all over his cheeks, except for a pair of eyes, he is very old from top to bottom. Those eyes are optimistic and never say die, and the color is like the sea.
+"The Old Man and the Sea" is Hemingway's masterpiece in the United States, the old Cuban fisherman Santiago finally caught a big marlin alone after 84 consecutive days without catching a fish, dragged it for three days and was exhausted, he was killed and tied to the side of the boat, and was repeatedly attacked by sharks on the way back, and finally returned to port with only the head and tail and a backbone.
+I think he failed, but in a sense he succeeded.
+For the first eighty-four days, the old man's basket was empty, and he stood on the shore waiting for the eighty-fifth day to come - that day of good luck. He sailed away full of hope, sailing to the far side of the sea, and after hunger and exhaustion, he refused to give up the big fish, and when his big fish was eaten by the shark and only a skeleton remained, he asked himself, "But what defeated you?" Nothing...... It's that I've gone too far." The old man admits his failures, but he absolutely believes in the power of his own self. I believe that he is still brave even if he fails, and I believe that he is not mentally defeated by the shark, because it is the shark that is destroyed, not himself.
+I thought about it alone for a long time, savoring the moral of this book, which is set in the aftermath of the two world wars and the Spanish War, when people have not yet woken up from the nightmare of world wars, and disillusionment, loss, and other confusion plague people. The post-war society was a chaotic and decaying scene, and the absurdities of war and society brought deep mental and physical trauma to Hemingway. I thought about it for a long time and realized that the marlin symbolizes the ideal of life, the shark symbolizes the tragic fate that cannot be escaped, the sea symbolizes the fickle human society, and the lion in my dream is a symbol of courage and strength, hatred of evil, and can create miracles, and the old man is the representative of the "tough guy" who has the courage to fight against powerful forces in human beings, and his unfortunate fishing experience symbolizes that human beings are always fighting against bad luck.
+"The sea is merciful and beautiful," she said, giving the old man a large marlin that was "two feet longer than a boat." But the sea is cruel - then the sharks came in droves to take away the big fish he had hunted down and shattered his "glory". The sea is his place of life and battle, and it will also be his final destination.
+It turns out that the old man, despite his old age, has always refused to give in, as he said: "A man is not born to be defeated, he can be destroyed, but he cannot be defeated."
+"The Old Man and the Seagull" is one such text. tells the story of an old man named Wu Qingheng in Kunming who has been taking care of and feeding the seagulls by the Green Lake like a relative for more than ten years. When the old man died, the seagull spontaneously kept a vigil for the old man and could not bear to leave his loved ones.</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1124,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性上表现更佳，尤其在“要使人为的,或者是基于自我蒙骗的,似乎是现实的燥热冷却下来”这一句中，使用了“cool down the heat of what seems to be reality, artificially or on the basis of self-deception”，更好地传达了原文的复杂含义。而谷歌翻译在“要使人为的”部分翻译为“cool down the artificial or self-deceptive, seemingly realistic heat”，略显生硬，未能充分体现原文的细腻语气。此外，大模型翻译在流畅性上也更自然，整体结构更符合英语表达习惯。</t>
+原因：大模型翻译在准确性上表现更佳，特别是在“组织”一段中，使用了“arranged and managed by the government in accordance with certain principles”更清晰地传达了原文的意思，而谷歌翻译的“uniformly arranged and managed by the government according to certain principles”略显模糊。此外，大模型翻译在流畅性上也更自然，整体语句结构更符合英语表达习惯。谷歌翻译虽然整体可读性较好，但在细节上缺乏一些准确性和专业性。</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1164,16 +1170,16 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>更好的翻译：谷歌翻译  
-大模型翻译：75分  
-谷歌翻译：85分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“水浒传”与“史记”的比较中，使用了“better”一词，传达了更清晰的比较关系。而大模型翻译在某些句子结构上显得较为生硬，例如“the history of the Song Dynasty has recorded the deeds of the thief Song Jiang and others”不够自然。谷歌翻译</t>
+大模型翻译：70分  
+谷歌翻译：80分  
+原因：谷歌翻译在准确性上表现更佳，特别是在“水浒传”与“史记”的比较中，使用了“better”而非“大于”，更符合原意。此外，谷歌翻译在流畅性上也更自然，例如“the 108 heroes finally became a well-known and familiar heroic legend”比“大盗宋江等人的事迹”翻译为“the deeds of the thief Song Jiang and others”更为简洁明了。大模型翻译在某些地方显得较为生硬，影响了整体的流畅性。</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1214,7 +1220,7 @@
           <t>更好的翻译：谷歌翻译  
 大模型翻译：82分  
 谷歌翻译：88分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在句子结构和用词上更符合英语表达习惯。例如，谷歌翻译使用了“Your crime should be put to death”这一表达，较好地传达了原文的严肃性，而大模型翻译的“you should die”显得较为直白。此外，谷歌翻译在细节上更为严谨，如“some monks will be specially invited to pray for their souls”更准确地传达了原文中“超度”的含义。</t>
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在句式的自然性上更为突出，例如“Your crime should be put to death, and all your family members will be summoned to meet you.”这一句比大模型翻译的“you should do your best to make your family meet you”更符合英语表达习惯。此外，谷歌翻译在细节上更为严谨，保留了原文的语气和细节，如“pray for their souls”与“大模型翻译”的“do it for them”相比，更能体现出对死刑犯的尊重。</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1264,13 +1270,13 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>更好的翻译：谷歌翻译  
-大模型翻译：75分  
+大模型翻译：80分  
 谷歌翻译：85分  
-原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“雅纸”翻译为“elegant paper”时，保持了原意并且使用了更自然的表达。此外，谷歌翻译在细节处理上更为细致，例如“东汉龙亭侯蔡伦的造纸术”翻译为“the papermaking technique of Cai Lun, the Marquis of Longting in the Eastern Han Dynasty”，更准确地传达了历史背景。而大模型翻译在某些地方略显生硬，如“the audience strongly felt the Taoist aesthetic spirit of plainness, innocence and softness contained in the works”相对较为复杂，缺乏流畅性。</t>
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其在“500-year-old elegant paper 're-emerges'”的翻译中，使用了“re-emerges”这一更自然的表达。而大模型翻译在某些地方显得较为生硬，例如“the audience feels that the works contain the bland, innocent and soft aesthetic spirit of Taoism”中的“feels that”用词不够精准，影响了流畅性。谷歌翻译在保留原意和细节方面也做得更好，整体更符合中文的表达习惯。</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
         <v>85</v>
@@ -1330,7 +1336,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性上表现更佳，例如“Catching the Wind”翻译为“Catching the Wind”而非“Catching Shadows”，保持了原文的准确性。同时，大模型翻译在流畅性上更为自然，句子结构更符合英语表达习惯。谷歌翻译虽然整体通顺，但在某些细节上如“以磅礴气势揭示了人的原罪与堕落”翻译为“reveals the original sin and depravity of man with magnificent momentum”略显生硬。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达莎士比亚的喜剧成就时使用了“as remarkable as its tragedy”，更好地传达了原文的对比效果。而谷歌翻译在某些地方使用了较为直白的表达，如“Catching Shadows”而非“Catching the Wind”，影响了准确性和文学性。整体来看，大模型翻译在保留原意和语气方面更为出色。</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1406,7 +1412,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达细节方面更为细腻，例如“the publication of this book and the controversy it caused”比谷歌翻译的“the publication of this book and the controversy it has caused”更符合原文的时态和语境。此外，大模型翻译在专业性上更强，使用了“scientifically critical version”而非“scientific and critical version”，更准确地传达了原意。谷歌翻译虽然整体可读性较好，但在某些句子的结构上略显生硬。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达复杂句子时更为自然。例如，“the publication of this book and the controversy it caused”在大模型翻译中更为清晰，而谷歌翻译在某些地方的句子结构略显生硬。此外，大模型翻译在细节上更为严谨，如“the seal on Mein Kampf would eventually be lifted”更准确地传达了版权解除的过程。谷歌翻译虽然也传达了大意，但在某些细节和语气上略显不足。</t>
         </is>
       </c>
       <c r="E20" t="n">
